--- a/Code/skripsi.xlsx
+++ b/Code/skripsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radityarin/Documents/Kuliah/Skripsi/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D398F6C-30C5-B449-9215-0B26657E13B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09676A9-E8CC-E043-B2C5-D960279C5DD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32000" windowHeight="17540" activeTab="1" xr2:uid="{3413B29C-560F-AE4D-9915-B4DC0247194E}"/>
   </bookViews>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7780" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7781" uniqueCount="1288">
   <si>
     <t>No</t>
   </si>
@@ -5006,6 +5006,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5042,18 +5043,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5075,6 +5064,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5087,65 +5079,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5198,7 +5142,63 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -8771,8 +8771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9C813F-6AA6-4244-8545-D90AD892FCF7}">
   <dimension ref="A1:AI37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8950,6 +8950,9 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D11" s="7" t="s">
+        <v>442</v>
+      </c>
       <c r="E11" s="76"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
@@ -8959,7 +8962,7 @@
       <c r="D13" s="7"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="141"/>
+      <c r="C37" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8999,126 +9002,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="G1" s="82" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="G1" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="82"/>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="82"/>
-      <c r="AV1" s="82"/>
-      <c r="AW1" s="82"/>
-      <c r="AX1" s="82"/>
-      <c r="AY1" s="82"/>
-      <c r="BA1" s="77" t="s">
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="83"/>
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="BA1" s="78" t="s">
         <v>432</v>
       </c>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
       <c r="BE1" s="45"/>
-      <c r="BF1" s="78" t="s">
+      <c r="BF1" s="79" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:58" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="82"/>
-      <c r="AR2" s="82"/>
-      <c r="AS2" s="82"/>
-      <c r="AT2" s="82"/>
-      <c r="AU2" s="82"/>
-      <c r="AV2" s="82"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="82"/>
-      <c r="AY2" s="82"/>
-      <c r="BA2" s="77"/>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="77"/>
-      <c r="BD2" s="77"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
       <c r="BE2" s="45"/>
-      <c r="BF2" s="78"/>
+      <c r="BF2" s="79"/>
     </row>
     <row r="3" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -9133,63 +9136,63 @@
       <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="R3" s="86" t="s">
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="R3" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AC3" s="86" t="s">
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AC3" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="86"/>
-      <c r="AP3" s="86" t="s">
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="87"/>
+      <c r="AM3" s="87"/>
+      <c r="AN3" s="87"/>
+      <c r="AP3" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="AQ3" s="86"/>
-      <c r="AR3" s="86"/>
-      <c r="AS3" s="86"/>
-      <c r="AT3" s="86"/>
-      <c r="AU3" s="86"/>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="86"/>
-      <c r="AX3" s="86"/>
-      <c r="AY3" s="86"/>
+      <c r="AQ3" s="87"/>
+      <c r="AR3" s="87"/>
+      <c r="AS3" s="87"/>
+      <c r="AT3" s="87"/>
+      <c r="AU3" s="87"/>
+      <c r="AV3" s="87"/>
+      <c r="AW3" s="87"/>
+      <c r="AX3" s="87"/>
+      <c r="AY3" s="87"/>
       <c r="AZ3" s="17"/>
-      <c r="BA3" s="79" t="s">
+      <c r="BA3" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="79"/>
-      <c r="BD3" s="79"/>
+      <c r="BB3" s="80"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
       <c r="BE3" s="44"/>
       <c r="BF3" s="49"/>
     </row>
@@ -10894,12 +10897,12 @@
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
       <c r="G15" s="12" t="s">
         <v>120</v>
       </c>
@@ -11043,10 +11046,10 @@
       <c r="BF15" s="48"/>
     </row>
     <row r="16" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="85"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
       <c r="G16" s="12" t="s">
         <v>121</v>
       </c>
@@ -13046,12 +13049,12 @@
       </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
       <c r="G29" s="12" t="s">
         <v>134</v>
       </c>
@@ -13195,10 +13198,10 @@
       <c r="BF29" s="48"/>
     </row>
     <row r="30" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
       <c r="G30" s="12" t="s">
         <v>135</v>
       </c>
@@ -15186,12 +15189,12 @@
       <c r="BF42" s="33"/>
     </row>
     <row r="43" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
       <c r="G43" s="12" t="s">
         <v>148</v>
       </c>
@@ -15335,10 +15338,10 @@
       <c r="BF43" s="33"/>
     </row>
     <row r="44" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A44" s="85"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
       <c r="G44" s="12" t="s">
         <v>149</v>
       </c>
@@ -17318,12 +17321,12 @@
       <c r="BF56" s="33"/>
     </row>
     <row r="57" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A57" s="84" t="s">
+      <c r="A57" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
       <c r="G57" s="12" t="s">
         <v>162</v>
       </c>
@@ -17467,10 +17470,10 @@
       <c r="BF57" s="33"/>
     </row>
     <row r="58" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A58" s="85"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
       <c r="G58" s="12" t="s">
         <v>163</v>
       </c>
@@ -19450,12 +19453,12 @@
       <c r="BF70" s="33"/>
     </row>
     <row r="71" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A71" s="84" t="s">
+      <c r="A71" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
       <c r="G71" s="12" t="s">
         <v>176</v>
       </c>
@@ -19599,10 +19602,10 @@
       <c r="BF71" s="33"/>
     </row>
     <row r="72" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A72" s="85"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
+      <c r="A72" s="86"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="86"/>
       <c r="G72" s="12" t="s">
         <v>177</v>
       </c>
@@ -21725,11 +21728,11 @@
       <c r="BF85" s="33"/>
     </row>
     <row r="86" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="B86" s="80" t="s">
+      <c r="B86" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C86" s="80"/>
-      <c r="D86" s="81" t="s">
+      <c r="C86" s="81"/>
+      <c r="D86" s="82" t="s">
         <v>212</v>
       </c>
       <c r="G86" s="12" t="s">
@@ -21875,9 +21878,9 @@
       <c r="BF86" s="33"/>
     </row>
     <row r="87" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="B87" s="80"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="81"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="82"/>
       <c r="G87" s="12" t="s">
         <v>192</v>
       </c>
@@ -22021,9 +22024,9 @@
       <c r="BF87" s="33"/>
     </row>
     <row r="88" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="81"/>
+      <c r="B88" s="81"/>
+      <c r="C88" s="81"/>
+      <c r="D88" s="82"/>
       <c r="G88" s="19" t="s">
         <v>232</v>
       </c>
@@ -22341,18 +22344,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -22498,18 +22501,18 @@
       <c r="D13" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="85"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
@@ -22652,18 +22655,18 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
@@ -22806,18 +22809,18 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="85"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
@@ -23006,24 +23009,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="90" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="G1" s="100" t="s">
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="G1" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="100"/>
+      <c r="H1" s="98"/>
     </row>
     <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
@@ -23048,16 +23051,16 @@
       <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="101" t="s">
         <v>376</v>
       </c>
-      <c r="H3" s="103"/>
+      <c r="H3" s="101"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
-      <c r="K3" s="89" t="s">
+      <c r="K3" s="102" t="s">
         <v>320</v>
       </c>
-      <c r="L3" s="89"/>
+      <c r="L3" s="102"/>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
@@ -23080,8 +23083,8 @@
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
@@ -23101,10 +23104,10 @@
       <c r="E5" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="101" t="s">
+      <c r="G5" s="99" t="s">
         <v>375</v>
       </c>
-      <c r="H5" s="102"/>
+      <c r="H5" s="100"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="20" t="s">
@@ -23132,7 +23135,7 @@
       <c r="E6" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="90" t="s">
+      <c r="G6" s="103" t="s">
         <v>280</v>
       </c>
       <c r="H6" s="29" t="s">
@@ -23165,7 +23168,7 @@
       <c r="E7" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="91"/>
+      <c r="G7" s="104"/>
       <c r="H7" s="20" t="s">
         <v>292</v>
       </c>
@@ -23196,7 +23199,7 @@
       <c r="E8" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="91"/>
+      <c r="G8" s="104"/>
       <c r="H8" s="20" t="s">
         <v>293</v>
       </c>
@@ -23256,7 +23259,7 @@
       <c r="E10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="97" t="s">
         <v>173</v>
       </c>
       <c r="H10" s="20" t="s">
@@ -23289,7 +23292,7 @@
       <c r="E11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="92"/>
+      <c r="G11" s="97"/>
       <c r="H11" s="20" t="s">
         <v>292</v>
       </c>
@@ -23320,7 +23323,7 @@
       <c r="E12" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="92"/>
+      <c r="G12" s="97"/>
       <c r="H12" s="20" t="s">
         <v>293</v>
       </c>
@@ -23356,14 +23359,14 @@
       <c r="Q13" s="25"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81" t="s">
+      <c r="D14" s="81"/>
+      <c r="E14" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="92" t="s">
+      <c r="G14" s="97" t="s">
         <v>110</v>
       </c>
       <c r="H14" s="20" t="s">
@@ -23384,10 +23387,10 @@
       <c r="Q14" s="25"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="G15" s="92"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
+      <c r="G15" s="97"/>
       <c r="H15" s="20" t="s">
         <v>294</v>
       </c>
@@ -23406,10 +23409,10 @@
       <c r="Q15" s="25"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
-      <c r="G16" s="92"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="G16" s="97"/>
       <c r="H16" s="20" t="s">
         <v>295</v>
       </c>
@@ -23428,9 +23431,9 @@
       <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
       <c r="G17" s="28"/>
       <c r="H17" s="20"/>
       <c r="I17" s="25"/>
@@ -23448,10 +23451,10 @@
       <c r="Q17" s="25"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="G18" s="92" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
+      <c r="G18" s="97" t="s">
         <v>245</v>
       </c>
       <c r="H18" s="20" t="s">
@@ -23472,10 +23475,10 @@
       <c r="Q18" s="25"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
-      <c r="G19" s="92"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82"/>
+      <c r="G19" s="97"/>
       <c r="H19" s="20" t="s">
         <v>297</v>
       </c>
@@ -23494,10 +23497,10 @@
       <c r="Q19" s="25"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
-      <c r="G20" s="92"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="G20" s="97"/>
       <c r="H20" s="20" t="s">
         <v>298</v>
       </c>
@@ -23533,7 +23536,7 @@
       <c r="Q21" s="25"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G22" s="92" t="s">
+      <c r="G22" s="97" t="s">
         <v>124</v>
       </c>
       <c r="H22" s="20" t="s">
@@ -23554,7 +23557,7 @@
       <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G23" s="92"/>
+      <c r="G23" s="97"/>
       <c r="H23" s="20" t="s">
         <v>299</v>
       </c>
@@ -23573,7 +23576,7 @@
       <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G24" s="92"/>
+      <c r="G24" s="97"/>
       <c r="H24" s="20" t="s">
         <v>300</v>
       </c>
@@ -23609,7 +23612,7 @@
       <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G26" s="92" t="s">
+      <c r="G26" s="97" t="s">
         <v>248</v>
       </c>
       <c r="H26" s="20" t="s">
@@ -23630,7 +23633,7 @@
       <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G27" s="92"/>
+      <c r="G27" s="97"/>
       <c r="H27" s="20" t="s">
         <v>301</v>
       </c>
@@ -23649,7 +23652,7 @@
       <c r="Q27" s="25"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G28" s="92"/>
+      <c r="G28" s="97"/>
       <c r="H28" s="20" t="s">
         <v>302</v>
       </c>
@@ -23685,7 +23688,7 @@
       <c r="Q29" s="25"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G30" s="92" t="s">
+      <c r="G30" s="97" t="s">
         <v>174</v>
       </c>
       <c r="H30" s="20" t="s">
@@ -23706,7 +23709,7 @@
       <c r="Q30" s="25"/>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G31" s="92"/>
+      <c r="G31" s="97"/>
       <c r="H31" s="20" t="s">
         <v>292</v>
       </c>
@@ -23725,7 +23728,7 @@
       <c r="Q31" s="25"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G32" s="92"/>
+      <c r="G32" s="97"/>
       <c r="H32" s="20" t="s">
         <v>293</v>
       </c>
@@ -23761,7 +23764,7 @@
       <c r="Q33" s="25"/>
     </row>
     <row r="34" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G34" s="92" t="s">
+      <c r="G34" s="97" t="s">
         <v>244</v>
       </c>
       <c r="H34" s="20" t="s">
@@ -23782,7 +23785,7 @@
       <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G35" s="92"/>
+      <c r="G35" s="97"/>
       <c r="H35" s="20" t="s">
         <v>303</v>
       </c>
@@ -23801,7 +23804,7 @@
       <c r="Q35" s="25"/>
     </row>
     <row r="36" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G36" s="92"/>
+      <c r="G36" s="97"/>
       <c r="H36" s="20" t="s">
         <v>304</v>
       </c>
@@ -23837,7 +23840,7 @@
       <c r="Q37" s="25"/>
     </row>
     <row r="38" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G38" s="92" t="s">
+      <c r="G38" s="97" t="s">
         <v>154</v>
       </c>
       <c r="H38" s="20" t="s">
@@ -23858,7 +23861,7 @@
       <c r="Q38" s="25"/>
     </row>
     <row r="39" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G39" s="92"/>
+      <c r="G39" s="97"/>
       <c r="H39" s="20" t="s">
         <v>297</v>
       </c>
@@ -23877,7 +23880,7 @@
       <c r="Q39" s="25"/>
     </row>
     <row r="40" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G40" s="92"/>
+      <c r="G40" s="97"/>
       <c r="H40" s="20" t="s">
         <v>305</v>
       </c>
@@ -23913,7 +23916,7 @@
       <c r="Q41" s="25"/>
     </row>
     <row r="42" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G42" s="92" t="s">
+      <c r="G42" s="97" t="s">
         <v>281</v>
       </c>
       <c r="H42" s="20" t="s">
@@ -23934,7 +23937,7 @@
       <c r="Q42" s="25"/>
     </row>
     <row r="43" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G43" s="92"/>
+      <c r="G43" s="97"/>
       <c r="H43" s="20" t="s">
         <v>292</v>
       </c>
@@ -23953,7 +23956,7 @@
       <c r="Q43" s="25"/>
     </row>
     <row r="44" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G44" s="92"/>
+      <c r="G44" s="97"/>
       <c r="H44" s="20" t="s">
         <v>293</v>
       </c>
@@ -23989,7 +23992,7 @@
       <c r="Q45" s="25"/>
     </row>
     <row r="46" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G46" s="92" t="s">
+      <c r="G46" s="97" t="s">
         <v>282</v>
       </c>
       <c r="H46" s="20" t="s">
@@ -24010,7 +24013,7 @@
       <c r="Q46" s="25"/>
     </row>
     <row r="47" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G47" s="92"/>
+      <c r="G47" s="97"/>
       <c r="H47" s="20" t="s">
         <v>292</v>
       </c>
@@ -24029,7 +24032,7 @@
       <c r="Q47" s="25"/>
     </row>
     <row r="48" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G48" s="92"/>
+      <c r="G48" s="97"/>
       <c r="H48" s="20" t="s">
         <v>293</v>
       </c>
@@ -24065,7 +24068,7 @@
       <c r="Q49" s="25"/>
     </row>
     <row r="50" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G50" s="92" t="s">
+      <c r="G50" s="97" t="s">
         <v>277</v>
       </c>
       <c r="H50" s="20" t="s">
@@ -24086,7 +24089,7 @@
       <c r="Q50" s="25"/>
     </row>
     <row r="51" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G51" s="92"/>
+      <c r="G51" s="97"/>
       <c r="H51" s="20" t="s">
         <v>306</v>
       </c>
@@ -24105,7 +24108,7 @@
       <c r="Q51" s="25"/>
     </row>
     <row r="52" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G52" s="92"/>
+      <c r="G52" s="97"/>
       <c r="H52" s="20" t="s">
         <v>307</v>
       </c>
@@ -24141,7 +24144,7 @@
       <c r="Q53" s="25"/>
     </row>
     <row r="54" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G54" s="92" t="s">
+      <c r="G54" s="97" t="s">
         <v>163</v>
       </c>
       <c r="H54" s="20" t="s">
@@ -24162,7 +24165,7 @@
       <c r="Q54" s="25"/>
     </row>
     <row r="55" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G55" s="92"/>
+      <c r="G55" s="97"/>
       <c r="H55" s="20" t="s">
         <v>306</v>
       </c>
@@ -24181,7 +24184,7 @@
       <c r="Q55" s="25"/>
     </row>
     <row r="56" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G56" s="92"/>
+      <c r="G56" s="97"/>
       <c r="H56" s="20" t="s">
         <v>307</v>
       </c>
@@ -24217,7 +24220,7 @@
       <c r="Q57" s="25"/>
     </row>
     <row r="58" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G58" s="92" t="s">
+      <c r="G58" s="97" t="s">
         <v>175</v>
       </c>
       <c r="H58" s="20" t="s">
@@ -24238,7 +24241,7 @@
       <c r="Q58" s="25"/>
     </row>
     <row r="59" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G59" s="92"/>
+      <c r="G59" s="97"/>
       <c r="H59" s="20" t="s">
         <v>292</v>
       </c>
@@ -24257,7 +24260,7 @@
       <c r="Q59" s="25"/>
     </row>
     <row r="60" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G60" s="92"/>
+      <c r="G60" s="97"/>
       <c r="H60" s="20" t="s">
         <v>293</v>
       </c>
@@ -24293,7 +24296,7 @@
       <c r="Q61" s="25"/>
     </row>
     <row r="62" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G62" s="92" t="s">
+      <c r="G62" s="97" t="s">
         <v>283</v>
       </c>
       <c r="H62" s="20" t="s">
@@ -24314,7 +24317,7 @@
       <c r="Q62" s="25"/>
     </row>
     <row r="63" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G63" s="92"/>
+      <c r="G63" s="97"/>
       <c r="H63" s="20" t="s">
         <v>292</v>
       </c>
@@ -24333,7 +24336,7 @@
       <c r="Q63" s="25"/>
     </row>
     <row r="64" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G64" s="92"/>
+      <c r="G64" s="97"/>
       <c r="H64" s="20" t="s">
         <v>293</v>
       </c>
@@ -24369,7 +24372,7 @@
       <c r="Q65" s="25"/>
     </row>
     <row r="66" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G66" s="92" t="s">
+      <c r="G66" s="97" t="s">
         <v>176</v>
       </c>
       <c r="H66" s="20" t="s">
@@ -24390,7 +24393,7 @@
       <c r="Q66" s="25"/>
     </row>
     <row r="67" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G67" s="92"/>
+      <c r="G67" s="97"/>
       <c r="H67" s="20" t="s">
         <v>292</v>
       </c>
@@ -24409,7 +24412,7 @@
       <c r="Q67" s="25"/>
     </row>
     <row r="68" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G68" s="92"/>
+      <c r="G68" s="97"/>
       <c r="H68" s="20" t="s">
         <v>293</v>
       </c>
@@ -24445,7 +24448,7 @@
       <c r="Q69" s="25"/>
     </row>
     <row r="70" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G70" s="92" t="s">
+      <c r="G70" s="97" t="s">
         <v>234</v>
       </c>
       <c r="H70" s="20" t="s">
@@ -24466,7 +24469,7 @@
       <c r="Q70" s="25"/>
     </row>
     <row r="71" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G71" s="92"/>
+      <c r="G71" s="97"/>
       <c r="H71" s="20" t="s">
         <v>303</v>
       </c>
@@ -24485,7 +24488,7 @@
       <c r="Q71" s="25"/>
     </row>
     <row r="72" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G72" s="92"/>
+      <c r="G72" s="97"/>
       <c r="H72" s="20" t="s">
         <v>304</v>
       </c>
@@ -24521,7 +24524,7 @@
       <c r="Q73" s="25"/>
     </row>
     <row r="74" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G74" s="92" t="s">
+      <c r="G74" s="97" t="s">
         <v>255</v>
       </c>
       <c r="H74" s="20" t="s">
@@ -24542,7 +24545,7 @@
       <c r="Q74" s="25"/>
     </row>
     <row r="75" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G75" s="92"/>
+      <c r="G75" s="97"/>
       <c r="H75" s="20" t="s">
         <v>308</v>
       </c>
@@ -24561,7 +24564,7 @@
       <c r="Q75" s="25"/>
     </row>
     <row r="76" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G76" s="92"/>
+      <c r="G76" s="97"/>
       <c r="H76" s="20" t="s">
         <v>309</v>
       </c>
@@ -24597,7 +24600,7 @@
       <c r="Q77" s="25"/>
     </row>
     <row r="78" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G78" s="92" t="s">
+      <c r="G78" s="97" t="s">
         <v>177</v>
       </c>
       <c r="H78" s="20" t="s">
@@ -24618,7 +24621,7 @@
       <c r="Q78" s="25"/>
     </row>
     <row r="79" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G79" s="92"/>
+      <c r="G79" s="97"/>
       <c r="H79" s="20" t="s">
         <v>306</v>
       </c>
@@ -24637,7 +24640,7 @@
       <c r="Q79" s="25"/>
     </row>
     <row r="80" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G80" s="92"/>
+      <c r="G80" s="97"/>
       <c r="H80" s="20" t="s">
         <v>310</v>
       </c>
@@ -24673,7 +24676,7 @@
       <c r="Q81" s="25"/>
     </row>
     <row r="82" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G82" s="92" t="s">
+      <c r="G82" s="97" t="s">
         <v>178</v>
       </c>
       <c r="H82" s="20" t="s">
@@ -24694,7 +24697,7 @@
       <c r="Q82" s="25"/>
     </row>
     <row r="83" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G83" s="92"/>
+      <c r="G83" s="97"/>
       <c r="H83" s="20" t="s">
         <v>292</v>
       </c>
@@ -24713,7 +24716,7 @@
       <c r="Q83" s="25"/>
     </row>
     <row r="84" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G84" s="92"/>
+      <c r="G84" s="97"/>
       <c r="H84" s="20" t="s">
         <v>293</v>
       </c>
@@ -24749,7 +24752,7 @@
       <c r="Q85" s="25"/>
     </row>
     <row r="86" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G86" s="92" t="s">
+      <c r="G86" s="97" t="s">
         <v>179</v>
       </c>
       <c r="H86" s="20" t="s">
@@ -24770,7 +24773,7 @@
       <c r="Q86" s="25"/>
     </row>
     <row r="87" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G87" s="92"/>
+      <c r="G87" s="97"/>
       <c r="H87" s="20" t="s">
         <v>292</v>
       </c>
@@ -24789,7 +24792,7 @@
       <c r="Q87" s="25"/>
     </row>
     <row r="88" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G88" s="92"/>
+      <c r="G88" s="97"/>
       <c r="H88" s="20" t="s">
         <v>293</v>
       </c>
@@ -24825,7 +24828,7 @@
       <c r="Q89" s="25"/>
     </row>
     <row r="90" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G90" s="92" t="s">
+      <c r="G90" s="97" t="s">
         <v>180</v>
       </c>
       <c r="H90" s="20" t="s">
@@ -24846,7 +24849,7 @@
       <c r="Q90" s="25"/>
     </row>
     <row r="91" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G91" s="92"/>
+      <c r="G91" s="97"/>
       <c r="H91" s="20" t="s">
         <v>292</v>
       </c>
@@ -24865,7 +24868,7 @@
       <c r="Q91" s="25"/>
     </row>
     <row r="92" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G92" s="92"/>
+      <c r="G92" s="97"/>
       <c r="H92" s="20" t="s">
         <v>293</v>
       </c>
@@ -24901,7 +24904,7 @@
       <c r="Q93" s="25"/>
     </row>
     <row r="94" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G94" s="92" t="s">
+      <c r="G94" s="97" t="s">
         <v>279</v>
       </c>
       <c r="H94" s="20" t="s">
@@ -24922,7 +24925,7 @@
       <c r="Q94" s="25"/>
     </row>
     <row r="95" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G95" s="92"/>
+      <c r="G95" s="97"/>
       <c r="H95" s="20" t="s">
         <v>306</v>
       </c>
@@ -24941,7 +24944,7 @@
       <c r="Q95" s="25"/>
     </row>
     <row r="96" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G96" s="92"/>
+      <c r="G96" s="97"/>
       <c r="H96" s="20" t="s">
         <v>307</v>
       </c>
@@ -24977,7 +24980,7 @@
       <c r="Q97" s="25"/>
     </row>
     <row r="98" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G98" s="92" t="s">
+      <c r="G98" s="97" t="s">
         <v>181</v>
       </c>
       <c r="H98" s="20" t="s">
@@ -24998,7 +25001,7 @@
       <c r="Q98" s="25"/>
     </row>
     <row r="99" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G99" s="92"/>
+      <c r="G99" s="97"/>
       <c r="H99" s="20" t="s">
         <v>292</v>
       </c>
@@ -25017,7 +25020,7 @@
       <c r="Q99" s="25"/>
     </row>
     <row r="100" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G100" s="92"/>
+      <c r="G100" s="97"/>
       <c r="H100" s="20" t="s">
         <v>293</v>
       </c>
@@ -25053,7 +25056,7 @@
       <c r="Q101" s="25"/>
     </row>
     <row r="102" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G102" s="92" t="s">
+      <c r="G102" s="97" t="s">
         <v>258</v>
       </c>
       <c r="H102" s="20" t="s">
@@ -25074,7 +25077,7 @@
       <c r="Q102" s="25"/>
     </row>
     <row r="103" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G103" s="92"/>
+      <c r="G103" s="97"/>
       <c r="H103" s="20" t="s">
         <v>311</v>
       </c>
@@ -25093,7 +25096,7 @@
       <c r="Q103" s="25"/>
     </row>
     <row r="104" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G104" s="92"/>
+      <c r="G104" s="97"/>
       <c r="H104" s="20" t="s">
         <v>312</v>
       </c>
@@ -25129,7 +25132,7 @@
       <c r="Q105" s="25"/>
     </row>
     <row r="106" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G106" s="92" t="s">
+      <c r="G106" s="97" t="s">
         <v>182</v>
       </c>
       <c r="H106" s="20" t="s">
@@ -25150,7 +25153,7 @@
       <c r="Q106" s="25"/>
     </row>
     <row r="107" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G107" s="92"/>
+      <c r="G107" s="97"/>
       <c r="H107" s="20" t="s">
         <v>292</v>
       </c>
@@ -25169,7 +25172,7 @@
       <c r="Q107" s="25"/>
     </row>
     <row r="108" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G108" s="92"/>
+      <c r="G108" s="97"/>
       <c r="H108" s="20" t="s">
         <v>293</v>
       </c>
@@ -25205,7 +25208,7 @@
       <c r="Q109" s="25"/>
     </row>
     <row r="110" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G110" s="92" t="s">
+      <c r="G110" s="97" t="s">
         <v>151</v>
       </c>
       <c r="H110" s="20" t="s">
@@ -25226,7 +25229,7 @@
       <c r="Q110" s="25"/>
     </row>
     <row r="111" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G111" s="92"/>
+      <c r="G111" s="97"/>
       <c r="H111" s="20" t="s">
         <v>306</v>
       </c>
@@ -25245,7 +25248,7 @@
       <c r="Q111" s="25"/>
     </row>
     <row r="112" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G112" s="92"/>
+      <c r="G112" s="97"/>
       <c r="H112" s="20" t="s">
         <v>307</v>
       </c>
@@ -25281,7 +25284,7 @@
       <c r="Q113" s="25"/>
     </row>
     <row r="114" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G114" s="92" t="s">
+      <c r="G114" s="97" t="s">
         <v>275</v>
       </c>
       <c r="H114" s="20" t="s">
@@ -25302,7 +25305,7 @@
       <c r="Q114" s="25"/>
     </row>
     <row r="115" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G115" s="92"/>
+      <c r="G115" s="97"/>
       <c r="H115" s="20" t="s">
         <v>311</v>
       </c>
@@ -25321,7 +25324,7 @@
       <c r="Q115" s="25"/>
     </row>
     <row r="116" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G116" s="92"/>
+      <c r="G116" s="97"/>
       <c r="H116" s="20" t="s">
         <v>312</v>
       </c>
@@ -25357,7 +25360,7 @@
       <c r="Q117" s="25"/>
     </row>
     <row r="118" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G118" s="92" t="s">
+      <c r="G118" s="97" t="s">
         <v>183</v>
       </c>
       <c r="H118" s="20" t="s">
@@ -25378,7 +25381,7 @@
       <c r="Q118" s="25"/>
     </row>
     <row r="119" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G119" s="92"/>
+      <c r="G119" s="97"/>
       <c r="H119" s="20" t="s">
         <v>292</v>
       </c>
@@ -25397,7 +25400,7 @@
       <c r="Q119" s="25"/>
     </row>
     <row r="120" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G120" s="92"/>
+      <c r="G120" s="97"/>
       <c r="H120" s="20" t="s">
         <v>293</v>
       </c>
@@ -25433,7 +25436,7 @@
       <c r="Q121" s="25"/>
     </row>
     <row r="122" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G122" s="92" t="s">
+      <c r="G122" s="97" t="s">
         <v>111</v>
       </c>
       <c r="H122" s="20" t="s">
@@ -25454,7 +25457,7 @@
       <c r="Q122" s="25"/>
     </row>
     <row r="123" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G123" s="92"/>
+      <c r="G123" s="97"/>
       <c r="H123" s="20" t="s">
         <v>294</v>
       </c>
@@ -25473,7 +25476,7 @@
       <c r="Q123" s="25"/>
     </row>
     <row r="124" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G124" s="92"/>
+      <c r="G124" s="97"/>
       <c r="H124" s="20" t="s">
         <v>295</v>
       </c>
@@ -25509,7 +25512,7 @@
       <c r="Q125" s="25"/>
     </row>
     <row r="126" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G126" s="92" t="s">
+      <c r="G126" s="97" t="s">
         <v>184</v>
       </c>
       <c r="H126" s="20" t="s">
@@ -25530,7 +25533,7 @@
       <c r="Q126" s="25"/>
     </row>
     <row r="127" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G127" s="92"/>
+      <c r="G127" s="97"/>
       <c r="H127" s="20" t="s">
         <v>292</v>
       </c>
@@ -25549,7 +25552,7 @@
       <c r="Q127" s="25"/>
     </row>
     <row r="128" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G128" s="92"/>
+      <c r="G128" s="97"/>
       <c r="H128" s="20" t="s">
         <v>293</v>
       </c>
@@ -25585,7 +25588,7 @@
       <c r="Q129" s="25"/>
     </row>
     <row r="130" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G130" s="92" t="s">
+      <c r="G130" s="97" t="s">
         <v>284</v>
       </c>
       <c r="H130" s="20" t="s">
@@ -25606,7 +25609,7 @@
       <c r="Q130" s="25"/>
     </row>
     <row r="131" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G131" s="92"/>
+      <c r="G131" s="97"/>
       <c r="H131" s="20" t="s">
         <v>292</v>
       </c>
@@ -25625,7 +25628,7 @@
       <c r="Q131" s="25"/>
     </row>
     <row r="132" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G132" s="92"/>
+      <c r="G132" s="97"/>
       <c r="H132" s="20" t="s">
         <v>293</v>
       </c>
@@ -25661,7 +25664,7 @@
       <c r="Q133" s="25"/>
     </row>
     <row r="134" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G134" s="92" t="s">
+      <c r="G134" s="97" t="s">
         <v>185</v>
       </c>
       <c r="H134" s="20" t="s">
@@ -25682,7 +25685,7 @@
       <c r="Q134" s="25"/>
     </row>
     <row r="135" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G135" s="92"/>
+      <c r="G135" s="97"/>
       <c r="H135" s="20" t="s">
         <v>292</v>
       </c>
@@ -25701,7 +25704,7 @@
       <c r="Q135" s="25"/>
     </row>
     <row r="136" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G136" s="92"/>
+      <c r="G136" s="97"/>
       <c r="H136" s="20" t="s">
         <v>293</v>
       </c>
@@ -25736,10 +25739,10 @@
       <c r="Q137" s="25"/>
     </row>
     <row r="138" spans="7:17" ht="21" x14ac:dyDescent="0.2">
-      <c r="G138" s="98" t="s">
+      <c r="G138" s="95" t="s">
         <v>377</v>
       </c>
-      <c r="H138" s="99"/>
+      <c r="H138" s="96"/>
       <c r="I138" s="25"/>
       <c r="J138" s="25"/>
       <c r="K138" s="20" t="s">
@@ -25755,10 +25758,10 @@
       <c r="Q138" s="25"/>
     </row>
     <row r="139" spans="7:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="G139" s="96" t="s">
+      <c r="G139" s="93" t="s">
         <v>410</v>
       </c>
-      <c r="H139" s="97"/>
+      <c r="H139" s="94"/>
       <c r="I139" s="25"/>
       <c r="J139" s="25"/>
       <c r="K139" s="20" t="s">
@@ -26051,6 +26054,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C14:D20"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="G130:G132"/>
+    <mergeCell ref="G126:G128"/>
+    <mergeCell ref="G122:G124"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G50:G52"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="G139:H139"/>
     <mergeCell ref="G138:H138"/>
@@ -26067,32 +26096,6 @@
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="G130:G132"/>
-    <mergeCell ref="G126:G128"/>
-    <mergeCell ref="G122:G124"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="C14:D20"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="E14:E20"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26133,70 +26136,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="123" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="126" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="106"/>
-      <c r="AQ1" s="106"/>
-      <c r="AR1" s="106"/>
-      <c r="AS1" s="106"/>
-      <c r="AT1" s="106"/>
-      <c r="AU1" s="106"/>
-      <c r="AV1" s="106"/>
-      <c r="AW1" s="106"/>
-      <c r="AX1" s="106"/>
-      <c r="AY1" s="106"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="126"/>
+      <c r="AS1" s="126"/>
+      <c r="AT1" s="126"/>
+      <c r="AU1" s="126"/>
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="126"/>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="126"/>
       <c r="AZ1" s="45"/>
-      <c r="BA1" s="77" t="s">
+      <c r="BA1" s="78" t="s">
         <v>432</v>
       </c>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
       <c r="BE1" s="45"/>
-      <c r="BF1" s="78" t="s">
+      <c r="BF1" s="79" t="s">
         <v>437</v>
       </c>
       <c r="BG1" s="45"/>
@@ -26205,72 +26208,72 @@
       <c r="BJ1" s="6"/>
     </row>
     <row r="2" spans="1:67" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="106"/>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="106"/>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="106"/>
-      <c r="AM2" s="106"/>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="106"/>
-      <c r="AP2" s="106"/>
-      <c r="AQ2" s="106"/>
-      <c r="AR2" s="106"/>
-      <c r="AS2" s="106"/>
-      <c r="AT2" s="106"/>
-      <c r="AU2" s="106"/>
-      <c r="AV2" s="106"/>
-      <c r="AW2" s="106"/>
-      <c r="AX2" s="106"/>
-      <c r="AY2" s="106"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
+      <c r="AM2" s="126"/>
+      <c r="AN2" s="126"/>
+      <c r="AO2" s="126"/>
+      <c r="AP2" s="126"/>
+      <c r="AQ2" s="126"/>
+      <c r="AR2" s="126"/>
+      <c r="AS2" s="126"/>
+      <c r="AT2" s="126"/>
+      <c r="AU2" s="126"/>
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="126"/>
+      <c r="AX2" s="126"/>
+      <c r="AY2" s="126"/>
       <c r="AZ2" s="45"/>
-      <c r="BA2" s="77"/>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="77"/>
-      <c r="BD2" s="77"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
       <c r="BE2" s="45"/>
-      <c r="BF2" s="78"/>
+      <c r="BF2" s="79"/>
       <c r="BG2" s="45"/>
-      <c r="BH2" s="124" t="s">
+      <c r="BH2" s="106" t="s">
         <v>599</v>
       </c>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="125"/>
-      <c r="BK2" s="125"/>
-      <c r="BL2" s="126"/>
+      <c r="BI2" s="107"/>
+      <c r="BJ2" s="107"/>
+      <c r="BK2" s="107"/>
+      <c r="BL2" s="108"/>
     </row>
     <row r="3" spans="1:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -26287,74 +26290,74 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="120" t="s">
+      <c r="G3" s="125" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
       <c r="Q3" s="34"/>
-      <c r="R3" s="120" t="s">
+      <c r="R3" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="120"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
       <c r="AB3" s="34"/>
-      <c r="AC3" s="121" t="s">
+      <c r="AC3" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="122"/>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="122"/>
-      <c r="AJ3" s="122"/>
-      <c r="AK3" s="122"/>
-      <c r="AL3" s="122"/>
-      <c r="AM3" s="122"/>
-      <c r="AN3" s="123"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="128"/>
+      <c r="AL3" s="128"/>
+      <c r="AM3" s="128"/>
+      <c r="AN3" s="129"/>
       <c r="AO3" s="34"/>
-      <c r="AP3" s="120" t="s">
+      <c r="AP3" s="125" t="s">
         <v>225</v>
       </c>
-      <c r="AQ3" s="120"/>
-      <c r="AR3" s="120"/>
-      <c r="AS3" s="120"/>
-      <c r="AT3" s="120"/>
-      <c r="AU3" s="120"/>
-      <c r="AV3" s="120"/>
-      <c r="AW3" s="120"/>
-      <c r="AX3" s="120"/>
-      <c r="AY3" s="120"/>
+      <c r="AQ3" s="125"/>
+      <c r="AR3" s="125"/>
+      <c r="AS3" s="125"/>
+      <c r="AT3" s="125"/>
+      <c r="AU3" s="125"/>
+      <c r="AV3" s="125"/>
+      <c r="AW3" s="125"/>
+      <c r="AX3" s="125"/>
+      <c r="AY3" s="125"/>
       <c r="AZ3" s="44"/>
-      <c r="BA3" s="79" t="s">
+      <c r="BA3" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="79"/>
-      <c r="BD3" s="79"/>
+      <c r="BB3" s="80"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
       <c r="BE3" s="44"/>
       <c r="BF3" s="59"/>
       <c r="BG3" s="44"/>
-      <c r="BH3" s="127"/>
-      <c r="BI3" s="128"/>
-      <c r="BJ3" s="128"/>
-      <c r="BK3" s="128"/>
-      <c r="BL3" s="129"/>
+      <c r="BH3" s="109"/>
+      <c r="BI3" s="110"/>
+      <c r="BJ3" s="110"/>
+      <c r="BK3" s="110"/>
+      <c r="BL3" s="111"/>
     </row>
     <row r="4" spans="1:67" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
@@ -26684,13 +26687,13 @@
         <v>441</v>
       </c>
       <c r="BG5" s="33"/>
-      <c r="BH5" s="130"/>
-      <c r="BI5" s="132" t="s">
+      <c r="BH5" s="112"/>
+      <c r="BI5" s="114" t="s">
         <v>566</v>
       </c>
-      <c r="BJ5" s="133"/>
-      <c r="BK5" s="133"/>
-      <c r="BL5" s="134"/>
+      <c r="BJ5" s="115"/>
+      <c r="BK5" s="115"/>
+      <c r="BL5" s="116"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
@@ -26852,11 +26855,11 @@
       <c r="BE6" s="33"/>
       <c r="BF6" s="54"/>
       <c r="BG6" s="33"/>
-      <c r="BH6" s="131"/>
-      <c r="BI6" s="135"/>
-      <c r="BJ6" s="136"/>
-      <c r="BK6" s="136"/>
-      <c r="BL6" s="137"/>
+      <c r="BH6" s="113"/>
+      <c r="BI6" s="117"/>
+      <c r="BJ6" s="118"/>
+      <c r="BK6" s="118"/>
+      <c r="BL6" s="119"/>
       <c r="BN6" s="32" t="s">
         <v>576</v>
       </c>
@@ -27024,7 +27027,7 @@
         <v>31</v>
       </c>
       <c r="BG7" s="33"/>
-      <c r="BH7" s="138" t="s">
+      <c r="BH7" s="120" t="s">
         <v>567</v>
       </c>
       <c r="BI7" s="9"/>
@@ -27206,7 +27209,7 @@
         <v>442</v>
       </c>
       <c r="BG8" s="33"/>
-      <c r="BH8" s="139"/>
+      <c r="BH8" s="121"/>
       <c r="BI8" s="68" t="s">
         <v>7</v>
       </c>
@@ -27386,7 +27389,7 @@
       <c r="BE9" s="33"/>
       <c r="BF9" s="54"/>
       <c r="BG9" s="33"/>
-      <c r="BH9" s="139"/>
+      <c r="BH9" s="121"/>
       <c r="BI9" s="67" t="s">
         <v>10</v>
       </c>
@@ -27568,7 +27571,7 @@
         <v>439</v>
       </c>
       <c r="BG10" s="33"/>
-      <c r="BH10" s="140"/>
+      <c r="BH10" s="122"/>
       <c r="BI10" s="67" t="s">
         <v>11</v>
       </c>
@@ -27914,7 +27917,7 @@
       <c r="BE12" s="33"/>
       <c r="BF12" s="54"/>
       <c r="BG12" s="33"/>
-      <c r="BH12" s="105" t="s">
+      <c r="BH12" s="141" t="s">
         <v>7</v>
       </c>
       <c r="BI12" s="51" t="s">
@@ -28084,7 +28087,7 @@
         <v>51</v>
       </c>
       <c r="BG13" s="33"/>
-      <c r="BH13" s="105"/>
+      <c r="BH13" s="141"/>
       <c r="BI13" s="65">
         <v>2</v>
       </c>
@@ -28252,7 +28255,7 @@
         <v>443</v>
       </c>
       <c r="BG14" s="33"/>
-      <c r="BH14" s="105" t="s">
+      <c r="BH14" s="141" t="s">
         <v>10</v>
       </c>
       <c r="BI14" s="69" t="s">
@@ -28269,12 +28272,12 @@
       </c>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="35" t="s">
@@ -28422,7 +28425,7 @@
       <c r="BE15" s="33"/>
       <c r="BF15" s="54"/>
       <c r="BG15" s="33"/>
-      <c r="BH15" s="105"/>
+      <c r="BH15" s="141"/>
       <c r="BI15" s="65">
         <v>1</v>
       </c>
@@ -28437,10 +28440,10 @@
       </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A16" s="117"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="35" t="s">
@@ -28590,7 +28593,7 @@
         <v>440</v>
       </c>
       <c r="BG16" s="33"/>
-      <c r="BH16" s="105" t="s">
+      <c r="BH16" s="141" t="s">
         <v>11</v>
       </c>
       <c r="BI16" s="51" t="s">
@@ -28768,7 +28771,7 @@
         <v>444</v>
       </c>
       <c r="BG17" s="33"/>
-      <c r="BH17" s="105"/>
+      <c r="BH17" s="141"/>
       <c r="BI17" s="65">
         <v>1</v>
       </c>
@@ -29111,12 +29114,12 @@
       <c r="BH19" s="66" t="s">
         <v>577</v>
       </c>
-      <c r="BI19" s="104" t="s">
+      <c r="BI19" s="105" t="s">
         <v>578</v>
       </c>
-      <c r="BJ19" s="104"/>
-      <c r="BK19" s="104"/>
-      <c r="BL19" s="104"/>
+      <c r="BJ19" s="105"/>
+      <c r="BK19" s="105"/>
+      <c r="BL19" s="105"/>
       <c r="BM19" s="20">
         <f>4/5</f>
         <v>0.8</v>
@@ -29287,12 +29290,12 @@
       <c r="BH20" s="66" t="s">
         <v>579</v>
       </c>
-      <c r="BI20" s="104" t="s">
+      <c r="BI20" s="105" t="s">
         <v>582</v>
       </c>
-      <c r="BJ20" s="104"/>
-      <c r="BK20" s="104"/>
-      <c r="BL20" s="104"/>
+      <c r="BJ20" s="105"/>
+      <c r="BK20" s="105"/>
+      <c r="BL20" s="105"/>
       <c r="BM20" s="20">
         <f>2/3</f>
         <v>0.66666666666666663</v>
@@ -29461,12 +29464,12 @@
       <c r="BH21" s="66" t="s">
         <v>580</v>
       </c>
-      <c r="BI21" s="104" t="s">
+      <c r="BI21" s="105" t="s">
         <v>583</v>
       </c>
-      <c r="BJ21" s="104"/>
-      <c r="BK21" s="104"/>
-      <c r="BL21" s="104"/>
+      <c r="BJ21" s="105"/>
+      <c r="BK21" s="105"/>
+      <c r="BL21" s="105"/>
       <c r="BM21" s="20">
         <v>1</v>
       </c>
@@ -29636,12 +29639,12 @@
       <c r="BH22" s="66" t="s">
         <v>581</v>
       </c>
-      <c r="BI22" s="104" t="s">
+      <c r="BI22" s="105" t="s">
         <v>583</v>
       </c>
-      <c r="BJ22" s="104"/>
-      <c r="BK22" s="104"/>
-      <c r="BL22" s="104"/>
+      <c r="BJ22" s="105"/>
+      <c r="BK22" s="105"/>
+      <c r="BL22" s="105"/>
       <c r="BM22" s="20">
         <v>1</v>
       </c>
@@ -29811,12 +29814,12 @@
       <c r="BH23" s="66" t="s">
         <v>584</v>
       </c>
-      <c r="BI23" s="104" t="s">
+      <c r="BI23" s="105" t="s">
         <v>587</v>
       </c>
-      <c r="BJ23" s="104"/>
-      <c r="BK23" s="104"/>
-      <c r="BL23" s="104"/>
+      <c r="BJ23" s="105"/>
+      <c r="BK23" s="105"/>
+      <c r="BL23" s="105"/>
       <c r="BM23" s="20">
         <v>1</v>
       </c>
@@ -29986,12 +29989,12 @@
       <c r="BH24" s="66" t="s">
         <v>585</v>
       </c>
-      <c r="BI24" s="104" t="s">
+      <c r="BI24" s="105" t="s">
         <v>587</v>
       </c>
-      <c r="BJ24" s="104"/>
-      <c r="BK24" s="104"/>
-      <c r="BL24" s="104"/>
+      <c r="BJ24" s="105"/>
+      <c r="BK24" s="105"/>
+      <c r="BL24" s="105"/>
       <c r="BM24" s="20">
         <v>1</v>
       </c>
@@ -30159,12 +30162,12 @@
       <c r="BH25" s="66" t="s">
         <v>586</v>
       </c>
-      <c r="BI25" s="104" t="s">
+      <c r="BI25" s="105" t="s">
         <v>588</v>
       </c>
-      <c r="BJ25" s="104"/>
-      <c r="BK25" s="104"/>
-      <c r="BL25" s="104"/>
+      <c r="BJ25" s="105"/>
+      <c r="BK25" s="105"/>
+      <c r="BL25" s="105"/>
       <c r="BM25" s="20">
         <f>1/2</f>
         <v>0.5</v>
@@ -30335,12 +30338,12 @@
       <c r="BH26" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="BI26" s="104" t="s">
+      <c r="BI26" s="105" t="s">
         <v>592</v>
       </c>
-      <c r="BJ26" s="104"/>
-      <c r="BK26" s="104"/>
-      <c r="BL26" s="104"/>
+      <c r="BJ26" s="105"/>
+      <c r="BK26" s="105"/>
+      <c r="BL26" s="105"/>
       <c r="BM26" s="20">
         <f>2/3</f>
         <v>0.66666666666666663</v>
@@ -30503,12 +30506,12 @@
       <c r="BH27" s="66" t="s">
         <v>590</v>
       </c>
-      <c r="BI27" s="104" t="s">
+      <c r="BI27" s="105" t="s">
         <v>593</v>
       </c>
-      <c r="BJ27" s="104"/>
-      <c r="BK27" s="104"/>
-      <c r="BL27" s="104"/>
+      <c r="BJ27" s="105"/>
+      <c r="BK27" s="105"/>
+      <c r="BL27" s="105"/>
       <c r="BM27" s="20">
         <v>1</v>
       </c>
@@ -30670,23 +30673,23 @@
       <c r="BH28" s="66" t="s">
         <v>591</v>
       </c>
-      <c r="BI28" s="104" t="s">
+      <c r="BI28" s="105" t="s">
         <v>594</v>
       </c>
-      <c r="BJ28" s="104"/>
-      <c r="BK28" s="104"/>
-      <c r="BL28" s="104"/>
+      <c r="BJ28" s="105"/>
+      <c r="BK28" s="105"/>
+      <c r="BL28" s="105"/>
       <c r="BM28" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A29" s="116" t="s">
+      <c r="A29" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="35" t="s">
@@ -30837,22 +30840,22 @@
       <c r="BH29" s="66" t="s">
         <v>595</v>
       </c>
-      <c r="BI29" s="104" t="s">
+      <c r="BI29" s="105" t="s">
         <v>598</v>
       </c>
-      <c r="BJ29" s="104"/>
-      <c r="BK29" s="104"/>
-      <c r="BL29" s="104"/>
+      <c r="BJ29" s="105"/>
+      <c r="BK29" s="105"/>
+      <c r="BL29" s="105"/>
       <c r="BM29" s="20">
         <f>2*(BM20*BM23)/(BM20+BM23)</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A30" s="117"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
+      <c r="A30" s="124"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="35" t="s">
@@ -31005,12 +31008,12 @@
       <c r="BH30" s="66" t="s">
         <v>596</v>
       </c>
-      <c r="BI30" s="104" t="s">
+      <c r="BI30" s="105" t="s">
         <v>598</v>
       </c>
-      <c r="BJ30" s="104"/>
-      <c r="BK30" s="104"/>
-      <c r="BL30" s="104"/>
+      <c r="BJ30" s="105"/>
+      <c r="BK30" s="105"/>
+      <c r="BL30" s="105"/>
       <c r="BM30" s="20">
         <f>2*(BM21*BM24)/(BM21+BM24)</f>
         <v>1</v>
@@ -31181,12 +31184,12 @@
       <c r="BH31" s="66" t="s">
         <v>597</v>
       </c>
-      <c r="BI31" s="104" t="s">
+      <c r="BI31" s="105" t="s">
         <v>598</v>
       </c>
-      <c r="BJ31" s="104"/>
-      <c r="BK31" s="104"/>
-      <c r="BL31" s="104"/>
+      <c r="BJ31" s="105"/>
+      <c r="BK31" s="105"/>
+      <c r="BL31" s="105"/>
       <c r="BM31" s="20">
         <f>2*(BM22*BM25)/(BM22+BM25)</f>
         <v>0.66666666666666663</v>
@@ -32995,12 +32998,12 @@
       <c r="BJ42" s="6"/>
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="35" t="s">
@@ -33155,10 +33158,10 @@
       <c r="BJ43" s="6"/>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A44" s="106"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
+      <c r="A44" s="126"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="35" t="s">
@@ -35123,12 +35126,12 @@
       <c r="BJ55" s="6"/>
     </row>
     <row r="56" spans="1:62" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="118" t="s">
+      <c r="A56" s="139" t="s">
         <v>411</v>
       </c>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="139"/>
       <c r="E56" s="25"/>
       <c r="F56" s="6"/>
       <c r="G56" s="35" t="s">
@@ -35283,10 +35286,10 @@
       <c r="BJ56" s="6"/>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A57" s="118"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="A57" s="139"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="139"/>
+      <c r="D57" s="139"/>
       <c r="E57" s="25"/>
       <c r="F57" s="6"/>
       <c r="G57" s="35" t="s">
@@ -35441,12 +35444,12 @@
       <c r="BJ57" s="6"/>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A58" s="119" t="s">
+      <c r="A58" s="140" t="s">
         <v>379</v>
       </c>
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
       <c r="E58" s="25"/>
       <c r="F58" s="6"/>
       <c r="G58" s="35" t="s">
@@ -35907,12 +35910,12 @@
       <c r="BJ60" s="6"/>
     </row>
     <row r="61" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A61" s="106" t="s">
+      <c r="A61" s="126" t="s">
         <v>378</v>
       </c>
-      <c r="B61" s="106"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106"/>
+      <c r="B61" s="126"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="126"/>
       <c r="E61" s="25"/>
       <c r="F61" s="6"/>
       <c r="G61" s="35" t="s">
@@ -36067,10 +36070,10 @@
       <c r="BJ61" s="6"/>
     </row>
     <row r="62" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A62" s="106"/>
-      <c r="B62" s="106"/>
-      <c r="C62" s="106"/>
-      <c r="D62" s="106"/>
+      <c r="A62" s="126"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="126"/>
       <c r="E62" s="25"/>
       <c r="F62" s="6"/>
       <c r="G62" s="35" t="s">
@@ -38193,12 +38196,12 @@
       <c r="BJ74" s="6"/>
     </row>
     <row r="75" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A75" s="106" t="s">
+      <c r="A75" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="106"/>
-      <c r="C75" s="106"/>
-      <c r="D75" s="106"/>
+      <c r="B75" s="126"/>
+      <c r="C75" s="126"/>
+      <c r="D75" s="126"/>
       <c r="E75" s="25"/>
       <c r="F75" s="6"/>
       <c r="G75" s="35" t="s">
@@ -38351,10 +38354,10 @@
       <c r="BJ75" s="6"/>
     </row>
     <row r="76" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A76" s="106"/>
-      <c r="B76" s="106"/>
-      <c r="C76" s="106"/>
-      <c r="D76" s="106"/>
+      <c r="A76" s="126"/>
+      <c r="B76" s="126"/>
+      <c r="C76" s="126"/>
+      <c r="D76" s="126"/>
       <c r="E76" s="25"/>
       <c r="F76" s="6"/>
       <c r="G76" s="35" t="s">
@@ -40628,11 +40631,11 @@
     </row>
     <row r="90" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
-      <c r="B90" s="107" t="s">
+      <c r="B90" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="108"/>
-      <c r="D90" s="113" t="s">
+      <c r="C90" s="131"/>
+      <c r="D90" s="136" t="s">
         <v>397</v>
       </c>
       <c r="G90" s="42" t="s">
@@ -40782,9 +40785,9 @@
     </row>
     <row r="91" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
-      <c r="B91" s="109"/>
-      <c r="C91" s="110"/>
-      <c r="D91" s="114"/>
+      <c r="B91" s="132"/>
+      <c r="C91" s="133"/>
+      <c r="D91" s="137"/>
       <c r="G91" s="42" t="s">
         <v>282</v>
       </c>
@@ -40930,9 +40933,9 @@
     </row>
     <row r="92" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
-      <c r="B92" s="109"/>
-      <c r="C92" s="110"/>
-      <c r="D92" s="114"/>
+      <c r="B92" s="132"/>
+      <c r="C92" s="133"/>
+      <c r="D92" s="137"/>
       <c r="G92" s="42" t="s">
         <v>175</v>
       </c>
@@ -41079,9 +41082,9 @@
       </c>
     </row>
     <row r="93" spans="1:62" ht="17" x14ac:dyDescent="0.2">
-      <c r="B93" s="109"/>
-      <c r="C93" s="110"/>
-      <c r="D93" s="114"/>
+      <c r="B93" s="132"/>
+      <c r="C93" s="133"/>
+      <c r="D93" s="137"/>
       <c r="G93" s="42" t="s">
         <v>283</v>
       </c>
@@ -41228,9 +41231,9 @@
       </c>
     </row>
     <row r="94" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B94" s="109"/>
-      <c r="C94" s="110"/>
-      <c r="D94" s="114"/>
+      <c r="B94" s="132"/>
+      <c r="C94" s="133"/>
+      <c r="D94" s="137"/>
       <c r="G94" s="42" t="s">
         <v>176</v>
       </c>
@@ -41377,9 +41380,9 @@
       </c>
     </row>
     <row r="95" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B95" s="109"/>
-      <c r="C95" s="110"/>
-      <c r="D95" s="114"/>
+      <c r="B95" s="132"/>
+      <c r="C95" s="133"/>
+      <c r="D95" s="137"/>
       <c r="G95" s="42" t="s">
         <v>177</v>
       </c>
@@ -41524,9 +41527,9 @@
       <c r="BF95" s="54"/>
     </row>
     <row r="96" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B96" s="111"/>
-      <c r="C96" s="112"/>
-      <c r="D96" s="115"/>
+      <c r="B96" s="134"/>
+      <c r="C96" s="135"/>
+      <c r="D96" s="138"/>
       <c r="G96" s="42" t="s">
         <v>178</v>
       </c>
@@ -44977,30 +44980,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="BF1:BF2"/>
-    <mergeCell ref="BA1:BD2"/>
-    <mergeCell ref="BA3:BD3"/>
-    <mergeCell ref="BI29:BL29"/>
-    <mergeCell ref="BI30:BL30"/>
-    <mergeCell ref="BH2:BL3"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BL6"/>
-    <mergeCell ref="BH7:BH10"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G3:P3"/>
-    <mergeCell ref="G1:AY2"/>
-    <mergeCell ref="AP3:AY3"/>
-    <mergeCell ref="A15:D16"/>
-    <mergeCell ref="R3:AA3"/>
-    <mergeCell ref="AC3:AN3"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="B90:C96"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="A56:D57"/>
-    <mergeCell ref="A58:D58"/>
     <mergeCell ref="BI31:BL31"/>
     <mergeCell ref="BH12:BH13"/>
     <mergeCell ref="BH14:BH15"/>
@@ -45015,6 +44994,30 @@
     <mergeCell ref="BI23:BL23"/>
     <mergeCell ref="BI24:BL24"/>
     <mergeCell ref="BI25:BL25"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="B90:C96"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="G1:AY2"/>
+    <mergeCell ref="AP3:AY3"/>
+    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="R3:AA3"/>
+    <mergeCell ref="AC3:AN3"/>
+    <mergeCell ref="BF1:BF2"/>
+    <mergeCell ref="BA1:BD2"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="BI29:BL29"/>
+    <mergeCell ref="BI30:BL30"/>
+    <mergeCell ref="BH2:BL3"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BL6"/>
+    <mergeCell ref="BH7:BH10"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code/skripsi.xlsx
+++ b/Code/skripsi.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radityarin/Documents/Kuliah/Skripsi/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09676A9-E8CC-E043-B2C5-D960279C5DD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970DF449-E379-9A4B-BF72-77D08A0C0A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32000" windowHeight="17540" activeTab="1" xr2:uid="{3413B29C-560F-AE4D-9915-B4DC0247194E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Utama Pilihan" sheetId="2" r:id="rId1"/>
     <sheet name="Data Manualisasi" sheetId="1" r:id="rId2"/>
-    <sheet name="Manualisasi Sw Tala" sheetId="4" r:id="rId3"/>
-    <sheet name="Manualisasi Sw Tala Default" sheetId="3" r:id="rId4"/>
-    <sheet name="Pembangunan Stopword TBRS" sheetId="5" r:id="rId5"/>
-    <sheet name="Manualisasi Sw TBRS" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="Manualisasi Sw Tala" sheetId="4" r:id="rId4"/>
+    <sheet name="Manualisasi Sw Tala Default" sheetId="3" r:id="rId5"/>
+    <sheet name="Pembangunan Stopword TBRS" sheetId="5" r:id="rId6"/>
+    <sheet name="Manualisasi Sw TBRS" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="data" localSheetId="5">'Manualisasi Sw TBRS'!$H$5:$P$117</definedName>
-    <definedName name="data_1" localSheetId="5">'Manualisasi Sw TBRS'!$S$5:$AA$117</definedName>
-    <definedName name="data_1" localSheetId="4">'Pembangunan Stopword TBRS'!$K$5:$L$145</definedName>
-    <definedName name="data_2" localSheetId="5">'Manualisasi Sw TBRS'!$AD$5:$AL$117</definedName>
-    <definedName name="data_3" localSheetId="5">'Manualisasi Sw TBRS'!$AQ$5:$AY$117</definedName>
-    <definedName name="titip" localSheetId="5">'Manualisasi Sw TBRS'!$BA$5:$BD$117</definedName>
-    <definedName name="titip_1" localSheetId="2">'Manualisasi Sw Tala'!$BA$5:$BD$87</definedName>
+    <definedName name="data" localSheetId="6">'Manualisasi Sw TBRS'!$H$5:$P$117</definedName>
+    <definedName name="data_1" localSheetId="6">'Manualisasi Sw TBRS'!$S$5:$AA$117</definedName>
+    <definedName name="data_1" localSheetId="5">'Pembangunan Stopword TBRS'!$K$5:$L$145</definedName>
+    <definedName name="data_2" localSheetId="6">'Manualisasi Sw TBRS'!$AD$5:$AL$117</definedName>
+    <definedName name="data_3" localSheetId="6">'Manualisasi Sw TBRS'!$AQ$5:$AY$117</definedName>
+    <definedName name="titip" localSheetId="6">'Manualisasi Sw TBRS'!$BA$5:$BD$117</definedName>
+    <definedName name="titip_1" localSheetId="3">'Manualisasi Sw Tala'!$BA$5:$BD$87</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -132,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7781" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7780" uniqueCount="1288">
   <si>
     <t>No</t>
   </si>
@@ -4872,7 +4873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5043,6 +5044,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5064,9 +5077,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5079,17 +5089,65 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5142,63 +5200,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -8772,7 +8774,7 @@
   <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8950,9 +8952,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="D11" s="7" t="s">
-        <v>442</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="76"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
@@ -8970,6 +8970,1642 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BB73E9-FE86-F745-AFC1-C4A855B70330}">
+  <dimension ref="C6:K152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:K152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="142"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="142"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="142"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="142"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="142"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="142"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="142"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="142"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="142"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="142"/>
+      <c r="K34" s="142"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="142"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="142"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C36" s="142"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="142"/>
+      <c r="J36" s="142"/>
+      <c r="K36" s="142"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C37" s="142"/>
+      <c r="D37" s="142"/>
+      <c r="E37" s="142"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="142"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="142"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C38" s="142"/>
+      <c r="D38" s="142"/>
+      <c r="E38" s="142"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="142"/>
+      <c r="I38" s="142"/>
+      <c r="J38" s="142"/>
+      <c r="K38" s="142"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C39" s="142"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="142"/>
+      <c r="F39" s="142"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="142"/>
+      <c r="J39" s="142"/>
+      <c r="K39" s="142"/>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C40" s="142"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142"/>
+      <c r="K40" s="142"/>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C41" s="142"/>
+      <c r="D41" s="142"/>
+      <c r="E41" s="142"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="142"/>
+      <c r="K41" s="142"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C42" s="142"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="142"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="142"/>
+      <c r="J42" s="142"/>
+      <c r="K42" s="142"/>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C43" s="142"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="142"/>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C44" s="142"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="142"/>
+      <c r="H44" s="142"/>
+      <c r="I44" s="142"/>
+      <c r="J44" s="142"/>
+      <c r="K44" s="142"/>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C45" s="142"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="142"/>
+      <c r="F45" s="142"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="142"/>
+      <c r="I45" s="142"/>
+      <c r="J45" s="142"/>
+      <c r="K45" s="142"/>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C46" s="142"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="142"/>
+      <c r="J46" s="142"/>
+      <c r="K46" s="142"/>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="142"/>
+      <c r="J47" s="142"/>
+      <c r="K47" s="142"/>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C48" s="142"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="142"/>
+      <c r="I48" s="142"/>
+      <c r="J48" s="142"/>
+      <c r="K48" s="142"/>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C49" s="142"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="142"/>
+      <c r="I49" s="142"/>
+      <c r="J49" s="142"/>
+      <c r="K49" s="142"/>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C50" s="142"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="142"/>
+      <c r="F50" s="142"/>
+      <c r="G50" s="142"/>
+      <c r="H50" s="142"/>
+      <c r="I50" s="142"/>
+      <c r="J50" s="142"/>
+      <c r="K50" s="142"/>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C51" s="142"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="142"/>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C52" s="142"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="142"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="142"/>
+      <c r="H52" s="142"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="142"/>
+      <c r="K52" s="142"/>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C53" s="142"/>
+      <c r="D53" s="142"/>
+      <c r="E53" s="142"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="142"/>
+      <c r="I53" s="142"/>
+      <c r="J53" s="142"/>
+      <c r="K53" s="142"/>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C54" s="142"/>
+      <c r="D54" s="142"/>
+      <c r="E54" s="142"/>
+      <c r="F54" s="142"/>
+      <c r="G54" s="142"/>
+      <c r="H54" s="142"/>
+      <c r="I54" s="142"/>
+      <c r="J54" s="142"/>
+      <c r="K54" s="142"/>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C55" s="142"/>
+      <c r="D55" s="142"/>
+      <c r="E55" s="142"/>
+      <c r="F55" s="142"/>
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="142"/>
+      <c r="J55" s="142"/>
+      <c r="K55" s="142"/>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C56" s="142"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="142"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="142"/>
+      <c r="J56" s="142"/>
+      <c r="K56" s="142"/>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C57" s="142"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="142"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="142"/>
+      <c r="I57" s="142"/>
+      <c r="J57" s="142"/>
+      <c r="K57" s="142"/>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C58" s="142"/>
+      <c r="D58" s="142"/>
+      <c r="E58" s="142"/>
+      <c r="F58" s="142"/>
+      <c r="G58" s="142"/>
+      <c r="H58" s="142"/>
+      <c r="I58" s="142"/>
+      <c r="J58" s="142"/>
+      <c r="K58" s="142"/>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C59" s="142"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="142"/>
+      <c r="F59" s="142"/>
+      <c r="G59" s="142"/>
+      <c r="H59" s="142"/>
+      <c r="I59" s="142"/>
+      <c r="J59" s="142"/>
+      <c r="K59" s="142"/>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C60" s="142"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="142"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="142"/>
+      <c r="H60" s="142"/>
+      <c r="I60" s="142"/>
+      <c r="J60" s="142"/>
+      <c r="K60" s="142"/>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C61" s="142"/>
+      <c r="D61" s="142"/>
+      <c r="E61" s="142"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="142"/>
+      <c r="H61" s="142"/>
+      <c r="I61" s="142"/>
+      <c r="J61" s="142"/>
+      <c r="K61" s="142"/>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C62" s="142"/>
+      <c r="D62" s="142"/>
+      <c r="E62" s="142"/>
+      <c r="F62" s="142"/>
+      <c r="G62" s="142"/>
+      <c r="H62" s="142"/>
+      <c r="I62" s="142"/>
+      <c r="J62" s="142"/>
+      <c r="K62" s="142"/>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C63" s="142"/>
+      <c r="D63" s="142"/>
+      <c r="E63" s="142"/>
+      <c r="F63" s="142"/>
+      <c r="G63" s="142"/>
+      <c r="H63" s="142"/>
+      <c r="I63" s="142"/>
+      <c r="J63" s="142"/>
+      <c r="K63" s="142"/>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C64" s="142"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="142"/>
+      <c r="F64" s="142"/>
+      <c r="G64" s="142"/>
+      <c r="H64" s="142"/>
+      <c r="I64" s="142"/>
+      <c r="J64" s="142"/>
+      <c r="K64" s="142"/>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C65" s="142"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="142"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="142"/>
+      <c r="I65" s="142"/>
+      <c r="J65" s="142"/>
+      <c r="K65" s="142"/>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C66" s="142"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="142"/>
+      <c r="F66" s="142"/>
+      <c r="G66" s="142"/>
+      <c r="H66" s="142"/>
+      <c r="I66" s="142"/>
+      <c r="J66" s="142"/>
+      <c r="K66" s="142"/>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C67" s="142"/>
+      <c r="D67" s="142"/>
+      <c r="E67" s="142"/>
+      <c r="F67" s="142"/>
+      <c r="G67" s="142"/>
+      <c r="H67" s="142"/>
+      <c r="I67" s="142"/>
+      <c r="J67" s="142"/>
+      <c r="K67" s="142"/>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C68" s="142"/>
+      <c r="D68" s="142"/>
+      <c r="E68" s="142"/>
+      <c r="F68" s="142"/>
+      <c r="G68" s="142"/>
+      <c r="H68" s="142"/>
+      <c r="I68" s="142"/>
+      <c r="J68" s="142"/>
+      <c r="K68" s="142"/>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C69" s="142"/>
+      <c r="D69" s="142"/>
+      <c r="E69" s="142"/>
+      <c r="F69" s="142"/>
+      <c r="G69" s="142"/>
+      <c r="H69" s="142"/>
+      <c r="I69" s="142"/>
+      <c r="J69" s="142"/>
+      <c r="K69" s="142"/>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C70" s="142"/>
+      <c r="D70" s="142"/>
+      <c r="E70" s="142"/>
+      <c r="F70" s="142"/>
+      <c r="G70" s="142"/>
+      <c r="H70" s="142"/>
+      <c r="I70" s="142"/>
+      <c r="J70" s="142"/>
+      <c r="K70" s="142"/>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C71" s="142"/>
+      <c r="D71" s="142"/>
+      <c r="E71" s="142"/>
+      <c r="F71" s="142"/>
+      <c r="G71" s="142"/>
+      <c r="H71" s="142"/>
+      <c r="I71" s="142"/>
+      <c r="J71" s="142"/>
+      <c r="K71" s="142"/>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C72" s="142"/>
+      <c r="D72" s="142"/>
+      <c r="E72" s="142"/>
+      <c r="F72" s="142"/>
+      <c r="G72" s="142"/>
+      <c r="H72" s="142"/>
+      <c r="I72" s="142"/>
+      <c r="J72" s="142"/>
+      <c r="K72" s="142"/>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C73" s="142"/>
+      <c r="D73" s="142"/>
+      <c r="E73" s="142"/>
+      <c r="F73" s="142"/>
+      <c r="G73" s="142"/>
+      <c r="H73" s="142"/>
+      <c r="I73" s="142"/>
+      <c r="J73" s="142"/>
+      <c r="K73" s="142"/>
+    </row>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C74" s="142"/>
+      <c r="D74" s="142"/>
+      <c r="E74" s="142"/>
+      <c r="F74" s="142"/>
+      <c r="G74" s="142"/>
+      <c r="H74" s="142"/>
+      <c r="I74" s="142"/>
+      <c r="J74" s="142"/>
+      <c r="K74" s="142"/>
+    </row>
+    <row r="75" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C75" s="142"/>
+      <c r="D75" s="142"/>
+      <c r="E75" s="142"/>
+      <c r="F75" s="142"/>
+      <c r="G75" s="142"/>
+      <c r="H75" s="142"/>
+      <c r="I75" s="142"/>
+      <c r="J75" s="142"/>
+      <c r="K75" s="142"/>
+    </row>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C76" s="142"/>
+      <c r="D76" s="142"/>
+      <c r="E76" s="142"/>
+      <c r="F76" s="142"/>
+      <c r="G76" s="142"/>
+      <c r="H76" s="142"/>
+      <c r="I76" s="142"/>
+      <c r="J76" s="142"/>
+      <c r="K76" s="142"/>
+    </row>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C77" s="142"/>
+      <c r="D77" s="142"/>
+      <c r="E77" s="142"/>
+      <c r="F77" s="142"/>
+      <c r="G77" s="142"/>
+      <c r="H77" s="142"/>
+      <c r="I77" s="142"/>
+      <c r="J77" s="142"/>
+      <c r="K77" s="142"/>
+    </row>
+    <row r="78" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C78" s="142"/>
+      <c r="D78" s="142"/>
+      <c r="E78" s="142"/>
+      <c r="F78" s="142"/>
+      <c r="G78" s="142"/>
+      <c r="H78" s="142"/>
+      <c r="I78" s="142"/>
+      <c r="J78" s="142"/>
+      <c r="K78" s="142"/>
+    </row>
+    <row r="79" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C79" s="142"/>
+      <c r="D79" s="142"/>
+      <c r="E79" s="142"/>
+      <c r="F79" s="142"/>
+      <c r="G79" s="142"/>
+      <c r="H79" s="142"/>
+      <c r="I79" s="142"/>
+      <c r="J79" s="142"/>
+      <c r="K79" s="142"/>
+    </row>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C80" s="142"/>
+      <c r="D80" s="142"/>
+      <c r="E80" s="142"/>
+      <c r="F80" s="142"/>
+      <c r="G80" s="142"/>
+      <c r="H80" s="142"/>
+      <c r="I80" s="142"/>
+      <c r="J80" s="142"/>
+      <c r="K80" s="142"/>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C81" s="142"/>
+      <c r="D81" s="142"/>
+      <c r="E81" s="142"/>
+      <c r="F81" s="142"/>
+      <c r="G81" s="142"/>
+      <c r="H81" s="142"/>
+      <c r="I81" s="142"/>
+      <c r="J81" s="142"/>
+      <c r="K81" s="142"/>
+    </row>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C82" s="142"/>
+      <c r="D82" s="142"/>
+      <c r="E82" s="142"/>
+      <c r="F82" s="142"/>
+      <c r="G82" s="142"/>
+      <c r="H82" s="142"/>
+      <c r="I82" s="142"/>
+      <c r="J82" s="142"/>
+      <c r="K82" s="142"/>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C83" s="142"/>
+      <c r="D83" s="142"/>
+      <c r="E83" s="142"/>
+      <c r="F83" s="142"/>
+      <c r="G83" s="142"/>
+      <c r="H83" s="142"/>
+      <c r="I83" s="142"/>
+      <c r="J83" s="142"/>
+      <c r="K83" s="142"/>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C84" s="142"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="142"/>
+      <c r="G84" s="142"/>
+      <c r="H84" s="142"/>
+      <c r="I84" s="142"/>
+      <c r="J84" s="142"/>
+      <c r="K84" s="142"/>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C85" s="142"/>
+      <c r="D85" s="142"/>
+      <c r="E85" s="142"/>
+      <c r="F85" s="142"/>
+      <c r="G85" s="142"/>
+      <c r="H85" s="142"/>
+      <c r="I85" s="142"/>
+      <c r="J85" s="142"/>
+      <c r="K85" s="142"/>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C86" s="142"/>
+      <c r="D86" s="142"/>
+      <c r="E86" s="142"/>
+      <c r="F86" s="142"/>
+      <c r="G86" s="142"/>
+      <c r="H86" s="142"/>
+      <c r="I86" s="142"/>
+      <c r="J86" s="142"/>
+      <c r="K86" s="142"/>
+    </row>
+    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C87" s="142"/>
+      <c r="D87" s="142"/>
+      <c r="E87" s="142"/>
+      <c r="F87" s="142"/>
+      <c r="G87" s="142"/>
+      <c r="H87" s="142"/>
+      <c r="I87" s="142"/>
+      <c r="J87" s="142"/>
+      <c r="K87" s="142"/>
+    </row>
+    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C88" s="142"/>
+      <c r="D88" s="142"/>
+      <c r="E88" s="142"/>
+      <c r="F88" s="142"/>
+      <c r="G88" s="142"/>
+      <c r="H88" s="142"/>
+      <c r="I88" s="142"/>
+      <c r="J88" s="142"/>
+      <c r="K88" s="142"/>
+    </row>
+    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C89" s="142"/>
+      <c r="D89" s="142"/>
+      <c r="E89" s="142"/>
+      <c r="F89" s="142"/>
+      <c r="G89" s="142"/>
+      <c r="H89" s="142"/>
+      <c r="I89" s="142"/>
+      <c r="J89" s="142"/>
+      <c r="K89" s="142"/>
+    </row>
+    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C90" s="142"/>
+      <c r="D90" s="142"/>
+      <c r="E90" s="142"/>
+      <c r="F90" s="142"/>
+      <c r="G90" s="142"/>
+      <c r="H90" s="142"/>
+      <c r="I90" s="142"/>
+      <c r="J90" s="142"/>
+      <c r="K90" s="142"/>
+    </row>
+    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C91" s="142"/>
+      <c r="D91" s="142"/>
+      <c r="E91" s="142"/>
+      <c r="F91" s="142"/>
+      <c r="G91" s="142"/>
+      <c r="H91" s="142"/>
+      <c r="I91" s="142"/>
+      <c r="J91" s="142"/>
+      <c r="K91" s="142"/>
+    </row>
+    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C92" s="142"/>
+      <c r="D92" s="142"/>
+      <c r="E92" s="142"/>
+      <c r="F92" s="142"/>
+      <c r="G92" s="142"/>
+      <c r="H92" s="142"/>
+      <c r="I92" s="142"/>
+      <c r="J92" s="142"/>
+      <c r="K92" s="142"/>
+    </row>
+    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C93" s="142"/>
+      <c r="D93" s="142"/>
+      <c r="E93" s="142"/>
+      <c r="F93" s="142"/>
+      <c r="G93" s="142"/>
+      <c r="H93" s="142"/>
+      <c r="I93" s="142"/>
+      <c r="J93" s="142"/>
+      <c r="K93" s="142"/>
+    </row>
+    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C94" s="142"/>
+      <c r="D94" s="142"/>
+      <c r="E94" s="142"/>
+      <c r="F94" s="142"/>
+      <c r="G94" s="142"/>
+      <c r="H94" s="142"/>
+      <c r="I94" s="142"/>
+      <c r="J94" s="142"/>
+      <c r="K94" s="142"/>
+    </row>
+    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C95" s="142"/>
+      <c r="D95" s="142"/>
+      <c r="E95" s="142"/>
+      <c r="F95" s="142"/>
+      <c r="G95" s="142"/>
+      <c r="H95" s="142"/>
+      <c r="I95" s="142"/>
+      <c r="J95" s="142"/>
+      <c r="K95" s="142"/>
+    </row>
+    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C96" s="142"/>
+      <c r="D96" s="142"/>
+      <c r="E96" s="142"/>
+      <c r="F96" s="142"/>
+      <c r="G96" s="142"/>
+      <c r="H96" s="142"/>
+      <c r="I96" s="142"/>
+      <c r="J96" s="142"/>
+      <c r="K96" s="142"/>
+    </row>
+    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C97" s="142"/>
+      <c r="D97" s="142"/>
+      <c r="E97" s="142"/>
+      <c r="F97" s="142"/>
+      <c r="G97" s="142"/>
+      <c r="H97" s="142"/>
+      <c r="I97" s="142"/>
+      <c r="J97" s="142"/>
+      <c r="K97" s="142"/>
+    </row>
+    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C98" s="142"/>
+      <c r="D98" s="142"/>
+      <c r="E98" s="142"/>
+      <c r="F98" s="142"/>
+      <c r="G98" s="142"/>
+      <c r="H98" s="142"/>
+      <c r="I98" s="142"/>
+      <c r="J98" s="142"/>
+      <c r="K98" s="142"/>
+    </row>
+    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C99" s="142"/>
+      <c r="D99" s="142"/>
+      <c r="E99" s="142"/>
+      <c r="F99" s="142"/>
+      <c r="G99" s="142"/>
+      <c r="H99" s="142"/>
+      <c r="I99" s="142"/>
+      <c r="J99" s="142"/>
+      <c r="K99" s="142"/>
+    </row>
+    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C100" s="142"/>
+      <c r="D100" s="142"/>
+      <c r="E100" s="142"/>
+      <c r="F100" s="142"/>
+      <c r="G100" s="142"/>
+      <c r="H100" s="142"/>
+      <c r="I100" s="142"/>
+      <c r="J100" s="142"/>
+      <c r="K100" s="142"/>
+    </row>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C101" s="142"/>
+      <c r="D101" s="142"/>
+      <c r="E101" s="142"/>
+      <c r="F101" s="142"/>
+      <c r="G101" s="142"/>
+      <c r="H101" s="142"/>
+      <c r="I101" s="142"/>
+      <c r="J101" s="142"/>
+      <c r="K101" s="142"/>
+    </row>
+    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C102" s="142"/>
+      <c r="D102" s="142"/>
+      <c r="E102" s="142"/>
+      <c r="F102" s="142"/>
+      <c r="G102" s="142"/>
+      <c r="H102" s="142"/>
+      <c r="I102" s="142"/>
+      <c r="J102" s="142"/>
+      <c r="K102" s="142"/>
+    </row>
+    <row r="103" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C103" s="142"/>
+      <c r="D103" s="142"/>
+      <c r="E103" s="142"/>
+      <c r="F103" s="142"/>
+      <c r="G103" s="142"/>
+      <c r="H103" s="142"/>
+      <c r="I103" s="142"/>
+      <c r="J103" s="142"/>
+      <c r="K103" s="142"/>
+    </row>
+    <row r="104" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C104" s="142"/>
+      <c r="D104" s="142"/>
+      <c r="E104" s="142"/>
+      <c r="F104" s="142"/>
+      <c r="G104" s="142"/>
+      <c r="H104" s="142"/>
+      <c r="I104" s="142"/>
+      <c r="J104" s="142"/>
+      <c r="K104" s="142"/>
+    </row>
+    <row r="105" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C105" s="142"/>
+      <c r="D105" s="142"/>
+      <c r="E105" s="142"/>
+      <c r="F105" s="142"/>
+      <c r="G105" s="142"/>
+      <c r="H105" s="142"/>
+      <c r="I105" s="142"/>
+      <c r="J105" s="142"/>
+      <c r="K105" s="142"/>
+    </row>
+    <row r="106" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C106" s="142"/>
+      <c r="D106" s="142"/>
+      <c r="E106" s="142"/>
+      <c r="F106" s="142"/>
+      <c r="G106" s="142"/>
+      <c r="H106" s="142"/>
+      <c r="I106" s="142"/>
+      <c r="J106" s="142"/>
+      <c r="K106" s="142"/>
+    </row>
+    <row r="107" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C107" s="142"/>
+      <c r="D107" s="142"/>
+      <c r="E107" s="142"/>
+      <c r="F107" s="142"/>
+      <c r="G107" s="142"/>
+      <c r="H107" s="142"/>
+      <c r="I107" s="142"/>
+      <c r="J107" s="142"/>
+      <c r="K107" s="142"/>
+    </row>
+    <row r="108" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C108" s="142"/>
+      <c r="D108" s="142"/>
+      <c r="E108" s="142"/>
+      <c r="F108" s="142"/>
+      <c r="G108" s="142"/>
+      <c r="H108" s="142"/>
+      <c r="I108" s="142"/>
+      <c r="J108" s="142"/>
+      <c r="K108" s="142"/>
+    </row>
+    <row r="109" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C109" s="142"/>
+      <c r="D109" s="142"/>
+      <c r="E109" s="142"/>
+      <c r="F109" s="142"/>
+      <c r="G109" s="142"/>
+      <c r="H109" s="142"/>
+      <c r="I109" s="142"/>
+      <c r="J109" s="142"/>
+      <c r="K109" s="142"/>
+    </row>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C110" s="142"/>
+      <c r="D110" s="142"/>
+      <c r="E110" s="142"/>
+      <c r="F110" s="142"/>
+      <c r="G110" s="142"/>
+      <c r="H110" s="142"/>
+      <c r="I110" s="142"/>
+      <c r="J110" s="142"/>
+      <c r="K110" s="142"/>
+    </row>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C111" s="142"/>
+      <c r="D111" s="142"/>
+      <c r="E111" s="142"/>
+      <c r="F111" s="142"/>
+      <c r="G111" s="142"/>
+      <c r="H111" s="142"/>
+      <c r="I111" s="142"/>
+      <c r="J111" s="142"/>
+      <c r="K111" s="142"/>
+    </row>
+    <row r="112" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C112" s="142"/>
+      <c r="D112" s="142"/>
+      <c r="E112" s="142"/>
+      <c r="F112" s="142"/>
+      <c r="G112" s="142"/>
+      <c r="H112" s="142"/>
+      <c r="I112" s="142"/>
+      <c r="J112" s="142"/>
+      <c r="K112" s="142"/>
+    </row>
+    <row r="113" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C113" s="142"/>
+      <c r="D113" s="142"/>
+      <c r="E113" s="142"/>
+      <c r="F113" s="142"/>
+      <c r="G113" s="142"/>
+      <c r="H113" s="142"/>
+      <c r="I113" s="142"/>
+      <c r="J113" s="142"/>
+      <c r="K113" s="142"/>
+    </row>
+    <row r="114" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C114" s="142"/>
+      <c r="D114" s="142"/>
+      <c r="E114" s="142"/>
+      <c r="F114" s="142"/>
+      <c r="G114" s="142"/>
+      <c r="H114" s="142"/>
+      <c r="I114" s="142"/>
+      <c r="J114" s="142"/>
+      <c r="K114" s="142"/>
+    </row>
+    <row r="115" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C115" s="142"/>
+      <c r="D115" s="142"/>
+      <c r="E115" s="142"/>
+      <c r="F115" s="142"/>
+      <c r="G115" s="142"/>
+      <c r="H115" s="142"/>
+      <c r="I115" s="142"/>
+      <c r="J115" s="142"/>
+      <c r="K115" s="142"/>
+    </row>
+    <row r="116" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C116" s="142"/>
+      <c r="D116" s="142"/>
+      <c r="E116" s="142"/>
+      <c r="F116" s="142"/>
+      <c r="G116" s="142"/>
+      <c r="H116" s="142"/>
+      <c r="I116" s="142"/>
+      <c r="J116" s="142"/>
+      <c r="K116" s="142"/>
+    </row>
+    <row r="117" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C117" s="142"/>
+      <c r="D117" s="142"/>
+      <c r="E117" s="142"/>
+      <c r="F117" s="142"/>
+      <c r="G117" s="142"/>
+      <c r="H117" s="142"/>
+      <c r="I117" s="142"/>
+      <c r="J117" s="142"/>
+      <c r="K117" s="142"/>
+    </row>
+    <row r="118" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C118" s="142"/>
+      <c r="D118" s="142"/>
+      <c r="E118" s="142"/>
+      <c r="F118" s="142"/>
+      <c r="G118" s="142"/>
+      <c r="H118" s="142"/>
+      <c r="I118" s="142"/>
+      <c r="J118" s="142"/>
+      <c r="K118" s="142"/>
+    </row>
+    <row r="119" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C119" s="142"/>
+      <c r="D119" s="142"/>
+      <c r="E119" s="142"/>
+      <c r="F119" s="142"/>
+      <c r="G119" s="142"/>
+      <c r="H119" s="142"/>
+      <c r="I119" s="142"/>
+      <c r="J119" s="142"/>
+      <c r="K119" s="142"/>
+    </row>
+    <row r="120" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C120" s="142"/>
+      <c r="D120" s="142"/>
+      <c r="E120" s="142"/>
+      <c r="F120" s="142"/>
+      <c r="G120" s="142"/>
+      <c r="H120" s="142"/>
+      <c r="I120" s="142"/>
+      <c r="J120" s="142"/>
+      <c r="K120" s="142"/>
+    </row>
+    <row r="121" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C121" s="142"/>
+      <c r="D121" s="142"/>
+      <c r="E121" s="142"/>
+      <c r="F121" s="142"/>
+      <c r="G121" s="142"/>
+      <c r="H121" s="142"/>
+      <c r="I121" s="142"/>
+      <c r="J121" s="142"/>
+      <c r="K121" s="142"/>
+    </row>
+    <row r="122" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C122" s="142"/>
+      <c r="D122" s="142"/>
+      <c r="E122" s="142"/>
+      <c r="F122" s="142"/>
+      <c r="G122" s="142"/>
+      <c r="H122" s="142"/>
+      <c r="I122" s="142"/>
+      <c r="J122" s="142"/>
+      <c r="K122" s="142"/>
+    </row>
+    <row r="123" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C123" s="142"/>
+      <c r="D123" s="142"/>
+      <c r="E123" s="142"/>
+      <c r="F123" s="142"/>
+      <c r="G123" s="142"/>
+      <c r="H123" s="142"/>
+      <c r="I123" s="142"/>
+      <c r="J123" s="142"/>
+      <c r="K123" s="142"/>
+    </row>
+    <row r="124" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C124" s="142"/>
+      <c r="D124" s="142"/>
+      <c r="E124" s="142"/>
+      <c r="F124" s="142"/>
+      <c r="G124" s="142"/>
+      <c r="H124" s="142"/>
+      <c r="I124" s="142"/>
+      <c r="J124" s="142"/>
+      <c r="K124" s="142"/>
+    </row>
+    <row r="125" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C125" s="142"/>
+      <c r="D125" s="142"/>
+      <c r="E125" s="142"/>
+      <c r="F125" s="142"/>
+      <c r="G125" s="142"/>
+      <c r="H125" s="142"/>
+      <c r="I125" s="142"/>
+      <c r="J125" s="142"/>
+      <c r="K125" s="142"/>
+    </row>
+    <row r="126" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C126" s="142"/>
+      <c r="D126" s="142"/>
+      <c r="E126" s="142"/>
+      <c r="F126" s="142"/>
+      <c r="G126" s="142"/>
+      <c r="H126" s="142"/>
+      <c r="I126" s="142"/>
+      <c r="J126" s="142"/>
+      <c r="K126" s="142"/>
+    </row>
+    <row r="127" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C127" s="142"/>
+      <c r="D127" s="142"/>
+      <c r="E127" s="142"/>
+      <c r="F127" s="142"/>
+      <c r="G127" s="142"/>
+      <c r="H127" s="142"/>
+      <c r="I127" s="142"/>
+      <c r="J127" s="142"/>
+      <c r="K127" s="142"/>
+    </row>
+    <row r="128" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C128" s="142"/>
+      <c r="D128" s="142"/>
+      <c r="E128" s="142"/>
+      <c r="F128" s="142"/>
+      <c r="G128" s="142"/>
+      <c r="H128" s="142"/>
+      <c r="I128" s="142"/>
+      <c r="J128" s="142"/>
+      <c r="K128" s="142"/>
+    </row>
+    <row r="129" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C129" s="142"/>
+      <c r="D129" s="142"/>
+      <c r="E129" s="142"/>
+      <c r="F129" s="142"/>
+      <c r="G129" s="142"/>
+      <c r="H129" s="142"/>
+      <c r="I129" s="142"/>
+      <c r="J129" s="142"/>
+      <c r="K129" s="142"/>
+    </row>
+    <row r="130" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C130" s="142"/>
+      <c r="D130" s="142"/>
+      <c r="E130" s="142"/>
+      <c r="F130" s="142"/>
+      <c r="G130" s="142"/>
+      <c r="H130" s="142"/>
+      <c r="I130" s="142"/>
+      <c r="J130" s="142"/>
+      <c r="K130" s="142"/>
+    </row>
+    <row r="131" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C131" s="142"/>
+      <c r="D131" s="142"/>
+      <c r="E131" s="142"/>
+      <c r="F131" s="142"/>
+      <c r="G131" s="142"/>
+      <c r="H131" s="142"/>
+      <c r="I131" s="142"/>
+      <c r="J131" s="142"/>
+      <c r="K131" s="142"/>
+    </row>
+    <row r="132" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C132" s="142"/>
+      <c r="D132" s="142"/>
+      <c r="E132" s="142"/>
+      <c r="F132" s="142"/>
+      <c r="G132" s="142"/>
+      <c r="H132" s="142"/>
+      <c r="I132" s="142"/>
+      <c r="J132" s="142"/>
+      <c r="K132" s="142"/>
+    </row>
+    <row r="133" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C133" s="142"/>
+      <c r="D133" s="142"/>
+      <c r="E133" s="142"/>
+      <c r="F133" s="142"/>
+      <c r="G133" s="142"/>
+      <c r="H133" s="142"/>
+      <c r="I133" s="142"/>
+      <c r="J133" s="142"/>
+      <c r="K133" s="142"/>
+    </row>
+    <row r="134" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C134" s="142"/>
+      <c r="D134" s="142"/>
+      <c r="E134" s="142"/>
+      <c r="F134" s="142"/>
+      <c r="G134" s="142"/>
+      <c r="H134" s="142"/>
+      <c r="I134" s="142"/>
+      <c r="J134" s="142"/>
+      <c r="K134" s="142"/>
+    </row>
+    <row r="135" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C135" s="142"/>
+      <c r="D135" s="142"/>
+      <c r="E135" s="142"/>
+      <c r="F135" s="142"/>
+      <c r="G135" s="142"/>
+      <c r="H135" s="142"/>
+      <c r="I135" s="142"/>
+      <c r="J135" s="142"/>
+      <c r="K135" s="142"/>
+    </row>
+    <row r="136" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C136" s="142"/>
+      <c r="D136" s="142"/>
+      <c r="E136" s="142"/>
+      <c r="F136" s="142"/>
+      <c r="G136" s="142"/>
+      <c r="H136" s="142"/>
+      <c r="I136" s="142"/>
+      <c r="J136" s="142"/>
+      <c r="K136" s="142"/>
+    </row>
+    <row r="137" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C137" s="142"/>
+      <c r="D137" s="142"/>
+      <c r="E137" s="142"/>
+      <c r="F137" s="142"/>
+      <c r="G137" s="142"/>
+      <c r="H137" s="142"/>
+      <c r="I137" s="142"/>
+      <c r="J137" s="142"/>
+      <c r="K137" s="142"/>
+    </row>
+    <row r="138" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C138" s="142"/>
+      <c r="D138" s="142"/>
+      <c r="E138" s="142"/>
+      <c r="F138" s="142"/>
+      <c r="G138" s="142"/>
+      <c r="H138" s="142"/>
+      <c r="I138" s="142"/>
+      <c r="J138" s="142"/>
+      <c r="K138" s="142"/>
+    </row>
+    <row r="139" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C139" s="142"/>
+      <c r="D139" s="142"/>
+      <c r="E139" s="142"/>
+      <c r="F139" s="142"/>
+      <c r="G139" s="142"/>
+      <c r="H139" s="142"/>
+      <c r="I139" s="142"/>
+      <c r="J139" s="142"/>
+      <c r="K139" s="142"/>
+    </row>
+    <row r="140" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C140" s="142"/>
+      <c r="D140" s="142"/>
+      <c r="E140" s="142"/>
+      <c r="F140" s="142"/>
+      <c r="G140" s="142"/>
+      <c r="H140" s="142"/>
+      <c r="I140" s="142"/>
+      <c r="J140" s="142"/>
+      <c r="K140" s="142"/>
+    </row>
+    <row r="141" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C141" s="142"/>
+      <c r="D141" s="142"/>
+      <c r="E141" s="142"/>
+      <c r="F141" s="142"/>
+      <c r="G141" s="142"/>
+      <c r="H141" s="142"/>
+      <c r="I141" s="142"/>
+      <c r="J141" s="142"/>
+      <c r="K141" s="142"/>
+    </row>
+    <row r="142" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C142" s="142"/>
+      <c r="D142" s="142"/>
+      <c r="E142" s="142"/>
+      <c r="F142" s="142"/>
+      <c r="G142" s="142"/>
+      <c r="H142" s="142"/>
+      <c r="I142" s="142"/>
+      <c r="J142" s="142"/>
+      <c r="K142" s="142"/>
+    </row>
+    <row r="143" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C143" s="142"/>
+      <c r="D143" s="142"/>
+      <c r="E143" s="142"/>
+      <c r="F143" s="142"/>
+      <c r="G143" s="142"/>
+      <c r="H143" s="142"/>
+      <c r="I143" s="142"/>
+      <c r="J143" s="142"/>
+      <c r="K143" s="142"/>
+    </row>
+    <row r="144" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C144" s="142"/>
+      <c r="D144" s="142"/>
+      <c r="E144" s="142"/>
+      <c r="F144" s="142"/>
+      <c r="G144" s="142"/>
+      <c r="H144" s="142"/>
+      <c r="I144" s="142"/>
+      <c r="J144" s="142"/>
+      <c r="K144" s="142"/>
+    </row>
+    <row r="145" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C145" s="142"/>
+      <c r="D145" s="142"/>
+      <c r="E145" s="142"/>
+      <c r="F145" s="142"/>
+      <c r="G145" s="142"/>
+      <c r="H145" s="142"/>
+      <c r="I145" s="142"/>
+      <c r="J145" s="142"/>
+      <c r="K145" s="142"/>
+    </row>
+    <row r="146" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C146" s="142"/>
+      <c r="D146" s="142"/>
+      <c r="E146" s="142"/>
+      <c r="F146" s="142"/>
+      <c r="G146" s="142"/>
+      <c r="H146" s="142"/>
+      <c r="I146" s="142"/>
+      <c r="J146" s="142"/>
+      <c r="K146" s="142"/>
+    </row>
+    <row r="147" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C147" s="142"/>
+      <c r="D147" s="142"/>
+      <c r="E147" s="142"/>
+      <c r="F147" s="142"/>
+      <c r="G147" s="142"/>
+      <c r="H147" s="142"/>
+      <c r="I147" s="142"/>
+      <c r="J147" s="142"/>
+      <c r="K147" s="142"/>
+    </row>
+    <row r="148" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C148" s="142"/>
+      <c r="D148" s="142"/>
+      <c r="E148" s="142"/>
+      <c r="F148" s="142"/>
+      <c r="G148" s="142"/>
+      <c r="H148" s="142"/>
+      <c r="I148" s="142"/>
+      <c r="J148" s="142"/>
+      <c r="K148" s="142"/>
+    </row>
+    <row r="149" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C149" s="142"/>
+      <c r="D149" s="142"/>
+      <c r="E149" s="142"/>
+      <c r="F149" s="142"/>
+      <c r="G149" s="142"/>
+      <c r="H149" s="142"/>
+      <c r="I149" s="142"/>
+      <c r="J149" s="142"/>
+      <c r="K149" s="142"/>
+    </row>
+    <row r="150" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C150" s="142"/>
+      <c r="D150" s="142"/>
+      <c r="E150" s="142"/>
+      <c r="F150" s="142"/>
+      <c r="G150" s="142"/>
+      <c r="H150" s="142"/>
+      <c r="I150" s="142"/>
+      <c r="J150" s="142"/>
+      <c r="K150" s="142"/>
+    </row>
+    <row r="151" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C151" s="142"/>
+      <c r="D151" s="142"/>
+      <c r="E151" s="142"/>
+      <c r="F151" s="142"/>
+      <c r="G151" s="142"/>
+      <c r="H151" s="142"/>
+      <c r="I151" s="142"/>
+      <c r="J151" s="142"/>
+      <c r="K151" s="142"/>
+    </row>
+    <row r="152" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C152" s="142"/>
+      <c r="D152" s="142"/>
+      <c r="E152" s="142"/>
+      <c r="F152" s="142"/>
+      <c r="G152" s="142"/>
+      <c r="H152" s="142"/>
+      <c r="I152" s="142"/>
+      <c r="J152" s="142"/>
+      <c r="K152" s="142"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38525FD-F1D4-6641-B68F-DDE5B5725C1A}">
   <dimension ref="A1:BF117"/>
   <sheetViews>
@@ -22328,7 +23964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBBD58F-68ED-1C4D-8B7F-C9C6A8B98EFA}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -22973,7 +24609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A830F9B-406F-F04B-B228-FACF34A21B6F}">
   <dimension ref="B1:R160"/>
   <sheetViews>
@@ -23009,24 +24645,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="94" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="G1" s="98" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="G1" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="98"/>
+      <c r="H1" s="101"/>
     </row>
     <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
@@ -23051,16 +24687,16 @@
       <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="104" t="s">
         <v>376</v>
       </c>
-      <c r="H3" s="101"/>
+      <c r="H3" s="104"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="90" t="s">
         <v>320</v>
       </c>
-      <c r="L3" s="102"/>
+      <c r="L3" s="90"/>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
@@ -23083,8 +24719,8 @@
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
@@ -23104,10 +24740,10 @@
       <c r="E5" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="102" t="s">
         <v>375</v>
       </c>
-      <c r="H5" s="100"/>
+      <c r="H5" s="103"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="20" t="s">
@@ -23135,7 +24771,7 @@
       <c r="E6" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="103" t="s">
+      <c r="G6" s="91" t="s">
         <v>280</v>
       </c>
       <c r="H6" s="29" t="s">
@@ -23168,7 +24804,7 @@
       <c r="E7" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="104"/>
+      <c r="G7" s="92"/>
       <c r="H7" s="20" t="s">
         <v>292</v>
       </c>
@@ -23199,7 +24835,7 @@
       <c r="E8" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="104"/>
+      <c r="G8" s="92"/>
       <c r="H8" s="20" t="s">
         <v>293</v>
       </c>
@@ -23259,7 +24895,7 @@
       <c r="E10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="97" t="s">
+      <c r="G10" s="93" t="s">
         <v>173</v>
       </c>
       <c r="H10" s="20" t="s">
@@ -23292,7 +24928,7 @@
       <c r="E11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="97"/>
+      <c r="G11" s="93"/>
       <c r="H11" s="20" t="s">
         <v>292</v>
       </c>
@@ -23323,7 +24959,7 @@
       <c r="E12" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="97"/>
+      <c r="G12" s="93"/>
       <c r="H12" s="20" t="s">
         <v>293</v>
       </c>
@@ -23366,7 +25002,7 @@
       <c r="E14" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="97" t="s">
+      <c r="G14" s="93" t="s">
         <v>110</v>
       </c>
       <c r="H14" s="20" t="s">
@@ -23390,7 +25026,7 @@
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
       <c r="E15" s="82"/>
-      <c r="G15" s="97"/>
+      <c r="G15" s="93"/>
       <c r="H15" s="20" t="s">
         <v>294</v>
       </c>
@@ -23412,7 +25048,7 @@
       <c r="C16" s="81"/>
       <c r="D16" s="81"/>
       <c r="E16" s="82"/>
-      <c r="G16" s="97"/>
+      <c r="G16" s="93"/>
       <c r="H16" s="20" t="s">
         <v>295</v>
       </c>
@@ -23454,7 +25090,7 @@
       <c r="C18" s="81"/>
       <c r="D18" s="81"/>
       <c r="E18" s="82"/>
-      <c r="G18" s="97" t="s">
+      <c r="G18" s="93" t="s">
         <v>245</v>
       </c>
       <c r="H18" s="20" t="s">
@@ -23478,7 +25114,7 @@
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
       <c r="E19" s="82"/>
-      <c r="G19" s="97"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="20" t="s">
         <v>297</v>
       </c>
@@ -23500,7 +25136,7 @@
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
       <c r="E20" s="82"/>
-      <c r="G20" s="97"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="20" t="s">
         <v>298</v>
       </c>
@@ -23536,7 +25172,7 @@
       <c r="Q21" s="25"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G22" s="97" t="s">
+      <c r="G22" s="93" t="s">
         <v>124</v>
       </c>
       <c r="H22" s="20" t="s">
@@ -23557,7 +25193,7 @@
       <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G23" s="97"/>
+      <c r="G23" s="93"/>
       <c r="H23" s="20" t="s">
         <v>299</v>
       </c>
@@ -23576,7 +25212,7 @@
       <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G24" s="97"/>
+      <c r="G24" s="93"/>
       <c r="H24" s="20" t="s">
         <v>300</v>
       </c>
@@ -23612,7 +25248,7 @@
       <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G26" s="97" t="s">
+      <c r="G26" s="93" t="s">
         <v>248</v>
       </c>
       <c r="H26" s="20" t="s">
@@ -23633,7 +25269,7 @@
       <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G27" s="97"/>
+      <c r="G27" s="93"/>
       <c r="H27" s="20" t="s">
         <v>301</v>
       </c>
@@ -23652,7 +25288,7 @@
       <c r="Q27" s="25"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G28" s="97"/>
+      <c r="G28" s="93"/>
       <c r="H28" s="20" t="s">
         <v>302</v>
       </c>
@@ -23688,7 +25324,7 @@
       <c r="Q29" s="25"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G30" s="97" t="s">
+      <c r="G30" s="93" t="s">
         <v>174</v>
       </c>
       <c r="H30" s="20" t="s">
@@ -23709,7 +25345,7 @@
       <c r="Q30" s="25"/>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G31" s="97"/>
+      <c r="G31" s="93"/>
       <c r="H31" s="20" t="s">
         <v>292</v>
       </c>
@@ -23728,7 +25364,7 @@
       <c r="Q31" s="25"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G32" s="97"/>
+      <c r="G32" s="93"/>
       <c r="H32" s="20" t="s">
         <v>293</v>
       </c>
@@ -23764,7 +25400,7 @@
       <c r="Q33" s="25"/>
     </row>
     <row r="34" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G34" s="97" t="s">
+      <c r="G34" s="93" t="s">
         <v>244</v>
       </c>
       <c r="H34" s="20" t="s">
@@ -23785,7 +25421,7 @@
       <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G35" s="97"/>
+      <c r="G35" s="93"/>
       <c r="H35" s="20" t="s">
         <v>303</v>
       </c>
@@ -23804,7 +25440,7 @@
       <c r="Q35" s="25"/>
     </row>
     <row r="36" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G36" s="97"/>
+      <c r="G36" s="93"/>
       <c r="H36" s="20" t="s">
         <v>304</v>
       </c>
@@ -23840,7 +25476,7 @@
       <c r="Q37" s="25"/>
     </row>
     <row r="38" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G38" s="97" t="s">
+      <c r="G38" s="93" t="s">
         <v>154</v>
       </c>
       <c r="H38" s="20" t="s">
@@ -23861,7 +25497,7 @@
       <c r="Q38" s="25"/>
     </row>
     <row r="39" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G39" s="97"/>
+      <c r="G39" s="93"/>
       <c r="H39" s="20" t="s">
         <v>297</v>
       </c>
@@ -23880,7 +25516,7 @@
       <c r="Q39" s="25"/>
     </row>
     <row r="40" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G40" s="97"/>
+      <c r="G40" s="93"/>
       <c r="H40" s="20" t="s">
         <v>305</v>
       </c>
@@ -23916,7 +25552,7 @@
       <c r="Q41" s="25"/>
     </row>
     <row r="42" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G42" s="97" t="s">
+      <c r="G42" s="93" t="s">
         <v>281</v>
       </c>
       <c r="H42" s="20" t="s">
@@ -23937,7 +25573,7 @@
       <c r="Q42" s="25"/>
     </row>
     <row r="43" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G43" s="97"/>
+      <c r="G43" s="93"/>
       <c r="H43" s="20" t="s">
         <v>292</v>
       </c>
@@ -23956,7 +25592,7 @@
       <c r="Q43" s="25"/>
     </row>
     <row r="44" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G44" s="97"/>
+      <c r="G44" s="93"/>
       <c r="H44" s="20" t="s">
         <v>293</v>
       </c>
@@ -23992,7 +25628,7 @@
       <c r="Q45" s="25"/>
     </row>
     <row r="46" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G46" s="97" t="s">
+      <c r="G46" s="93" t="s">
         <v>282</v>
       </c>
       <c r="H46" s="20" t="s">
@@ -24013,7 +25649,7 @@
       <c r="Q46" s="25"/>
     </row>
     <row r="47" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G47" s="97"/>
+      <c r="G47" s="93"/>
       <c r="H47" s="20" t="s">
         <v>292</v>
       </c>
@@ -24032,7 +25668,7 @@
       <c r="Q47" s="25"/>
     </row>
     <row r="48" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G48" s="97"/>
+      <c r="G48" s="93"/>
       <c r="H48" s="20" t="s">
         <v>293</v>
       </c>
@@ -24068,7 +25704,7 @@
       <c r="Q49" s="25"/>
     </row>
     <row r="50" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G50" s="97" t="s">
+      <c r="G50" s="93" t="s">
         <v>277</v>
       </c>
       <c r="H50" s="20" t="s">
@@ -24089,7 +25725,7 @@
       <c r="Q50" s="25"/>
     </row>
     <row r="51" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G51" s="97"/>
+      <c r="G51" s="93"/>
       <c r="H51" s="20" t="s">
         <v>306</v>
       </c>
@@ -24108,7 +25744,7 @@
       <c r="Q51" s="25"/>
     </row>
     <row r="52" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G52" s="97"/>
+      <c r="G52" s="93"/>
       <c r="H52" s="20" t="s">
         <v>307</v>
       </c>
@@ -24144,7 +25780,7 @@
       <c r="Q53" s="25"/>
     </row>
     <row r="54" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G54" s="97" t="s">
+      <c r="G54" s="93" t="s">
         <v>163</v>
       </c>
       <c r="H54" s="20" t="s">
@@ -24165,7 +25801,7 @@
       <c r="Q54" s="25"/>
     </row>
     <row r="55" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G55" s="97"/>
+      <c r="G55" s="93"/>
       <c r="H55" s="20" t="s">
         <v>306</v>
       </c>
@@ -24184,7 +25820,7 @@
       <c r="Q55" s="25"/>
     </row>
     <row r="56" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G56" s="97"/>
+      <c r="G56" s="93"/>
       <c r="H56" s="20" t="s">
         <v>307</v>
       </c>
@@ -24220,7 +25856,7 @@
       <c r="Q57" s="25"/>
     </row>
     <row r="58" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G58" s="97" t="s">
+      <c r="G58" s="93" t="s">
         <v>175</v>
       </c>
       <c r="H58" s="20" t="s">
@@ -24241,7 +25877,7 @@
       <c r="Q58" s="25"/>
     </row>
     <row r="59" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G59" s="97"/>
+      <c r="G59" s="93"/>
       <c r="H59" s="20" t="s">
         <v>292</v>
       </c>
@@ -24260,7 +25896,7 @@
       <c r="Q59" s="25"/>
     </row>
     <row r="60" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G60" s="97"/>
+      <c r="G60" s="93"/>
       <c r="H60" s="20" t="s">
         <v>293</v>
       </c>
@@ -24296,7 +25932,7 @@
       <c r="Q61" s="25"/>
     </row>
     <row r="62" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G62" s="97" t="s">
+      <c r="G62" s="93" t="s">
         <v>283</v>
       </c>
       <c r="H62" s="20" t="s">
@@ -24317,7 +25953,7 @@
       <c r="Q62" s="25"/>
     </row>
     <row r="63" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G63" s="97"/>
+      <c r="G63" s="93"/>
       <c r="H63" s="20" t="s">
         <v>292</v>
       </c>
@@ -24336,7 +25972,7 @@
       <c r="Q63" s="25"/>
     </row>
     <row r="64" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G64" s="97"/>
+      <c r="G64" s="93"/>
       <c r="H64" s="20" t="s">
         <v>293</v>
       </c>
@@ -24372,7 +26008,7 @@
       <c r="Q65" s="25"/>
     </row>
     <row r="66" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G66" s="97" t="s">
+      <c r="G66" s="93" t="s">
         <v>176</v>
       </c>
       <c r="H66" s="20" t="s">
@@ -24393,7 +26029,7 @@
       <c r="Q66" s="25"/>
     </row>
     <row r="67" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G67" s="97"/>
+      <c r="G67" s="93"/>
       <c r="H67" s="20" t="s">
         <v>292</v>
       </c>
@@ -24412,7 +26048,7 @@
       <c r="Q67" s="25"/>
     </row>
     <row r="68" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G68" s="97"/>
+      <c r="G68" s="93"/>
       <c r="H68" s="20" t="s">
         <v>293</v>
       </c>
@@ -24448,7 +26084,7 @@
       <c r="Q69" s="25"/>
     </row>
     <row r="70" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G70" s="97" t="s">
+      <c r="G70" s="93" t="s">
         <v>234</v>
       </c>
       <c r="H70" s="20" t="s">
@@ -24469,7 +26105,7 @@
       <c r="Q70" s="25"/>
     </row>
     <row r="71" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G71" s="97"/>
+      <c r="G71" s="93"/>
       <c r="H71" s="20" t="s">
         <v>303</v>
       </c>
@@ -24488,7 +26124,7 @@
       <c r="Q71" s="25"/>
     </row>
     <row r="72" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G72" s="97"/>
+      <c r="G72" s="93"/>
       <c r="H72" s="20" t="s">
         <v>304</v>
       </c>
@@ -24524,7 +26160,7 @@
       <c r="Q73" s="25"/>
     </row>
     <row r="74" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G74" s="97" t="s">
+      <c r="G74" s="93" t="s">
         <v>255</v>
       </c>
       <c r="H74" s="20" t="s">
@@ -24545,7 +26181,7 @@
       <c r="Q74" s="25"/>
     </row>
     <row r="75" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G75" s="97"/>
+      <c r="G75" s="93"/>
       <c r="H75" s="20" t="s">
         <v>308</v>
       </c>
@@ -24564,7 +26200,7 @@
       <c r="Q75" s="25"/>
     </row>
     <row r="76" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G76" s="97"/>
+      <c r="G76" s="93"/>
       <c r="H76" s="20" t="s">
         <v>309</v>
       </c>
@@ -24600,7 +26236,7 @@
       <c r="Q77" s="25"/>
     </row>
     <row r="78" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G78" s="97" t="s">
+      <c r="G78" s="93" t="s">
         <v>177</v>
       </c>
       <c r="H78" s="20" t="s">
@@ -24621,7 +26257,7 @@
       <c r="Q78" s="25"/>
     </row>
     <row r="79" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G79" s="97"/>
+      <c r="G79" s="93"/>
       <c r="H79" s="20" t="s">
         <v>306</v>
       </c>
@@ -24640,7 +26276,7 @@
       <c r="Q79" s="25"/>
     </row>
     <row r="80" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G80" s="97"/>
+      <c r="G80" s="93"/>
       <c r="H80" s="20" t="s">
         <v>310</v>
       </c>
@@ -24676,7 +26312,7 @@
       <c r="Q81" s="25"/>
     </row>
     <row r="82" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G82" s="97" t="s">
+      <c r="G82" s="93" t="s">
         <v>178</v>
       </c>
       <c r="H82" s="20" t="s">
@@ -24697,7 +26333,7 @@
       <c r="Q82" s="25"/>
     </row>
     <row r="83" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G83" s="97"/>
+      <c r="G83" s="93"/>
       <c r="H83" s="20" t="s">
         <v>292</v>
       </c>
@@ -24716,7 +26352,7 @@
       <c r="Q83" s="25"/>
     </row>
     <row r="84" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G84" s="97"/>
+      <c r="G84" s="93"/>
       <c r="H84" s="20" t="s">
         <v>293</v>
       </c>
@@ -24752,7 +26388,7 @@
       <c r="Q85" s="25"/>
     </row>
     <row r="86" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G86" s="97" t="s">
+      <c r="G86" s="93" t="s">
         <v>179</v>
       </c>
       <c r="H86" s="20" t="s">
@@ -24773,7 +26409,7 @@
       <c r="Q86" s="25"/>
     </row>
     <row r="87" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G87" s="97"/>
+      <c r="G87" s="93"/>
       <c r="H87" s="20" t="s">
         <v>292</v>
       </c>
@@ -24792,7 +26428,7 @@
       <c r="Q87" s="25"/>
     </row>
     <row r="88" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G88" s="97"/>
+      <c r="G88" s="93"/>
       <c r="H88" s="20" t="s">
         <v>293</v>
       </c>
@@ -24828,7 +26464,7 @@
       <c r="Q89" s="25"/>
     </row>
     <row r="90" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G90" s="97" t="s">
+      <c r="G90" s="93" t="s">
         <v>180</v>
       </c>
       <c r="H90" s="20" t="s">
@@ -24849,7 +26485,7 @@
       <c r="Q90" s="25"/>
     </row>
     <row r="91" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G91" s="97"/>
+      <c r="G91" s="93"/>
       <c r="H91" s="20" t="s">
         <v>292</v>
       </c>
@@ -24868,7 +26504,7 @@
       <c r="Q91" s="25"/>
     </row>
     <row r="92" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G92" s="97"/>
+      <c r="G92" s="93"/>
       <c r="H92" s="20" t="s">
         <v>293</v>
       </c>
@@ -24904,7 +26540,7 @@
       <c r="Q93" s="25"/>
     </row>
     <row r="94" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G94" s="97" t="s">
+      <c r="G94" s="93" t="s">
         <v>279</v>
       </c>
       <c r="H94" s="20" t="s">
@@ -24925,7 +26561,7 @@
       <c r="Q94" s="25"/>
     </row>
     <row r="95" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G95" s="97"/>
+      <c r="G95" s="93"/>
       <c r="H95" s="20" t="s">
         <v>306</v>
       </c>
@@ -24944,7 +26580,7 @@
       <c r="Q95" s="25"/>
     </row>
     <row r="96" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G96" s="97"/>
+      <c r="G96" s="93"/>
       <c r="H96" s="20" t="s">
         <v>307</v>
       </c>
@@ -24980,7 +26616,7 @@
       <c r="Q97" s="25"/>
     </row>
     <row r="98" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G98" s="97" t="s">
+      <c r="G98" s="93" t="s">
         <v>181</v>
       </c>
       <c r="H98" s="20" t="s">
@@ -25001,7 +26637,7 @@
       <c r="Q98" s="25"/>
     </row>
     <row r="99" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G99" s="97"/>
+      <c r="G99" s="93"/>
       <c r="H99" s="20" t="s">
         <v>292</v>
       </c>
@@ -25020,7 +26656,7 @@
       <c r="Q99" s="25"/>
     </row>
     <row r="100" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G100" s="97"/>
+      <c r="G100" s="93"/>
       <c r="H100" s="20" t="s">
         <v>293</v>
       </c>
@@ -25056,7 +26692,7 @@
       <c r="Q101" s="25"/>
     </row>
     <row r="102" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G102" s="97" t="s">
+      <c r="G102" s="93" t="s">
         <v>258</v>
       </c>
       <c r="H102" s="20" t="s">
@@ -25077,7 +26713,7 @@
       <c r="Q102" s="25"/>
     </row>
     <row r="103" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G103" s="97"/>
+      <c r="G103" s="93"/>
       <c r="H103" s="20" t="s">
         <v>311</v>
       </c>
@@ -25096,7 +26732,7 @@
       <c r="Q103" s="25"/>
     </row>
     <row r="104" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G104" s="97"/>
+      <c r="G104" s="93"/>
       <c r="H104" s="20" t="s">
         <v>312</v>
       </c>
@@ -25132,7 +26768,7 @@
       <c r="Q105" s="25"/>
     </row>
     <row r="106" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G106" s="97" t="s">
+      <c r="G106" s="93" t="s">
         <v>182</v>
       </c>
       <c r="H106" s="20" t="s">
@@ -25153,7 +26789,7 @@
       <c r="Q106" s="25"/>
     </row>
     <row r="107" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G107" s="97"/>
+      <c r="G107" s="93"/>
       <c r="H107" s="20" t="s">
         <v>292</v>
       </c>
@@ -25172,7 +26808,7 @@
       <c r="Q107" s="25"/>
     </row>
     <row r="108" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G108" s="97"/>
+      <c r="G108" s="93"/>
       <c r="H108" s="20" t="s">
         <v>293</v>
       </c>
@@ -25208,7 +26844,7 @@
       <c r="Q109" s="25"/>
     </row>
     <row r="110" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G110" s="97" t="s">
+      <c r="G110" s="93" t="s">
         <v>151</v>
       </c>
       <c r="H110" s="20" t="s">
@@ -25229,7 +26865,7 @@
       <c r="Q110" s="25"/>
     </row>
     <row r="111" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G111" s="97"/>
+      <c r="G111" s="93"/>
       <c r="H111" s="20" t="s">
         <v>306</v>
       </c>
@@ -25248,7 +26884,7 @@
       <c r="Q111" s="25"/>
     </row>
     <row r="112" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G112" s="97"/>
+      <c r="G112" s="93"/>
       <c r="H112" s="20" t="s">
         <v>307</v>
       </c>
@@ -25284,7 +26920,7 @@
       <c r="Q113" s="25"/>
     </row>
     <row r="114" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G114" s="97" t="s">
+      <c r="G114" s="93" t="s">
         <v>275</v>
       </c>
       <c r="H114" s="20" t="s">
@@ -25305,7 +26941,7 @@
       <c r="Q114" s="25"/>
     </row>
     <row r="115" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G115" s="97"/>
+      <c r="G115" s="93"/>
       <c r="H115" s="20" t="s">
         <v>311</v>
       </c>
@@ -25324,7 +26960,7 @@
       <c r="Q115" s="25"/>
     </row>
     <row r="116" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G116" s="97"/>
+      <c r="G116" s="93"/>
       <c r="H116" s="20" t="s">
         <v>312</v>
       </c>
@@ -25360,7 +26996,7 @@
       <c r="Q117" s="25"/>
     </row>
     <row r="118" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G118" s="97" t="s">
+      <c r="G118" s="93" t="s">
         <v>183</v>
       </c>
       <c r="H118" s="20" t="s">
@@ -25381,7 +27017,7 @@
       <c r="Q118" s="25"/>
     </row>
     <row r="119" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G119" s="97"/>
+      <c r="G119" s="93"/>
       <c r="H119" s="20" t="s">
         <v>292</v>
       </c>
@@ -25400,7 +27036,7 @@
       <c r="Q119" s="25"/>
     </row>
     <row r="120" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G120" s="97"/>
+      <c r="G120" s="93"/>
       <c r="H120" s="20" t="s">
         <v>293</v>
       </c>
@@ -25436,7 +27072,7 @@
       <c r="Q121" s="25"/>
     </row>
     <row r="122" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G122" s="97" t="s">
+      <c r="G122" s="93" t="s">
         <v>111</v>
       </c>
       <c r="H122" s="20" t="s">
@@ -25457,7 +27093,7 @@
       <c r="Q122" s="25"/>
     </row>
     <row r="123" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G123" s="97"/>
+      <c r="G123" s="93"/>
       <c r="H123" s="20" t="s">
         <v>294</v>
       </c>
@@ -25476,7 +27112,7 @@
       <c r="Q123" s="25"/>
     </row>
     <row r="124" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G124" s="97"/>
+      <c r="G124" s="93"/>
       <c r="H124" s="20" t="s">
         <v>295</v>
       </c>
@@ -25512,7 +27148,7 @@
       <c r="Q125" s="25"/>
     </row>
     <row r="126" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G126" s="97" t="s">
+      <c r="G126" s="93" t="s">
         <v>184</v>
       </c>
       <c r="H126" s="20" t="s">
@@ -25533,7 +27169,7 @@
       <c r="Q126" s="25"/>
     </row>
     <row r="127" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G127" s="97"/>
+      <c r="G127" s="93"/>
       <c r="H127" s="20" t="s">
         <v>292</v>
       </c>
@@ -25552,7 +27188,7 @@
       <c r="Q127" s="25"/>
     </row>
     <row r="128" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G128" s="97"/>
+      <c r="G128" s="93"/>
       <c r="H128" s="20" t="s">
         <v>293</v>
       </c>
@@ -25588,7 +27224,7 @@
       <c r="Q129" s="25"/>
     </row>
     <row r="130" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G130" s="97" t="s">
+      <c r="G130" s="93" t="s">
         <v>284</v>
       </c>
       <c r="H130" s="20" t="s">
@@ -25609,7 +27245,7 @@
       <c r="Q130" s="25"/>
     </row>
     <row r="131" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G131" s="97"/>
+      <c r="G131" s="93"/>
       <c r="H131" s="20" t="s">
         <v>292</v>
       </c>
@@ -25628,7 +27264,7 @@
       <c r="Q131" s="25"/>
     </row>
     <row r="132" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G132" s="97"/>
+      <c r="G132" s="93"/>
       <c r="H132" s="20" t="s">
         <v>293</v>
       </c>
@@ -25664,7 +27300,7 @@
       <c r="Q133" s="25"/>
     </row>
     <row r="134" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G134" s="97" t="s">
+      <c r="G134" s="93" t="s">
         <v>185</v>
       </c>
       <c r="H134" s="20" t="s">
@@ -25685,7 +27321,7 @@
       <c r="Q134" s="25"/>
     </row>
     <row r="135" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G135" s="97"/>
+      <c r="G135" s="93"/>
       <c r="H135" s="20" t="s">
         <v>292</v>
       </c>
@@ -25704,7 +27340,7 @@
       <c r="Q135" s="25"/>
     </row>
     <row r="136" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G136" s="97"/>
+      <c r="G136" s="93"/>
       <c r="H136" s="20" t="s">
         <v>293</v>
       </c>
@@ -25739,10 +27375,10 @@
       <c r="Q137" s="25"/>
     </row>
     <row r="138" spans="7:17" ht="21" x14ac:dyDescent="0.2">
-      <c r="G138" s="95" t="s">
+      <c r="G138" s="99" t="s">
         <v>377</v>
       </c>
-      <c r="H138" s="96"/>
+      <c r="H138" s="100"/>
       <c r="I138" s="25"/>
       <c r="J138" s="25"/>
       <c r="K138" s="20" t="s">
@@ -25758,10 +27394,10 @@
       <c r="Q138" s="25"/>
     </row>
     <row r="139" spans="7:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="G139" s="93" t="s">
+      <c r="G139" s="97" t="s">
         <v>410</v>
       </c>
-      <c r="H139" s="94"/>
+      <c r="H139" s="98"/>
       <c r="I139" s="25"/>
       <c r="J139" s="25"/>
       <c r="K139" s="20" t="s">
@@ -26054,32 +27690,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C14:D20"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="G130:G132"/>
-    <mergeCell ref="G126:G128"/>
-    <mergeCell ref="G122:G124"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G50:G52"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="G139:H139"/>
     <mergeCell ref="G138:H138"/>
@@ -26096,13 +27706,39 @@
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="G130:G132"/>
+    <mergeCell ref="G126:G128"/>
+    <mergeCell ref="G122:G124"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="C14:D20"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="E14:E20"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE669EB-9A75-B741-9919-5DF03557E885}">
   <dimension ref="A1:BO166"/>
   <sheetViews>
@@ -26136,61 +27772,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="117" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="126"/>
-      <c r="AJ1" s="126"/>
-      <c r="AK1" s="126"/>
-      <c r="AL1" s="126"/>
-      <c r="AM1" s="126"/>
-      <c r="AN1" s="126"/>
-      <c r="AO1" s="126"/>
-      <c r="AP1" s="126"/>
-      <c r="AQ1" s="126"/>
-      <c r="AR1" s="126"/>
-      <c r="AS1" s="126"/>
-      <c r="AT1" s="126"/>
-      <c r="AU1" s="126"/>
-      <c r="AV1" s="126"/>
-      <c r="AW1" s="126"/>
-      <c r="AX1" s="126"/>
-      <c r="AY1" s="126"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="107"/>
+      <c r="AQ1" s="107"/>
+      <c r="AR1" s="107"/>
+      <c r="AS1" s="107"/>
+      <c r="AT1" s="107"/>
+      <c r="AU1" s="107"/>
+      <c r="AV1" s="107"/>
+      <c r="AW1" s="107"/>
+      <c r="AX1" s="107"/>
+      <c r="AY1" s="107"/>
       <c r="AZ1" s="45"/>
       <c r="BA1" s="78" t="s">
         <v>432</v>
@@ -26208,57 +27844,57 @@
       <c r="BJ1" s="6"/>
     </row>
     <row r="2" spans="1:67" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="126"/>
-      <c r="AJ2" s="126"/>
-      <c r="AK2" s="126"/>
-      <c r="AL2" s="126"/>
-      <c r="AM2" s="126"/>
-      <c r="AN2" s="126"/>
-      <c r="AO2" s="126"/>
-      <c r="AP2" s="126"/>
-      <c r="AQ2" s="126"/>
-      <c r="AR2" s="126"/>
-      <c r="AS2" s="126"/>
-      <c r="AT2" s="126"/>
-      <c r="AU2" s="126"/>
-      <c r="AV2" s="126"/>
-      <c r="AW2" s="126"/>
-      <c r="AX2" s="126"/>
-      <c r="AY2" s="126"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="107"/>
+      <c r="AR2" s="107"/>
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="107"/>
+      <c r="AW2" s="107"/>
+      <c r="AX2" s="107"/>
+      <c r="AY2" s="107"/>
       <c r="AZ2" s="45"/>
       <c r="BA2" s="78"/>
       <c r="BB2" s="78"/>
@@ -26267,13 +27903,13 @@
       <c r="BE2" s="45"/>
       <c r="BF2" s="79"/>
       <c r="BG2" s="45"/>
-      <c r="BH2" s="106" t="s">
+      <c r="BH2" s="125" t="s">
         <v>599</v>
       </c>
-      <c r="BI2" s="107"/>
-      <c r="BJ2" s="107"/>
-      <c r="BK2" s="107"/>
-      <c r="BL2" s="108"/>
+      <c r="BI2" s="126"/>
+      <c r="BJ2" s="126"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="127"/>
     </row>
     <row r="3" spans="1:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -26290,59 +27926,59 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="125" t="s">
+      <c r="G3" s="121" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
       <c r="Q3" s="34"/>
-      <c r="R3" s="125" t="s">
+      <c r="R3" s="121" t="s">
         <v>213</v>
       </c>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121"/>
+      <c r="AA3" s="121"/>
       <c r="AB3" s="34"/>
-      <c r="AC3" s="127" t="s">
+      <c r="AC3" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="128"/>
-      <c r="AI3" s="128"/>
-      <c r="AJ3" s="128"/>
-      <c r="AK3" s="128"/>
-      <c r="AL3" s="128"/>
-      <c r="AM3" s="128"/>
-      <c r="AN3" s="129"/>
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="123"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="123"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="123"/>
+      <c r="AK3" s="123"/>
+      <c r="AL3" s="123"/>
+      <c r="AM3" s="123"/>
+      <c r="AN3" s="124"/>
       <c r="AO3" s="34"/>
-      <c r="AP3" s="125" t="s">
+      <c r="AP3" s="121" t="s">
         <v>225</v>
       </c>
-      <c r="AQ3" s="125"/>
-      <c r="AR3" s="125"/>
-      <c r="AS3" s="125"/>
-      <c r="AT3" s="125"/>
-      <c r="AU3" s="125"/>
-      <c r="AV3" s="125"/>
-      <c r="AW3" s="125"/>
-      <c r="AX3" s="125"/>
-      <c r="AY3" s="125"/>
+      <c r="AQ3" s="121"/>
+      <c r="AR3" s="121"/>
+      <c r="AS3" s="121"/>
+      <c r="AT3" s="121"/>
+      <c r="AU3" s="121"/>
+      <c r="AV3" s="121"/>
+      <c r="AW3" s="121"/>
+      <c r="AX3" s="121"/>
+      <c r="AY3" s="121"/>
       <c r="AZ3" s="44"/>
       <c r="BA3" s="80" t="s">
         <v>433</v>
@@ -26353,11 +27989,11 @@
       <c r="BE3" s="44"/>
       <c r="BF3" s="59"/>
       <c r="BG3" s="44"/>
-      <c r="BH3" s="109"/>
-      <c r="BI3" s="110"/>
-      <c r="BJ3" s="110"/>
-      <c r="BK3" s="110"/>
-      <c r="BL3" s="111"/>
+      <c r="BH3" s="128"/>
+      <c r="BI3" s="129"/>
+      <c r="BJ3" s="129"/>
+      <c r="BK3" s="129"/>
+      <c r="BL3" s="130"/>
     </row>
     <row r="4" spans="1:67" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
@@ -26687,13 +28323,13 @@
         <v>441</v>
       </c>
       <c r="BG5" s="33"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="114" t="s">
+      <c r="BH5" s="131"/>
+      <c r="BI5" s="133" t="s">
         <v>566</v>
       </c>
-      <c r="BJ5" s="115"/>
-      <c r="BK5" s="115"/>
-      <c r="BL5" s="116"/>
+      <c r="BJ5" s="134"/>
+      <c r="BK5" s="134"/>
+      <c r="BL5" s="135"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
@@ -26855,11 +28491,11 @@
       <c r="BE6" s="33"/>
       <c r="BF6" s="54"/>
       <c r="BG6" s="33"/>
-      <c r="BH6" s="113"/>
-      <c r="BI6" s="117"/>
-      <c r="BJ6" s="118"/>
-      <c r="BK6" s="118"/>
-      <c r="BL6" s="119"/>
+      <c r="BH6" s="132"/>
+      <c r="BI6" s="136"/>
+      <c r="BJ6" s="137"/>
+      <c r="BK6" s="137"/>
+      <c r="BL6" s="138"/>
       <c r="BN6" s="32" t="s">
         <v>576</v>
       </c>
@@ -27027,7 +28663,7 @@
         <v>31</v>
       </c>
       <c r="BG7" s="33"/>
-      <c r="BH7" s="120" t="s">
+      <c r="BH7" s="139" t="s">
         <v>567</v>
       </c>
       <c r="BI7" s="9"/>
@@ -27209,7 +28845,7 @@
         <v>442</v>
       </c>
       <c r="BG8" s="33"/>
-      <c r="BH8" s="121"/>
+      <c r="BH8" s="140"/>
       <c r="BI8" s="68" t="s">
         <v>7</v>
       </c>
@@ -27389,7 +29025,7 @@
       <c r="BE9" s="33"/>
       <c r="BF9" s="54"/>
       <c r="BG9" s="33"/>
-      <c r="BH9" s="121"/>
+      <c r="BH9" s="140"/>
       <c r="BI9" s="67" t="s">
         <v>10</v>
       </c>
@@ -27571,7 +29207,7 @@
         <v>439</v>
       </c>
       <c r="BG10" s="33"/>
-      <c r="BH10" s="122"/>
+      <c r="BH10" s="141"/>
       <c r="BI10" s="67" t="s">
         <v>11</v>
       </c>
@@ -27917,7 +29553,7 @@
       <c r="BE12" s="33"/>
       <c r="BF12" s="54"/>
       <c r="BG12" s="33"/>
-      <c r="BH12" s="141" t="s">
+      <c r="BH12" s="106" t="s">
         <v>7</v>
       </c>
       <c r="BI12" s="51" t="s">
@@ -28087,7 +29723,7 @@
         <v>51</v>
       </c>
       <c r="BG13" s="33"/>
-      <c r="BH13" s="141"/>
+      <c r="BH13" s="106"/>
       <c r="BI13" s="65">
         <v>2</v>
       </c>
@@ -28255,7 +29891,7 @@
         <v>443</v>
       </c>
       <c r="BG14" s="33"/>
-      <c r="BH14" s="141" t="s">
+      <c r="BH14" s="106" t="s">
         <v>10</v>
       </c>
       <c r="BI14" s="69" t="s">
@@ -28272,12 +29908,12 @@
       </c>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="35" t="s">
@@ -28425,7 +30061,7 @@
       <c r="BE15" s="33"/>
       <c r="BF15" s="54"/>
       <c r="BG15" s="33"/>
-      <c r="BH15" s="141"/>
+      <c r="BH15" s="106"/>
       <c r="BI15" s="65">
         <v>1</v>
       </c>
@@ -28440,10 +30076,10 @@
       </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A16" s="124"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="35" t="s">
@@ -28593,7 +30229,7 @@
         <v>440</v>
       </c>
       <c r="BG16" s="33"/>
-      <c r="BH16" s="141" t="s">
+      <c r="BH16" s="106" t="s">
         <v>11</v>
       </c>
       <c r="BI16" s="51" t="s">
@@ -28771,7 +30407,7 @@
         <v>444</v>
       </c>
       <c r="BG17" s="33"/>
-      <c r="BH17" s="141"/>
+      <c r="BH17" s="106"/>
       <c r="BI17" s="65">
         <v>1</v>
       </c>
@@ -30684,12 +32320,12 @@
       </c>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A29" s="123" t="s">
+      <c r="A29" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="35" t="s">
@@ -30852,10 +32488,10 @@
       </c>
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A30" s="124"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="35" t="s">
@@ -32998,12 +34634,12 @@
       <c r="BJ42" s="6"/>
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A43" s="126" t="s">
+      <c r="A43" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="126"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="35" t="s">
@@ -33158,10 +34794,10 @@
       <c r="BJ43" s="6"/>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A44" s="126"/>
-      <c r="B44" s="126"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
+      <c r="A44" s="107"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="35" t="s">
@@ -35126,12 +36762,12 @@
       <c r="BJ55" s="6"/>
     </row>
     <row r="56" spans="1:62" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="139" t="s">
+      <c r="A56" s="119" t="s">
         <v>411</v>
       </c>
-      <c r="B56" s="139"/>
-      <c r="C56" s="139"/>
-      <c r="D56" s="139"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="25"/>
       <c r="F56" s="6"/>
       <c r="G56" s="35" t="s">
@@ -35286,10 +36922,10 @@
       <c r="BJ56" s="6"/>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A57" s="139"/>
-      <c r="B57" s="139"/>
-      <c r="C57" s="139"/>
-      <c r="D57" s="139"/>
+      <c r="A57" s="119"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="25"/>
       <c r="F57" s="6"/>
       <c r="G57" s="35" t="s">
@@ -35444,12 +37080,12 @@
       <c r="BJ57" s="6"/>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A58" s="140" t="s">
+      <c r="A58" s="120" t="s">
         <v>379</v>
       </c>
-      <c r="B58" s="140"/>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="120"/>
       <c r="E58" s="25"/>
       <c r="F58" s="6"/>
       <c r="G58" s="35" t="s">
@@ -35910,12 +37546,12 @@
       <c r="BJ60" s="6"/>
     </row>
     <row r="61" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A61" s="126" t="s">
+      <c r="A61" s="107" t="s">
         <v>378</v>
       </c>
-      <c r="B61" s="126"/>
-      <c r="C61" s="126"/>
-      <c r="D61" s="126"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="107"/>
       <c r="E61" s="25"/>
       <c r="F61" s="6"/>
       <c r="G61" s="35" t="s">
@@ -36070,10 +37706,10 @@
       <c r="BJ61" s="6"/>
     </row>
     <row r="62" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A62" s="126"/>
-      <c r="B62" s="126"/>
-      <c r="C62" s="126"/>
-      <c r="D62" s="126"/>
+      <c r="A62" s="107"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="107"/>
       <c r="E62" s="25"/>
       <c r="F62" s="6"/>
       <c r="G62" s="35" t="s">
@@ -38196,12 +39832,12 @@
       <c r="BJ74" s="6"/>
     </row>
     <row r="75" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A75" s="126" t="s">
+      <c r="A75" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="126"/>
-      <c r="C75" s="126"/>
-      <c r="D75" s="126"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="107"/>
+      <c r="D75" s="107"/>
       <c r="E75" s="25"/>
       <c r="F75" s="6"/>
       <c r="G75" s="35" t="s">
@@ -38354,10 +39990,10 @@
       <c r="BJ75" s="6"/>
     </row>
     <row r="76" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A76" s="126"/>
-      <c r="B76" s="126"/>
-      <c r="C76" s="126"/>
-      <c r="D76" s="126"/>
+      <c r="A76" s="107"/>
+      <c r="B76" s="107"/>
+      <c r="C76" s="107"/>
+      <c r="D76" s="107"/>
       <c r="E76" s="25"/>
       <c r="F76" s="6"/>
       <c r="G76" s="35" t="s">
@@ -40631,11 +42267,11 @@
     </row>
     <row r="90" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
-      <c r="B90" s="130" t="s">
+      <c r="B90" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="131"/>
-      <c r="D90" s="136" t="s">
+      <c r="C90" s="109"/>
+      <c r="D90" s="114" t="s">
         <v>397</v>
       </c>
       <c r="G90" s="42" t="s">
@@ -40785,9 +42421,9 @@
     </row>
     <row r="91" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
-      <c r="B91" s="132"/>
-      <c r="C91" s="133"/>
-      <c r="D91" s="137"/>
+      <c r="B91" s="110"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="115"/>
       <c r="G91" s="42" t="s">
         <v>282</v>
       </c>
@@ -40933,9 +42569,9 @@
     </row>
     <row r="92" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
-      <c r="B92" s="132"/>
-      <c r="C92" s="133"/>
-      <c r="D92" s="137"/>
+      <c r="B92" s="110"/>
+      <c r="C92" s="111"/>
+      <c r="D92" s="115"/>
       <c r="G92" s="42" t="s">
         <v>175</v>
       </c>
@@ -41082,9 +42718,9 @@
       </c>
     </row>
     <row r="93" spans="1:62" ht="17" x14ac:dyDescent="0.2">
-      <c r="B93" s="132"/>
-      <c r="C93" s="133"/>
-      <c r="D93" s="137"/>
+      <c r="B93" s="110"/>
+      <c r="C93" s="111"/>
+      <c r="D93" s="115"/>
       <c r="G93" s="42" t="s">
         <v>283</v>
       </c>
@@ -41231,9 +42867,9 @@
       </c>
     </row>
     <row r="94" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B94" s="132"/>
-      <c r="C94" s="133"/>
-      <c r="D94" s="137"/>
+      <c r="B94" s="110"/>
+      <c r="C94" s="111"/>
+      <c r="D94" s="115"/>
       <c r="G94" s="42" t="s">
         <v>176</v>
       </c>
@@ -41380,9 +43016,9 @@
       </c>
     </row>
     <row r="95" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B95" s="132"/>
-      <c r="C95" s="133"/>
-      <c r="D95" s="137"/>
+      <c r="B95" s="110"/>
+      <c r="C95" s="111"/>
+      <c r="D95" s="115"/>
       <c r="G95" s="42" t="s">
         <v>177</v>
       </c>
@@ -41527,9 +43163,9 @@
       <c r="BF95" s="54"/>
     </row>
     <row r="96" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B96" s="134"/>
-      <c r="C96" s="135"/>
-      <c r="D96" s="138"/>
+      <c r="B96" s="112"/>
+      <c r="C96" s="113"/>
+      <c r="D96" s="116"/>
       <c r="G96" s="42" t="s">
         <v>178</v>
       </c>
@@ -44980,6 +46616,30 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="BF1:BF2"/>
+    <mergeCell ref="BA1:BD2"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="BI29:BL29"/>
+    <mergeCell ref="BI30:BL30"/>
+    <mergeCell ref="BH2:BL3"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BL6"/>
+    <mergeCell ref="BH7:BH10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="G1:AY2"/>
+    <mergeCell ref="AP3:AY3"/>
+    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="R3:AA3"/>
+    <mergeCell ref="AC3:AN3"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="B90:C96"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="A58:D58"/>
     <mergeCell ref="BI31:BL31"/>
     <mergeCell ref="BH12:BH13"/>
     <mergeCell ref="BH14:BH15"/>
@@ -44994,30 +46654,6 @@
     <mergeCell ref="BI23:BL23"/>
     <mergeCell ref="BI24:BL24"/>
     <mergeCell ref="BI25:BL25"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="B90:C96"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="A56:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G3:P3"/>
-    <mergeCell ref="G1:AY2"/>
-    <mergeCell ref="AP3:AY3"/>
-    <mergeCell ref="A15:D16"/>
-    <mergeCell ref="R3:AA3"/>
-    <mergeCell ref="AC3:AN3"/>
-    <mergeCell ref="BF1:BF2"/>
-    <mergeCell ref="BA1:BD2"/>
-    <mergeCell ref="BA3:BD3"/>
-    <mergeCell ref="BI29:BL29"/>
-    <mergeCell ref="BI30:BL30"/>
-    <mergeCell ref="BH2:BL3"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BL6"/>
-    <mergeCell ref="BH7:BH10"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code/skripsi.xlsx
+++ b/Code/skripsi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radityarin/Documents/Kuliah/Skripsi/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970DF449-E379-9A4B-BF72-77D08A0C0A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AA94CD-D701-4746-8876-5C804AA52055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32000" windowHeight="17540" activeTab="1" xr2:uid="{3413B29C-560F-AE4D-9915-B4DC0247194E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" activeTab="2" xr2:uid="{3413B29C-560F-AE4D-9915-B4DC0247194E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Utama Pilihan" sheetId="2" r:id="rId1"/>
@@ -5008,6 +5008,7 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5044,18 +5045,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5077,6 +5066,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5089,65 +5081,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5200,7 +5144,63 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -8773,7 +8773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9C813F-6AA6-4244-8545-D90AD892FCF7}">
   <dimension ref="A1:AI37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="131" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="131" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -8973,1632 +8973,1633 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BB73E9-FE86-F745-AFC1-C4A855B70330}">
   <dimension ref="C6:K152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:K152"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E124" sqref="B6:E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="142"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="142"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="142"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="142"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="142"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="142"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="142"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="142"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="142"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="142"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="142"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="142"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="142"/>
-      <c r="J36" s="142"/>
-      <c r="K36" s="142"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C37" s="142"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="142"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="142"/>
-      <c r="J37" s="142"/>
-      <c r="K37" s="142"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C38" s="142"/>
-      <c r="D38" s="142"/>
-      <c r="E38" s="142"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="142"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="142"/>
-      <c r="K38" s="142"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C39" s="142"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="142"/>
-      <c r="K39" s="142"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C40" s="142"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="142"/>
-      <c r="K40" s="142"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C41" s="142"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="142"/>
-      <c r="K41" s="142"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C42" s="142"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="142"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="142"/>
-      <c r="I42" s="142"/>
-      <c r="J42" s="142"/>
-      <c r="K42" s="142"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C43" s="142"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="142"/>
-      <c r="I44" s="142"/>
-      <c r="J44" s="142"/>
-      <c r="K44" s="142"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C45" s="142"/>
-      <c r="D45" s="142"/>
-      <c r="E45" s="142"/>
-      <c r="F45" s="142"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="142"/>
-      <c r="I45" s="142"/>
-      <c r="J45" s="142"/>
-      <c r="K45" s="142"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="78"/>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="142"/>
-      <c r="K46" s="142"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="78"/>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="142"/>
-      <c r="K47" s="142"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C48" s="142"/>
-      <c r="D48" s="142"/>
-      <c r="E48" s="142"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="142"/>
-      <c r="J48" s="142"/>
-      <c r="K48" s="142"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="142"/>
-      <c r="H49" s="142"/>
-      <c r="I49" s="142"/>
-      <c r="J49" s="142"/>
-      <c r="K49" s="142"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="78"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C50" s="142"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="142"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="142"/>
-      <c r="H50" s="142"/>
-      <c r="I50" s="142"/>
-      <c r="J50" s="142"/>
-      <c r="K50" s="142"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C51" s="142"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="142"/>
-      <c r="I51" s="142"/>
-      <c r="J51" s="142"/>
-      <c r="K51" s="142"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="142"/>
-      <c r="K52" s="142"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C53" s="142"/>
-      <c r="D53" s="142"/>
-      <c r="E53" s="142"/>
-      <c r="F53" s="142"/>
-      <c r="G53" s="142"/>
-      <c r="H53" s="142"/>
-      <c r="I53" s="142"/>
-      <c r="J53" s="142"/>
-      <c r="K53" s="142"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C54" s="142"/>
-      <c r="D54" s="142"/>
-      <c r="E54" s="142"/>
-      <c r="F54" s="142"/>
-      <c r="G54" s="142"/>
-      <c r="H54" s="142"/>
-      <c r="I54" s="142"/>
-      <c r="J54" s="142"/>
-      <c r="K54" s="142"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C55" s="142"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="142"/>
-      <c r="F55" s="142"/>
-      <c r="G55" s="142"/>
-      <c r="H55" s="142"/>
-      <c r="I55" s="142"/>
-      <c r="J55" s="142"/>
-      <c r="K55" s="142"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="78"/>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C56" s="142"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="142"/>
-      <c r="I56" s="142"/>
-      <c r="J56" s="142"/>
-      <c r="K56" s="142"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="78"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="78"/>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C57" s="142"/>
-      <c r="D57" s="142"/>
-      <c r="E57" s="142"/>
-      <c r="F57" s="142"/>
-      <c r="G57" s="142"/>
-      <c r="H57" s="142"/>
-      <c r="I57" s="142"/>
-      <c r="J57" s="142"/>
-      <c r="K57" s="142"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C58" s="142"/>
-      <c r="D58" s="142"/>
-      <c r="E58" s="142"/>
-      <c r="F58" s="142"/>
-      <c r="G58" s="142"/>
-      <c r="H58" s="142"/>
-      <c r="I58" s="142"/>
-      <c r="J58" s="142"/>
-      <c r="K58" s="142"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
+      <c r="K58" s="78"/>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C59" s="142"/>
-      <c r="D59" s="142"/>
-      <c r="E59" s="142"/>
-      <c r="F59" s="142"/>
-      <c r="G59" s="142"/>
-      <c r="H59" s="142"/>
-      <c r="I59" s="142"/>
-      <c r="J59" s="142"/>
-      <c r="K59" s="142"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="78"/>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C60" s="142"/>
-      <c r="D60" s="142"/>
-      <c r="E60" s="142"/>
-      <c r="F60" s="142"/>
-      <c r="G60" s="142"/>
-      <c r="H60" s="142"/>
-      <c r="I60" s="142"/>
-      <c r="J60" s="142"/>
-      <c r="K60" s="142"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78"/>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C61" s="142"/>
-      <c r="D61" s="142"/>
-      <c r="E61" s="142"/>
-      <c r="F61" s="142"/>
-      <c r="G61" s="142"/>
-      <c r="H61" s="142"/>
-      <c r="I61" s="142"/>
-      <c r="J61" s="142"/>
-      <c r="K61" s="142"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="78"/>
+      <c r="K61" s="78"/>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C62" s="142"/>
-      <c r="D62" s="142"/>
-      <c r="E62" s="142"/>
-      <c r="F62" s="142"/>
-      <c r="G62" s="142"/>
-      <c r="H62" s="142"/>
-      <c r="I62" s="142"/>
-      <c r="J62" s="142"/>
-      <c r="K62" s="142"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="78"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C63" s="142"/>
-      <c r="D63" s="142"/>
-      <c r="E63" s="142"/>
-      <c r="F63" s="142"/>
-      <c r="G63" s="142"/>
-      <c r="H63" s="142"/>
-      <c r="I63" s="142"/>
-      <c r="J63" s="142"/>
-      <c r="K63" s="142"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="78"/>
+      <c r="I63" s="78"/>
+      <c r="J63" s="78"/>
+      <c r="K63" s="78"/>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C64" s="142"/>
-      <c r="D64" s="142"/>
-      <c r="E64" s="142"/>
-      <c r="F64" s="142"/>
-      <c r="G64" s="142"/>
-      <c r="H64" s="142"/>
-      <c r="I64" s="142"/>
-      <c r="J64" s="142"/>
-      <c r="K64" s="142"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="78"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="78"/>
+      <c r="K64" s="78"/>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C65" s="142"/>
-      <c r="D65" s="142"/>
-      <c r="E65" s="142"/>
-      <c r="F65" s="142"/>
-      <c r="G65" s="142"/>
-      <c r="H65" s="142"/>
-      <c r="I65" s="142"/>
-      <c r="J65" s="142"/>
-      <c r="K65" s="142"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="78"/>
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C66" s="142"/>
-      <c r="D66" s="142"/>
-      <c r="E66" s="142"/>
-      <c r="F66" s="142"/>
-      <c r="G66" s="142"/>
-      <c r="H66" s="142"/>
-      <c r="I66" s="142"/>
-      <c r="J66" s="142"/>
-      <c r="K66" s="142"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C67" s="142"/>
-      <c r="D67" s="142"/>
-      <c r="E67" s="142"/>
-      <c r="F67" s="142"/>
-      <c r="G67" s="142"/>
-      <c r="H67" s="142"/>
-      <c r="I67" s="142"/>
-      <c r="J67" s="142"/>
-      <c r="K67" s="142"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
     </row>
     <row r="68" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C68" s="142"/>
-      <c r="D68" s="142"/>
-      <c r="E68" s="142"/>
-      <c r="F68" s="142"/>
-      <c r="G68" s="142"/>
-      <c r="H68" s="142"/>
-      <c r="I68" s="142"/>
-      <c r="J68" s="142"/>
-      <c r="K68" s="142"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="78"/>
     </row>
     <row r="69" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C69" s="142"/>
-      <c r="D69" s="142"/>
-      <c r="E69" s="142"/>
-      <c r="F69" s="142"/>
-      <c r="G69" s="142"/>
-      <c r="H69" s="142"/>
-      <c r="I69" s="142"/>
-      <c r="J69" s="142"/>
-      <c r="K69" s="142"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="78"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
     </row>
     <row r="70" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C70" s="142"/>
-      <c r="D70" s="142"/>
-      <c r="E70" s="142"/>
-      <c r="F70" s="142"/>
-      <c r="G70" s="142"/>
-      <c r="H70" s="142"/>
-      <c r="I70" s="142"/>
-      <c r="J70" s="142"/>
-      <c r="K70" s="142"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="78"/>
+      <c r="H70" s="78"/>
+      <c r="I70" s="78"/>
+      <c r="J70" s="78"/>
+      <c r="K70" s="78"/>
     </row>
     <row r="71" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C71" s="142"/>
-      <c r="D71" s="142"/>
-      <c r="E71" s="142"/>
-      <c r="F71" s="142"/>
-      <c r="G71" s="142"/>
-      <c r="H71" s="142"/>
-      <c r="I71" s="142"/>
-      <c r="J71" s="142"/>
-      <c r="K71" s="142"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="78"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="78"/>
+      <c r="H71" s="78"/>
+      <c r="I71" s="78"/>
+      <c r="J71" s="78"/>
+      <c r="K71" s="78"/>
     </row>
     <row r="72" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C72" s="142"/>
-      <c r="D72" s="142"/>
-      <c r="E72" s="142"/>
-      <c r="F72" s="142"/>
-      <c r="G72" s="142"/>
-      <c r="H72" s="142"/>
-      <c r="I72" s="142"/>
-      <c r="J72" s="142"/>
-      <c r="K72" s="142"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="78"/>
+      <c r="H72" s="78"/>
+      <c r="I72" s="78"/>
+      <c r="J72" s="78"/>
+      <c r="K72" s="78"/>
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C73" s="142"/>
-      <c r="D73" s="142"/>
-      <c r="E73" s="142"/>
-      <c r="F73" s="142"/>
-      <c r="G73" s="142"/>
-      <c r="H73" s="142"/>
-      <c r="I73" s="142"/>
-      <c r="J73" s="142"/>
-      <c r="K73" s="142"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="78"/>
+      <c r="H73" s="78"/>
+      <c r="I73" s="78"/>
+      <c r="J73" s="78"/>
+      <c r="K73" s="78"/>
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C74" s="142"/>
-      <c r="D74" s="142"/>
-      <c r="E74" s="142"/>
-      <c r="F74" s="142"/>
-      <c r="G74" s="142"/>
-      <c r="H74" s="142"/>
-      <c r="I74" s="142"/>
-      <c r="J74" s="142"/>
-      <c r="K74" s="142"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="78"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="78"/>
+      <c r="H74" s="78"/>
+      <c r="I74" s="78"/>
+      <c r="J74" s="78"/>
+      <c r="K74" s="78"/>
     </row>
     <row r="75" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C75" s="142"/>
-      <c r="D75" s="142"/>
-      <c r="E75" s="142"/>
-      <c r="F75" s="142"/>
-      <c r="G75" s="142"/>
-      <c r="H75" s="142"/>
-      <c r="I75" s="142"/>
-      <c r="J75" s="142"/>
-      <c r="K75" s="142"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="78"/>
+      <c r="H75" s="78"/>
+      <c r="I75" s="78"/>
+      <c r="J75" s="78"/>
+      <c r="K75" s="78"/>
     </row>
     <row r="76" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C76" s="142"/>
-      <c r="D76" s="142"/>
-      <c r="E76" s="142"/>
-      <c r="F76" s="142"/>
-      <c r="G76" s="142"/>
-      <c r="H76" s="142"/>
-      <c r="I76" s="142"/>
-      <c r="J76" s="142"/>
-      <c r="K76" s="142"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="78"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="78"/>
+      <c r="H76" s="78"/>
+      <c r="I76" s="78"/>
+      <c r="J76" s="78"/>
+      <c r="K76" s="78"/>
     </row>
     <row r="77" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C77" s="142"/>
-      <c r="D77" s="142"/>
-      <c r="E77" s="142"/>
-      <c r="F77" s="142"/>
-      <c r="G77" s="142"/>
-      <c r="H77" s="142"/>
-      <c r="I77" s="142"/>
-      <c r="J77" s="142"/>
-      <c r="K77" s="142"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="78"/>
+      <c r="F77" s="78"/>
+      <c r="G77" s="78"/>
+      <c r="H77" s="78"/>
+      <c r="I77" s="78"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="78"/>
     </row>
     <row r="78" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C78" s="142"/>
-      <c r="D78" s="142"/>
-      <c r="E78" s="142"/>
-      <c r="F78" s="142"/>
-      <c r="G78" s="142"/>
-      <c r="H78" s="142"/>
-      <c r="I78" s="142"/>
-      <c r="J78" s="142"/>
-      <c r="K78" s="142"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="78"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="78"/>
+      <c r="H78" s="78"/>
+      <c r="I78" s="78"/>
+      <c r="J78" s="78"/>
+      <c r="K78" s="78"/>
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C79" s="142"/>
-      <c r="D79" s="142"/>
-      <c r="E79" s="142"/>
-      <c r="F79" s="142"/>
-      <c r="G79" s="142"/>
-      <c r="H79" s="142"/>
-      <c r="I79" s="142"/>
-      <c r="J79" s="142"/>
-      <c r="K79" s="142"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="78"/>
+      <c r="F79" s="78"/>
+      <c r="G79" s="78"/>
+      <c r="H79" s="78"/>
+      <c r="I79" s="78"/>
+      <c r="J79" s="78"/>
+      <c r="K79" s="78"/>
     </row>
     <row r="80" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C80" s="142"/>
-      <c r="D80" s="142"/>
-      <c r="E80" s="142"/>
-      <c r="F80" s="142"/>
-      <c r="G80" s="142"/>
-      <c r="H80" s="142"/>
-      <c r="I80" s="142"/>
-      <c r="J80" s="142"/>
-      <c r="K80" s="142"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="78"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="78"/>
+      <c r="H80" s="78"/>
+      <c r="I80" s="78"/>
+      <c r="J80" s="78"/>
+      <c r="K80" s="78"/>
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C81" s="142"/>
-      <c r="D81" s="142"/>
-      <c r="E81" s="142"/>
-      <c r="F81" s="142"/>
-      <c r="G81" s="142"/>
-      <c r="H81" s="142"/>
-      <c r="I81" s="142"/>
-      <c r="J81" s="142"/>
-      <c r="K81" s="142"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="78"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="78"/>
+      <c r="H81" s="78"/>
+      <c r="I81" s="78"/>
+      <c r="J81" s="78"/>
+      <c r="K81" s="78"/>
     </row>
     <row r="82" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C82" s="142"/>
-      <c r="D82" s="142"/>
-      <c r="E82" s="142"/>
-      <c r="F82" s="142"/>
-      <c r="G82" s="142"/>
-      <c r="H82" s="142"/>
-      <c r="I82" s="142"/>
-      <c r="J82" s="142"/>
-      <c r="K82" s="142"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="78"/>
+      <c r="H82" s="78"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="78"/>
+      <c r="K82" s="78"/>
     </row>
     <row r="83" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C83" s="142"/>
-      <c r="D83" s="142"/>
-      <c r="E83" s="142"/>
-      <c r="F83" s="142"/>
-      <c r="G83" s="142"/>
-      <c r="H83" s="142"/>
-      <c r="I83" s="142"/>
-      <c r="J83" s="142"/>
-      <c r="K83" s="142"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="78"/>
+      <c r="I83" s="78"/>
+      <c r="J83" s="78"/>
+      <c r="K83" s="78"/>
     </row>
     <row r="84" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C84" s="142"/>
-      <c r="D84" s="142"/>
-      <c r="E84" s="142"/>
-      <c r="F84" s="142"/>
-      <c r="G84" s="142"/>
-      <c r="H84" s="142"/>
-      <c r="I84" s="142"/>
-      <c r="J84" s="142"/>
-      <c r="K84" s="142"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="78"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="78"/>
+      <c r="H84" s="78"/>
+      <c r="I84" s="78"/>
+      <c r="J84" s="78"/>
+      <c r="K84" s="78"/>
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C85" s="142"/>
-      <c r="D85" s="142"/>
-      <c r="E85" s="142"/>
-      <c r="F85" s="142"/>
-      <c r="G85" s="142"/>
-      <c r="H85" s="142"/>
-      <c r="I85" s="142"/>
-      <c r="J85" s="142"/>
-      <c r="K85" s="142"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="78"/>
+      <c r="I85" s="78"/>
+      <c r="J85" s="78"/>
+      <c r="K85" s="78"/>
     </row>
     <row r="86" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C86" s="142"/>
-      <c r="D86" s="142"/>
-      <c r="E86" s="142"/>
-      <c r="F86" s="142"/>
-      <c r="G86" s="142"/>
-      <c r="H86" s="142"/>
-      <c r="I86" s="142"/>
-      <c r="J86" s="142"/>
-      <c r="K86" s="142"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="78"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="78"/>
+      <c r="H86" s="78"/>
+      <c r="I86" s="78"/>
+      <c r="J86" s="78"/>
+      <c r="K86" s="78"/>
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C87" s="142"/>
-      <c r="D87" s="142"/>
-      <c r="E87" s="142"/>
-      <c r="F87" s="142"/>
-      <c r="G87" s="142"/>
-      <c r="H87" s="142"/>
-      <c r="I87" s="142"/>
-      <c r="J87" s="142"/>
-      <c r="K87" s="142"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="78"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="78"/>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78"/>
+      <c r="K87" s="78"/>
     </row>
     <row r="88" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C88" s="142"/>
-      <c r="D88" s="142"/>
-      <c r="E88" s="142"/>
-      <c r="F88" s="142"/>
-      <c r="G88" s="142"/>
-      <c r="H88" s="142"/>
-      <c r="I88" s="142"/>
-      <c r="J88" s="142"/>
-      <c r="K88" s="142"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="78"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="78"/>
+      <c r="H88" s="78"/>
+      <c r="I88" s="78"/>
+      <c r="J88" s="78"/>
+      <c r="K88" s="78"/>
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C89" s="142"/>
-      <c r="D89" s="142"/>
-      <c r="E89" s="142"/>
-      <c r="F89" s="142"/>
-      <c r="G89" s="142"/>
-      <c r="H89" s="142"/>
-      <c r="I89" s="142"/>
-      <c r="J89" s="142"/>
-      <c r="K89" s="142"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
+      <c r="F89" s="78"/>
+      <c r="G89" s="78"/>
+      <c r="H89" s="78"/>
+      <c r="I89" s="78"/>
+      <c r="J89" s="78"/>
+      <c r="K89" s="78"/>
     </row>
     <row r="90" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C90" s="142"/>
-      <c r="D90" s="142"/>
-      <c r="E90" s="142"/>
-      <c r="F90" s="142"/>
-      <c r="G90" s="142"/>
-      <c r="H90" s="142"/>
-      <c r="I90" s="142"/>
-      <c r="J90" s="142"/>
-      <c r="K90" s="142"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="78"/>
+      <c r="E90" s="78"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="78"/>
+      <c r="H90" s="78"/>
+      <c r="I90" s="78"/>
+      <c r="J90" s="78"/>
+      <c r="K90" s="78"/>
     </row>
     <row r="91" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C91" s="142"/>
-      <c r="D91" s="142"/>
-      <c r="E91" s="142"/>
-      <c r="F91" s="142"/>
-      <c r="G91" s="142"/>
-      <c r="H91" s="142"/>
-      <c r="I91" s="142"/>
-      <c r="J91" s="142"/>
-      <c r="K91" s="142"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="78"/>
+      <c r="E91" s="78"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="78"/>
+      <c r="H91" s="78"/>
+      <c r="I91" s="78"/>
+      <c r="J91" s="78"/>
+      <c r="K91" s="78"/>
     </row>
     <row r="92" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C92" s="142"/>
-      <c r="D92" s="142"/>
-      <c r="E92" s="142"/>
-      <c r="F92" s="142"/>
-      <c r="G92" s="142"/>
-      <c r="H92" s="142"/>
-      <c r="I92" s="142"/>
-      <c r="J92" s="142"/>
-      <c r="K92" s="142"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="78"/>
+      <c r="E92" s="78"/>
+      <c r="F92" s="78"/>
+      <c r="G92" s="78"/>
+      <c r="H92" s="78"/>
+      <c r="I92" s="78"/>
+      <c r="J92" s="78"/>
+      <c r="K92" s="78"/>
     </row>
     <row r="93" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C93" s="142"/>
-      <c r="D93" s="142"/>
-      <c r="E93" s="142"/>
-      <c r="F93" s="142"/>
-      <c r="G93" s="142"/>
-      <c r="H93" s="142"/>
-      <c r="I93" s="142"/>
-      <c r="J93" s="142"/>
-      <c r="K93" s="142"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="78"/>
+      <c r="E93" s="78"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="78"/>
+      <c r="H93" s="78"/>
+      <c r="I93" s="78"/>
+      <c r="J93" s="78"/>
+      <c r="K93" s="78"/>
     </row>
     <row r="94" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C94" s="142"/>
-      <c r="D94" s="142"/>
-      <c r="E94" s="142"/>
-      <c r="F94" s="142"/>
-      <c r="G94" s="142"/>
-      <c r="H94" s="142"/>
-      <c r="I94" s="142"/>
-      <c r="J94" s="142"/>
-      <c r="K94" s="142"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="78"/>
+      <c r="E94" s="78"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="78"/>
+      <c r="H94" s="78"/>
+      <c r="I94" s="78"/>
+      <c r="J94" s="78"/>
+      <c r="K94" s="78"/>
     </row>
     <row r="95" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C95" s="142"/>
-      <c r="D95" s="142"/>
-      <c r="E95" s="142"/>
-      <c r="F95" s="142"/>
-      <c r="G95" s="142"/>
-      <c r="H95" s="142"/>
-      <c r="I95" s="142"/>
-      <c r="J95" s="142"/>
-      <c r="K95" s="142"/>
+      <c r="C95" s="78"/>
+      <c r="D95" s="78"/>
+      <c r="E95" s="78"/>
+      <c r="F95" s="78"/>
+      <c r="G95" s="78"/>
+      <c r="H95" s="78"/>
+      <c r="I95" s="78"/>
+      <c r="J95" s="78"/>
+      <c r="K95" s="78"/>
     </row>
     <row r="96" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C96" s="142"/>
-      <c r="D96" s="142"/>
-      <c r="E96" s="142"/>
-      <c r="F96" s="142"/>
-      <c r="G96" s="142"/>
-      <c r="H96" s="142"/>
-      <c r="I96" s="142"/>
-      <c r="J96" s="142"/>
-      <c r="K96" s="142"/>
+      <c r="C96" s="78"/>
+      <c r="D96" s="78"/>
+      <c r="E96" s="78"/>
+      <c r="F96" s="78"/>
+      <c r="G96" s="78"/>
+      <c r="H96" s="78"/>
+      <c r="I96" s="78"/>
+      <c r="J96" s="78"/>
+      <c r="K96" s="78"/>
     </row>
     <row r="97" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C97" s="142"/>
-      <c r="D97" s="142"/>
-      <c r="E97" s="142"/>
-      <c r="F97" s="142"/>
-      <c r="G97" s="142"/>
-      <c r="H97" s="142"/>
-      <c r="I97" s="142"/>
-      <c r="J97" s="142"/>
-      <c r="K97" s="142"/>
+      <c r="C97" s="78"/>
+      <c r="D97" s="78"/>
+      <c r="E97" s="78"/>
+      <c r="F97" s="78"/>
+      <c r="G97" s="78"/>
+      <c r="H97" s="78"/>
+      <c r="I97" s="78"/>
+      <c r="J97" s="78"/>
+      <c r="K97" s="78"/>
     </row>
     <row r="98" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C98" s="142"/>
-      <c r="D98" s="142"/>
-      <c r="E98" s="142"/>
-      <c r="F98" s="142"/>
-      <c r="G98" s="142"/>
-      <c r="H98" s="142"/>
-      <c r="I98" s="142"/>
-      <c r="J98" s="142"/>
-      <c r="K98" s="142"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="78"/>
+      <c r="E98" s="78"/>
+      <c r="F98" s="78"/>
+      <c r="G98" s="78"/>
+      <c r="H98" s="78"/>
+      <c r="I98" s="78"/>
+      <c r="J98" s="78"/>
+      <c r="K98" s="78"/>
     </row>
     <row r="99" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C99" s="142"/>
-      <c r="D99" s="142"/>
-      <c r="E99" s="142"/>
-      <c r="F99" s="142"/>
-      <c r="G99" s="142"/>
-      <c r="H99" s="142"/>
-      <c r="I99" s="142"/>
-      <c r="J99" s="142"/>
-      <c r="K99" s="142"/>
+      <c r="C99" s="78"/>
+      <c r="D99" s="78"/>
+      <c r="E99" s="78"/>
+      <c r="F99" s="78"/>
+      <c r="G99" s="78"/>
+      <c r="H99" s="78"/>
+      <c r="I99" s="78"/>
+      <c r="J99" s="78"/>
+      <c r="K99" s="78"/>
     </row>
     <row r="100" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C100" s="142"/>
-      <c r="D100" s="142"/>
-      <c r="E100" s="142"/>
-      <c r="F100" s="142"/>
-      <c r="G100" s="142"/>
-      <c r="H100" s="142"/>
-      <c r="I100" s="142"/>
-      <c r="J100" s="142"/>
-      <c r="K100" s="142"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="78"/>
+      <c r="F100" s="78"/>
+      <c r="G100" s="78"/>
+      <c r="H100" s="78"/>
+      <c r="I100" s="78"/>
+      <c r="J100" s="78"/>
+      <c r="K100" s="78"/>
     </row>
     <row r="101" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C101" s="142"/>
-      <c r="D101" s="142"/>
-      <c r="E101" s="142"/>
-      <c r="F101" s="142"/>
-      <c r="G101" s="142"/>
-      <c r="H101" s="142"/>
-      <c r="I101" s="142"/>
-      <c r="J101" s="142"/>
-      <c r="K101" s="142"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="78"/>
+      <c r="H101" s="78"/>
+      <c r="I101" s="78"/>
+      <c r="J101" s="78"/>
+      <c r="K101" s="78"/>
     </row>
     <row r="102" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C102" s="142"/>
-      <c r="D102" s="142"/>
-      <c r="E102" s="142"/>
-      <c r="F102" s="142"/>
-      <c r="G102" s="142"/>
-      <c r="H102" s="142"/>
-      <c r="I102" s="142"/>
-      <c r="J102" s="142"/>
-      <c r="K102" s="142"/>
+      <c r="C102" s="78"/>
+      <c r="D102" s="78"/>
+      <c r="E102" s="78"/>
+      <c r="F102" s="78"/>
+      <c r="G102" s="78"/>
+      <c r="H102" s="78"/>
+      <c r="I102" s="78"/>
+      <c r="J102" s="78"/>
+      <c r="K102" s="78"/>
     </row>
     <row r="103" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C103" s="142"/>
-      <c r="D103" s="142"/>
-      <c r="E103" s="142"/>
-      <c r="F103" s="142"/>
-      <c r="G103" s="142"/>
-      <c r="H103" s="142"/>
-      <c r="I103" s="142"/>
-      <c r="J103" s="142"/>
-      <c r="K103" s="142"/>
+      <c r="C103" s="78"/>
+      <c r="D103" s="78"/>
+      <c r="E103" s="78"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="78"/>
+      <c r="H103" s="78"/>
+      <c r="I103" s="78"/>
+      <c r="J103" s="78"/>
+      <c r="K103" s="78"/>
     </row>
     <row r="104" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C104" s="142"/>
-      <c r="D104" s="142"/>
-      <c r="E104" s="142"/>
-      <c r="F104" s="142"/>
-      <c r="G104" s="142"/>
-      <c r="H104" s="142"/>
-      <c r="I104" s="142"/>
-      <c r="J104" s="142"/>
-      <c r="K104" s="142"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="78"/>
+      <c r="E104" s="78"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="78"/>
+      <c r="H104" s="78"/>
+      <c r="I104" s="78"/>
+      <c r="J104" s="78"/>
+      <c r="K104" s="78"/>
     </row>
     <row r="105" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C105" s="142"/>
-      <c r="D105" s="142"/>
-      <c r="E105" s="142"/>
-      <c r="F105" s="142"/>
-      <c r="G105" s="142"/>
-      <c r="H105" s="142"/>
-      <c r="I105" s="142"/>
-      <c r="J105" s="142"/>
-      <c r="K105" s="142"/>
+      <c r="C105" s="78"/>
+      <c r="D105" s="78"/>
+      <c r="E105" s="78"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="78"/>
+      <c r="H105" s="78"/>
+      <c r="I105" s="78"/>
+      <c r="J105" s="78"/>
+      <c r="K105" s="78"/>
     </row>
     <row r="106" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C106" s="142"/>
-      <c r="D106" s="142"/>
-      <c r="E106" s="142"/>
-      <c r="F106" s="142"/>
-      <c r="G106" s="142"/>
-      <c r="H106" s="142"/>
-      <c r="I106" s="142"/>
-      <c r="J106" s="142"/>
-      <c r="K106" s="142"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="78"/>
+      <c r="E106" s="78"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="78"/>
+      <c r="H106" s="78"/>
+      <c r="I106" s="78"/>
+      <c r="J106" s="78"/>
+      <c r="K106" s="78"/>
     </row>
     <row r="107" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C107" s="142"/>
-      <c r="D107" s="142"/>
-      <c r="E107" s="142"/>
-      <c r="F107" s="142"/>
-      <c r="G107" s="142"/>
-      <c r="H107" s="142"/>
-      <c r="I107" s="142"/>
-      <c r="J107" s="142"/>
-      <c r="K107" s="142"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="78"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="78"/>
+      <c r="H107" s="78"/>
+      <c r="I107" s="78"/>
+      <c r="J107" s="78"/>
+      <c r="K107" s="78"/>
     </row>
     <row r="108" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C108" s="142"/>
-      <c r="D108" s="142"/>
-      <c r="E108" s="142"/>
-      <c r="F108" s="142"/>
-      <c r="G108" s="142"/>
-      <c r="H108" s="142"/>
-      <c r="I108" s="142"/>
-      <c r="J108" s="142"/>
-      <c r="K108" s="142"/>
+      <c r="C108" s="78"/>
+      <c r="D108" s="78"/>
+      <c r="E108" s="78"/>
+      <c r="F108" s="78"/>
+      <c r="G108" s="78"/>
+      <c r="H108" s="78"/>
+      <c r="I108" s="78"/>
+      <c r="J108" s="78"/>
+      <c r="K108" s="78"/>
     </row>
     <row r="109" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C109" s="142"/>
-      <c r="D109" s="142"/>
-      <c r="E109" s="142"/>
-      <c r="F109" s="142"/>
-      <c r="G109" s="142"/>
-      <c r="H109" s="142"/>
-      <c r="I109" s="142"/>
-      <c r="J109" s="142"/>
-      <c r="K109" s="142"/>
+      <c r="C109" s="78"/>
+      <c r="D109" s="78"/>
+      <c r="E109" s="78"/>
+      <c r="F109" s="78"/>
+      <c r="G109" s="78"/>
+      <c r="H109" s="78"/>
+      <c r="I109" s="78"/>
+      <c r="J109" s="78"/>
+      <c r="K109" s="78"/>
     </row>
     <row r="110" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C110" s="142"/>
-      <c r="D110" s="142"/>
-      <c r="E110" s="142"/>
-      <c r="F110" s="142"/>
-      <c r="G110" s="142"/>
-      <c r="H110" s="142"/>
-      <c r="I110" s="142"/>
-      <c r="J110" s="142"/>
-      <c r="K110" s="142"/>
+      <c r="C110" s="78"/>
+      <c r="D110" s="78"/>
+      <c r="E110" s="78"/>
+      <c r="F110" s="78"/>
+      <c r="G110" s="78"/>
+      <c r="H110" s="78"/>
+      <c r="I110" s="78"/>
+      <c r="J110" s="78"/>
+      <c r="K110" s="78"/>
     </row>
     <row r="111" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C111" s="142"/>
-      <c r="D111" s="142"/>
-      <c r="E111" s="142"/>
-      <c r="F111" s="142"/>
-      <c r="G111" s="142"/>
-      <c r="H111" s="142"/>
-      <c r="I111" s="142"/>
-      <c r="J111" s="142"/>
-      <c r="K111" s="142"/>
+      <c r="C111" s="78"/>
+      <c r="D111" s="78"/>
+      <c r="E111" s="78"/>
+      <c r="F111" s="78"/>
+      <c r="G111" s="78"/>
+      <c r="H111" s="78"/>
+      <c r="I111" s="78"/>
+      <c r="J111" s="78"/>
+      <c r="K111" s="78"/>
     </row>
     <row r="112" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C112" s="142"/>
-      <c r="D112" s="142"/>
-      <c r="E112" s="142"/>
-      <c r="F112" s="142"/>
-      <c r="G112" s="142"/>
-      <c r="H112" s="142"/>
-      <c r="I112" s="142"/>
-      <c r="J112" s="142"/>
-      <c r="K112" s="142"/>
+      <c r="C112" s="78"/>
+      <c r="D112" s="78"/>
+      <c r="E112" s="78"/>
+      <c r="F112" s="78"/>
+      <c r="G112" s="78"/>
+      <c r="H112" s="78"/>
+      <c r="I112" s="78"/>
+      <c r="J112" s="78"/>
+      <c r="K112" s="78"/>
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C113" s="142"/>
-      <c r="D113" s="142"/>
-      <c r="E113" s="142"/>
-      <c r="F113" s="142"/>
-      <c r="G113" s="142"/>
-      <c r="H113" s="142"/>
-      <c r="I113" s="142"/>
-      <c r="J113" s="142"/>
-      <c r="K113" s="142"/>
+      <c r="C113" s="78"/>
+      <c r="D113" s="78"/>
+      <c r="E113" s="78"/>
+      <c r="F113" s="78"/>
+      <c r="G113" s="78"/>
+      <c r="H113" s="78"/>
+      <c r="I113" s="78"/>
+      <c r="J113" s="78"/>
+      <c r="K113" s="78"/>
     </row>
     <row r="114" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C114" s="142"/>
-      <c r="D114" s="142"/>
-      <c r="E114" s="142"/>
-      <c r="F114" s="142"/>
-      <c r="G114" s="142"/>
-      <c r="H114" s="142"/>
-      <c r="I114" s="142"/>
-      <c r="J114" s="142"/>
-      <c r="K114" s="142"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="78"/>
+      <c r="E114" s="78"/>
+      <c r="F114" s="78"/>
+      <c r="G114" s="78"/>
+      <c r="H114" s="78"/>
+      <c r="I114" s="78"/>
+      <c r="J114" s="78"/>
+      <c r="K114" s="78"/>
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C115" s="142"/>
-      <c r="D115" s="142"/>
-      <c r="E115" s="142"/>
-      <c r="F115" s="142"/>
-      <c r="G115" s="142"/>
-      <c r="H115" s="142"/>
-      <c r="I115" s="142"/>
-      <c r="J115" s="142"/>
-      <c r="K115" s="142"/>
+      <c r="C115" s="78"/>
+      <c r="D115" s="78"/>
+      <c r="E115" s="78"/>
+      <c r="F115" s="78"/>
+      <c r="G115" s="78"/>
+      <c r="H115" s="78"/>
+      <c r="I115" s="78"/>
+      <c r="J115" s="78"/>
+      <c r="K115" s="78"/>
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C116" s="142"/>
-      <c r="D116" s="142"/>
-      <c r="E116" s="142"/>
-      <c r="F116" s="142"/>
-      <c r="G116" s="142"/>
-      <c r="H116" s="142"/>
-      <c r="I116" s="142"/>
-      <c r="J116" s="142"/>
-      <c r="K116" s="142"/>
+      <c r="C116" s="78"/>
+      <c r="D116" s="78"/>
+      <c r="E116" s="78"/>
+      <c r="F116" s="78"/>
+      <c r="G116" s="78"/>
+      <c r="H116" s="78"/>
+      <c r="I116" s="78"/>
+      <c r="J116" s="78"/>
+      <c r="K116" s="78"/>
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C117" s="142"/>
-      <c r="D117" s="142"/>
-      <c r="E117" s="142"/>
-      <c r="F117" s="142"/>
-      <c r="G117" s="142"/>
-      <c r="H117" s="142"/>
-      <c r="I117" s="142"/>
-      <c r="J117" s="142"/>
-      <c r="K117" s="142"/>
+      <c r="C117" s="78"/>
+      <c r="D117" s="78"/>
+      <c r="E117" s="78"/>
+      <c r="F117" s="78"/>
+      <c r="G117" s="78"/>
+      <c r="H117" s="78"/>
+      <c r="I117" s="78"/>
+      <c r="J117" s="78"/>
+      <c r="K117" s="78"/>
     </row>
     <row r="118" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C118" s="142"/>
-      <c r="D118" s="142"/>
-      <c r="E118" s="142"/>
-      <c r="F118" s="142"/>
-      <c r="G118" s="142"/>
-      <c r="H118" s="142"/>
-      <c r="I118" s="142"/>
-      <c r="J118" s="142"/>
-      <c r="K118" s="142"/>
+      <c r="C118" s="78"/>
+      <c r="D118" s="78"/>
+      <c r="E118" s="78"/>
+      <c r="F118" s="78"/>
+      <c r="G118" s="78"/>
+      <c r="H118" s="78"/>
+      <c r="I118" s="78"/>
+      <c r="J118" s="78"/>
+      <c r="K118" s="78"/>
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C119" s="142"/>
-      <c r="D119" s="142"/>
-      <c r="E119" s="142"/>
-      <c r="F119" s="142"/>
-      <c r="G119" s="142"/>
-      <c r="H119" s="142"/>
-      <c r="I119" s="142"/>
-      <c r="J119" s="142"/>
-      <c r="K119" s="142"/>
+      <c r="C119" s="78"/>
+      <c r="D119" s="78"/>
+      <c r="E119" s="78"/>
+      <c r="F119" s="78"/>
+      <c r="G119" s="78"/>
+      <c r="H119" s="78"/>
+      <c r="I119" s="78"/>
+      <c r="J119" s="78"/>
+      <c r="K119" s="78"/>
     </row>
     <row r="120" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C120" s="142"/>
-      <c r="D120" s="142"/>
-      <c r="E120" s="142"/>
-      <c r="F120" s="142"/>
-      <c r="G120" s="142"/>
-      <c r="H120" s="142"/>
-      <c r="I120" s="142"/>
-      <c r="J120" s="142"/>
-      <c r="K120" s="142"/>
+      <c r="C120" s="78"/>
+      <c r="D120" s="78"/>
+      <c r="E120" s="78"/>
+      <c r="F120" s="78"/>
+      <c r="G120" s="78"/>
+      <c r="H120" s="78"/>
+      <c r="I120" s="78"/>
+      <c r="J120" s="78"/>
+      <c r="K120" s="78"/>
     </row>
     <row r="121" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C121" s="142"/>
-      <c r="D121" s="142"/>
-      <c r="E121" s="142"/>
-      <c r="F121" s="142"/>
-      <c r="G121" s="142"/>
-      <c r="H121" s="142"/>
-      <c r="I121" s="142"/>
-      <c r="J121" s="142"/>
-      <c r="K121" s="142"/>
+      <c r="C121" s="78"/>
+      <c r="D121" s="78"/>
+      <c r="E121" s="78"/>
+      <c r="F121" s="78"/>
+      <c r="G121" s="78"/>
+      <c r="H121" s="78"/>
+      <c r="I121" s="78"/>
+      <c r="J121" s="78"/>
+      <c r="K121" s="78"/>
     </row>
     <row r="122" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C122" s="142"/>
-      <c r="D122" s="142"/>
-      <c r="E122" s="142"/>
-      <c r="F122" s="142"/>
-      <c r="G122" s="142"/>
-      <c r="H122" s="142"/>
-      <c r="I122" s="142"/>
-      <c r="J122" s="142"/>
-      <c r="K122" s="142"/>
+      <c r="C122" s="78"/>
+      <c r="D122" s="78"/>
+      <c r="E122" s="78"/>
+      <c r="F122" s="78"/>
+      <c r="G122" s="78"/>
+      <c r="H122" s="78"/>
+      <c r="I122" s="78"/>
+      <c r="J122" s="78"/>
+      <c r="K122" s="78"/>
     </row>
     <row r="123" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C123" s="142"/>
-      <c r="D123" s="142"/>
-      <c r="E123" s="142"/>
-      <c r="F123" s="142"/>
-      <c r="G123" s="142"/>
-      <c r="H123" s="142"/>
-      <c r="I123" s="142"/>
-      <c r="J123" s="142"/>
-      <c r="K123" s="142"/>
+      <c r="C123" s="78"/>
+      <c r="D123" s="78"/>
+      <c r="E123" s="78"/>
+      <c r="F123" s="78"/>
+      <c r="G123" s="78"/>
+      <c r="H123" s="78"/>
+      <c r="I123" s="78"/>
+      <c r="J123" s="78"/>
+      <c r="K123" s="78"/>
     </row>
     <row r="124" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C124" s="142"/>
-      <c r="D124" s="142"/>
-      <c r="E124" s="142"/>
-      <c r="F124" s="142"/>
-      <c r="G124" s="142"/>
-      <c r="H124" s="142"/>
-      <c r="I124" s="142"/>
-      <c r="J124" s="142"/>
-      <c r="K124" s="142"/>
+      <c r="C124" s="78"/>
+      <c r="D124" s="78"/>
+      <c r="E124" s="78"/>
+      <c r="F124" s="78"/>
+      <c r="G124" s="78"/>
+      <c r="H124" s="78"/>
+      <c r="I124" s="78"/>
+      <c r="J124" s="78"/>
+      <c r="K124" s="78"/>
     </row>
     <row r="125" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C125" s="142"/>
-      <c r="D125" s="142"/>
-      <c r="E125" s="142"/>
-      <c r="F125" s="142"/>
-      <c r="G125" s="142"/>
-      <c r="H125" s="142"/>
-      <c r="I125" s="142"/>
-      <c r="J125" s="142"/>
-      <c r="K125" s="142"/>
+      <c r="C125" s="78"/>
+      <c r="D125" s="78"/>
+      <c r="E125" s="78"/>
+      <c r="F125" s="78"/>
+      <c r="G125" s="78"/>
+      <c r="H125" s="78"/>
+      <c r="I125" s="78"/>
+      <c r="J125" s="78"/>
+      <c r="K125" s="78"/>
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C126" s="142"/>
-      <c r="D126" s="142"/>
-      <c r="E126" s="142"/>
-      <c r="F126" s="142"/>
-      <c r="G126" s="142"/>
-      <c r="H126" s="142"/>
-      <c r="I126" s="142"/>
-      <c r="J126" s="142"/>
-      <c r="K126" s="142"/>
+      <c r="C126" s="78"/>
+      <c r="D126" s="78"/>
+      <c r="E126" s="78"/>
+      <c r="F126" s="78"/>
+      <c r="G126" s="78"/>
+      <c r="H126" s="78"/>
+      <c r="I126" s="78"/>
+      <c r="J126" s="78"/>
+      <c r="K126" s="78"/>
     </row>
     <row r="127" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C127" s="142"/>
-      <c r="D127" s="142"/>
-      <c r="E127" s="142"/>
-      <c r="F127" s="142"/>
-      <c r="G127" s="142"/>
-      <c r="H127" s="142"/>
-      <c r="I127" s="142"/>
-      <c r="J127" s="142"/>
-      <c r="K127" s="142"/>
+      <c r="C127" s="78"/>
+      <c r="D127" s="78"/>
+      <c r="E127" s="78"/>
+      <c r="F127" s="78"/>
+      <c r="G127" s="78"/>
+      <c r="H127" s="78"/>
+      <c r="I127" s="78"/>
+      <c r="J127" s="78"/>
+      <c r="K127" s="78"/>
     </row>
     <row r="128" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C128" s="142"/>
-      <c r="D128" s="142"/>
-      <c r="E128" s="142"/>
-      <c r="F128" s="142"/>
-      <c r="G128" s="142"/>
-      <c r="H128" s="142"/>
-      <c r="I128" s="142"/>
-      <c r="J128" s="142"/>
-      <c r="K128" s="142"/>
+      <c r="C128" s="78"/>
+      <c r="D128" s="78"/>
+      <c r="E128" s="78"/>
+      <c r="F128" s="78"/>
+      <c r="G128" s="78"/>
+      <c r="H128" s="78"/>
+      <c r="I128" s="78"/>
+      <c r="J128" s="78"/>
+      <c r="K128" s="78"/>
     </row>
     <row r="129" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C129" s="142"/>
-      <c r="D129" s="142"/>
-      <c r="E129" s="142"/>
-      <c r="F129" s="142"/>
-      <c r="G129" s="142"/>
-      <c r="H129" s="142"/>
-      <c r="I129" s="142"/>
-      <c r="J129" s="142"/>
-      <c r="K129" s="142"/>
+      <c r="C129" s="78"/>
+      <c r="D129" s="78"/>
+      <c r="E129" s="78"/>
+      <c r="F129" s="78"/>
+      <c r="G129" s="78"/>
+      <c r="H129" s="78"/>
+      <c r="I129" s="78"/>
+      <c r="J129" s="78"/>
+      <c r="K129" s="78"/>
     </row>
     <row r="130" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C130" s="142"/>
-      <c r="D130" s="142"/>
-      <c r="E130" s="142"/>
-      <c r="F130" s="142"/>
-      <c r="G130" s="142"/>
-      <c r="H130" s="142"/>
-      <c r="I130" s="142"/>
-      <c r="J130" s="142"/>
-      <c r="K130" s="142"/>
+      <c r="C130" s="78"/>
+      <c r="D130" s="78"/>
+      <c r="E130" s="78"/>
+      <c r="F130" s="78"/>
+      <c r="G130" s="78"/>
+      <c r="H130" s="78"/>
+      <c r="I130" s="78"/>
+      <c r="J130" s="78"/>
+      <c r="K130" s="78"/>
     </row>
     <row r="131" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C131" s="142"/>
-      <c r="D131" s="142"/>
-      <c r="E131" s="142"/>
-      <c r="F131" s="142"/>
-      <c r="G131" s="142"/>
-      <c r="H131" s="142"/>
-      <c r="I131" s="142"/>
-      <c r="J131" s="142"/>
-      <c r="K131" s="142"/>
+      <c r="C131" s="78"/>
+      <c r="D131" s="78"/>
+      <c r="E131" s="78"/>
+      <c r="F131" s="78"/>
+      <c r="G131" s="78"/>
+      <c r="H131" s="78"/>
+      <c r="I131" s="78"/>
+      <c r="J131" s="78"/>
+      <c r="K131" s="78"/>
     </row>
     <row r="132" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C132" s="142"/>
-      <c r="D132" s="142"/>
-      <c r="E132" s="142"/>
-      <c r="F132" s="142"/>
-      <c r="G132" s="142"/>
-      <c r="H132" s="142"/>
-      <c r="I132" s="142"/>
-      <c r="J132" s="142"/>
-      <c r="K132" s="142"/>
+      <c r="C132" s="78"/>
+      <c r="D132" s="78"/>
+      <c r="E132" s="78"/>
+      <c r="F132" s="78"/>
+      <c r="G132" s="78"/>
+      <c r="H132" s="78"/>
+      <c r="I132" s="78"/>
+      <c r="J132" s="78"/>
+      <c r="K132" s="78"/>
     </row>
     <row r="133" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C133" s="142"/>
-      <c r="D133" s="142"/>
-      <c r="E133" s="142"/>
-      <c r="F133" s="142"/>
-      <c r="G133" s="142"/>
-      <c r="H133" s="142"/>
-      <c r="I133" s="142"/>
-      <c r="J133" s="142"/>
-      <c r="K133" s="142"/>
+      <c r="C133" s="78"/>
+      <c r="D133" s="78"/>
+      <c r="E133" s="78"/>
+      <c r="F133" s="78"/>
+      <c r="G133" s="78"/>
+      <c r="H133" s="78"/>
+      <c r="I133" s="78"/>
+      <c r="J133" s="78"/>
+      <c r="K133" s="78"/>
     </row>
     <row r="134" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C134" s="142"/>
-      <c r="D134" s="142"/>
-      <c r="E134" s="142"/>
-      <c r="F134" s="142"/>
-      <c r="G134" s="142"/>
-      <c r="H134" s="142"/>
-      <c r="I134" s="142"/>
-      <c r="J134" s="142"/>
-      <c r="K134" s="142"/>
+      <c r="C134" s="78"/>
+      <c r="D134" s="78"/>
+      <c r="E134" s="78"/>
+      <c r="F134" s="78"/>
+      <c r="G134" s="78"/>
+      <c r="H134" s="78"/>
+      <c r="I134" s="78"/>
+      <c r="J134" s="78"/>
+      <c r="K134" s="78"/>
     </row>
     <row r="135" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C135" s="142"/>
-      <c r="D135" s="142"/>
-      <c r="E135" s="142"/>
-      <c r="F135" s="142"/>
-      <c r="G135" s="142"/>
-      <c r="H135" s="142"/>
-      <c r="I135" s="142"/>
-      <c r="J135" s="142"/>
-      <c r="K135" s="142"/>
+      <c r="C135" s="78"/>
+      <c r="D135" s="78"/>
+      <c r="E135" s="78"/>
+      <c r="F135" s="78"/>
+      <c r="G135" s="78"/>
+      <c r="H135" s="78"/>
+      <c r="I135" s="78"/>
+      <c r="J135" s="78"/>
+      <c r="K135" s="78"/>
     </row>
     <row r="136" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C136" s="142"/>
-      <c r="D136" s="142"/>
-      <c r="E136" s="142"/>
-      <c r="F136" s="142"/>
-      <c r="G136" s="142"/>
-      <c r="H136" s="142"/>
-      <c r="I136" s="142"/>
-      <c r="J136" s="142"/>
-      <c r="K136" s="142"/>
+      <c r="C136" s="78"/>
+      <c r="D136" s="78"/>
+      <c r="E136" s="78"/>
+      <c r="F136" s="78"/>
+      <c r="G136" s="78"/>
+      <c r="H136" s="78"/>
+      <c r="I136" s="78"/>
+      <c r="J136" s="78"/>
+      <c r="K136" s="78"/>
     </row>
     <row r="137" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C137" s="142"/>
-      <c r="D137" s="142"/>
-      <c r="E137" s="142"/>
-      <c r="F137" s="142"/>
-      <c r="G137" s="142"/>
-      <c r="H137" s="142"/>
-      <c r="I137" s="142"/>
-      <c r="J137" s="142"/>
-      <c r="K137" s="142"/>
+      <c r="C137" s="78"/>
+      <c r="D137" s="78"/>
+      <c r="E137" s="78"/>
+      <c r="F137" s="78"/>
+      <c r="G137" s="78"/>
+      <c r="H137" s="78"/>
+      <c r="I137" s="78"/>
+      <c r="J137" s="78"/>
+      <c r="K137" s="78"/>
     </row>
     <row r="138" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C138" s="142"/>
-      <c r="D138" s="142"/>
-      <c r="E138" s="142"/>
-      <c r="F138" s="142"/>
-      <c r="G138" s="142"/>
-      <c r="H138" s="142"/>
-      <c r="I138" s="142"/>
-      <c r="J138" s="142"/>
-      <c r="K138" s="142"/>
+      <c r="C138" s="78"/>
+      <c r="D138" s="78"/>
+      <c r="E138" s="78"/>
+      <c r="F138" s="78"/>
+      <c r="G138" s="78"/>
+      <c r="H138" s="78"/>
+      <c r="I138" s="78"/>
+      <c r="J138" s="78"/>
+      <c r="K138" s="78"/>
     </row>
     <row r="139" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C139" s="142"/>
-      <c r="D139" s="142"/>
-      <c r="E139" s="142"/>
-      <c r="F139" s="142"/>
-      <c r="G139" s="142"/>
-      <c r="H139" s="142"/>
-      <c r="I139" s="142"/>
-      <c r="J139" s="142"/>
-      <c r="K139" s="142"/>
+      <c r="C139" s="78"/>
+      <c r="D139" s="78"/>
+      <c r="E139" s="78"/>
+      <c r="F139" s="78"/>
+      <c r="G139" s="78"/>
+      <c r="H139" s="78"/>
+      <c r="I139" s="78"/>
+      <c r="J139" s="78"/>
+      <c r="K139" s="78"/>
     </row>
     <row r="140" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C140" s="142"/>
-      <c r="D140" s="142"/>
-      <c r="E140" s="142"/>
-      <c r="F140" s="142"/>
-      <c r="G140" s="142"/>
-      <c r="H140" s="142"/>
-      <c r="I140" s="142"/>
-      <c r="J140" s="142"/>
-      <c r="K140" s="142"/>
+      <c r="C140" s="78"/>
+      <c r="D140" s="78"/>
+      <c r="E140" s="78"/>
+      <c r="F140" s="78"/>
+      <c r="G140" s="78"/>
+      <c r="H140" s="78"/>
+      <c r="I140" s="78"/>
+      <c r="J140" s="78"/>
+      <c r="K140" s="78"/>
     </row>
     <row r="141" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C141" s="142"/>
-      <c r="D141" s="142"/>
-      <c r="E141" s="142"/>
-      <c r="F141" s="142"/>
-      <c r="G141" s="142"/>
-      <c r="H141" s="142"/>
-      <c r="I141" s="142"/>
-      <c r="J141" s="142"/>
-      <c r="K141" s="142"/>
+      <c r="C141" s="78"/>
+      <c r="D141" s="78"/>
+      <c r="E141" s="78"/>
+      <c r="F141" s="78"/>
+      <c r="G141" s="78"/>
+      <c r="H141" s="78"/>
+      <c r="I141" s="78"/>
+      <c r="J141" s="78"/>
+      <c r="K141" s="78"/>
     </row>
     <row r="142" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C142" s="142"/>
-      <c r="D142" s="142"/>
-      <c r="E142" s="142"/>
-      <c r="F142" s="142"/>
-      <c r="G142" s="142"/>
-      <c r="H142" s="142"/>
-      <c r="I142" s="142"/>
-      <c r="J142" s="142"/>
-      <c r="K142" s="142"/>
+      <c r="C142" s="78"/>
+      <c r="D142" s="78"/>
+      <c r="E142" s="78"/>
+      <c r="F142" s="78"/>
+      <c r="G142" s="78"/>
+      <c r="H142" s="78"/>
+      <c r="I142" s="78"/>
+      <c r="J142" s="78"/>
+      <c r="K142" s="78"/>
     </row>
     <row r="143" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C143" s="142"/>
-      <c r="D143" s="142"/>
-      <c r="E143" s="142"/>
-      <c r="F143" s="142"/>
-      <c r="G143" s="142"/>
-      <c r="H143" s="142"/>
-      <c r="I143" s="142"/>
-      <c r="J143" s="142"/>
-      <c r="K143" s="142"/>
+      <c r="C143" s="78"/>
+      <c r="D143" s="78"/>
+      <c r="E143" s="78"/>
+      <c r="F143" s="78"/>
+      <c r="G143" s="78"/>
+      <c r="H143" s="78"/>
+      <c r="I143" s="78"/>
+      <c r="J143" s="78"/>
+      <c r="K143" s="78"/>
     </row>
     <row r="144" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C144" s="142"/>
-      <c r="D144" s="142"/>
-      <c r="E144" s="142"/>
-      <c r="F144" s="142"/>
-      <c r="G144" s="142"/>
-      <c r="H144" s="142"/>
-      <c r="I144" s="142"/>
-      <c r="J144" s="142"/>
-      <c r="K144" s="142"/>
+      <c r="C144" s="78"/>
+      <c r="D144" s="78"/>
+      <c r="E144" s="78"/>
+      <c r="F144" s="78"/>
+      <c r="G144" s="78"/>
+      <c r="H144" s="78"/>
+      <c r="I144" s="78"/>
+      <c r="J144" s="78"/>
+      <c r="K144" s="78"/>
     </row>
     <row r="145" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C145" s="142"/>
-      <c r="D145" s="142"/>
-      <c r="E145" s="142"/>
-      <c r="F145" s="142"/>
-      <c r="G145" s="142"/>
-      <c r="H145" s="142"/>
-      <c r="I145" s="142"/>
-      <c r="J145" s="142"/>
-      <c r="K145" s="142"/>
+      <c r="C145" s="78"/>
+      <c r="D145" s="78"/>
+      <c r="E145" s="78"/>
+      <c r="F145" s="78"/>
+      <c r="G145" s="78"/>
+      <c r="H145" s="78"/>
+      <c r="I145" s="78"/>
+      <c r="J145" s="78"/>
+      <c r="K145" s="78"/>
     </row>
     <row r="146" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C146" s="142"/>
-      <c r="D146" s="142"/>
-      <c r="E146" s="142"/>
-      <c r="F146" s="142"/>
-      <c r="G146" s="142"/>
-      <c r="H146" s="142"/>
-      <c r="I146" s="142"/>
-      <c r="J146" s="142"/>
-      <c r="K146" s="142"/>
+      <c r="C146" s="78"/>
+      <c r="D146" s="78"/>
+      <c r="E146" s="78"/>
+      <c r="F146" s="78"/>
+      <c r="G146" s="78"/>
+      <c r="H146" s="78"/>
+      <c r="I146" s="78"/>
+      <c r="J146" s="78"/>
+      <c r="K146" s="78"/>
     </row>
     <row r="147" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C147" s="142"/>
-      <c r="D147" s="142"/>
-      <c r="E147" s="142"/>
-      <c r="F147" s="142"/>
-      <c r="G147" s="142"/>
-      <c r="H147" s="142"/>
-      <c r="I147" s="142"/>
-      <c r="J147" s="142"/>
-      <c r="K147" s="142"/>
+      <c r="C147" s="78"/>
+      <c r="D147" s="78"/>
+      <c r="E147" s="78"/>
+      <c r="F147" s="78"/>
+      <c r="G147" s="78"/>
+      <c r="H147" s="78"/>
+      <c r="I147" s="78"/>
+      <c r="J147" s="78"/>
+      <c r="K147" s="78"/>
     </row>
     <row r="148" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C148" s="142"/>
-      <c r="D148" s="142"/>
-      <c r="E148" s="142"/>
-      <c r="F148" s="142"/>
-      <c r="G148" s="142"/>
-      <c r="H148" s="142"/>
-      <c r="I148" s="142"/>
-      <c r="J148" s="142"/>
-      <c r="K148" s="142"/>
+      <c r="C148" s="78"/>
+      <c r="D148" s="78"/>
+      <c r="E148" s="78"/>
+      <c r="F148" s="78"/>
+      <c r="G148" s="78"/>
+      <c r="H148" s="78"/>
+      <c r="I148" s="78"/>
+      <c r="J148" s="78"/>
+      <c r="K148" s="78"/>
     </row>
     <row r="149" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C149" s="142"/>
-      <c r="D149" s="142"/>
-      <c r="E149" s="142"/>
-      <c r="F149" s="142"/>
-      <c r="G149" s="142"/>
-      <c r="H149" s="142"/>
-      <c r="I149" s="142"/>
-      <c r="J149" s="142"/>
-      <c r="K149" s="142"/>
+      <c r="C149" s="78"/>
+      <c r="D149" s="78"/>
+      <c r="E149" s="78"/>
+      <c r="F149" s="78"/>
+      <c r="G149" s="78"/>
+      <c r="H149" s="78"/>
+      <c r="I149" s="78"/>
+      <c r="J149" s="78"/>
+      <c r="K149" s="78"/>
     </row>
     <row r="150" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C150" s="142"/>
-      <c r="D150" s="142"/>
-      <c r="E150" s="142"/>
-      <c r="F150" s="142"/>
-      <c r="G150" s="142"/>
-      <c r="H150" s="142"/>
-      <c r="I150" s="142"/>
-      <c r="J150" s="142"/>
-      <c r="K150" s="142"/>
+      <c r="C150" s="78"/>
+      <c r="D150" s="78"/>
+      <c r="E150" s="78"/>
+      <c r="F150" s="78"/>
+      <c r="G150" s="78"/>
+      <c r="H150" s="78"/>
+      <c r="I150" s="78"/>
+      <c r="J150" s="78"/>
+      <c r="K150" s="78"/>
     </row>
     <row r="151" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C151" s="142"/>
-      <c r="D151" s="142"/>
-      <c r="E151" s="142"/>
-      <c r="F151" s="142"/>
-      <c r="G151" s="142"/>
-      <c r="H151" s="142"/>
-      <c r="I151" s="142"/>
-      <c r="J151" s="142"/>
-      <c r="K151" s="142"/>
+      <c r="C151" s="78"/>
+      <c r="D151" s="78"/>
+      <c r="E151" s="78"/>
+      <c r="F151" s="78"/>
+      <c r="G151" s="78"/>
+      <c r="H151" s="78"/>
+      <c r="I151" s="78"/>
+      <c r="J151" s="78"/>
+      <c r="K151" s="78"/>
     </row>
     <row r="152" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C152" s="142"/>
-      <c r="D152" s="142"/>
-      <c r="E152" s="142"/>
-      <c r="F152" s="142"/>
-      <c r="G152" s="142"/>
-      <c r="H152" s="142"/>
-      <c r="I152" s="142"/>
-      <c r="J152" s="142"/>
-      <c r="K152" s="142"/>
+      <c r="C152" s="78"/>
+      <c r="D152" s="78"/>
+      <c r="E152" s="78"/>
+      <c r="F152" s="78"/>
+      <c r="G152" s="78"/>
+      <c r="H152" s="78"/>
+      <c r="I152" s="78"/>
+      <c r="J152" s="78"/>
+      <c r="K152" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10638,126 +10639,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="G1" s="83" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="G1" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="BA1" s="78" t="s">
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="84"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="84"/>
+      <c r="AX1" s="84"/>
+      <c r="AY1" s="84"/>
+      <c r="BA1" s="79" t="s">
         <v>432</v>
       </c>
-      <c r="BB1" s="78"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="78"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="79"/>
       <c r="BE1" s="45"/>
-      <c r="BF1" s="79" t="s">
+      <c r="BF1" s="80" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:58" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
-      <c r="AW2" s="83"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="83"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="78"/>
-      <c r="BC2" s="78"/>
-      <c r="BD2" s="78"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="79"/>
+      <c r="BD2" s="79"/>
       <c r="BE2" s="45"/>
-      <c r="BF2" s="79"/>
+      <c r="BF2" s="80"/>
     </row>
     <row r="3" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -10772,63 +10773,63 @@
       <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="88" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="R3" s="87" t="s">
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="R3" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AC3" s="87" t="s">
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AC3" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="87"/>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87"/>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="87"/>
-      <c r="AP3" s="87" t="s">
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="88"/>
+      <c r="AJ3" s="88"/>
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="88"/>
+      <c r="AM3" s="88"/>
+      <c r="AN3" s="88"/>
+      <c r="AP3" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="AQ3" s="87"/>
-      <c r="AR3" s="87"/>
-      <c r="AS3" s="87"/>
-      <c r="AT3" s="87"/>
-      <c r="AU3" s="87"/>
-      <c r="AV3" s="87"/>
-      <c r="AW3" s="87"/>
-      <c r="AX3" s="87"/>
-      <c r="AY3" s="87"/>
+      <c r="AQ3" s="88"/>
+      <c r="AR3" s="88"/>
+      <c r="AS3" s="88"/>
+      <c r="AT3" s="88"/>
+      <c r="AU3" s="88"/>
+      <c r="AV3" s="88"/>
+      <c r="AW3" s="88"/>
+      <c r="AX3" s="88"/>
+      <c r="AY3" s="88"/>
       <c r="AZ3" s="17"/>
-      <c r="BA3" s="80" t="s">
+      <c r="BA3" s="81" t="s">
         <v>433</v>
       </c>
-      <c r="BB3" s="80"/>
-      <c r="BC3" s="80"/>
-      <c r="BD3" s="80"/>
+      <c r="BB3" s="81"/>
+      <c r="BC3" s="81"/>
+      <c r="BD3" s="81"/>
       <c r="BE3" s="44"/>
       <c r="BF3" s="49"/>
     </row>
@@ -12533,12 +12534,12 @@
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
       <c r="G15" s="12" t="s">
         <v>120</v>
       </c>
@@ -12682,10 +12683,10 @@
       <c r="BF15" s="48"/>
     </row>
     <row r="16" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
       <c r="G16" s="12" t="s">
         <v>121</v>
       </c>
@@ -14685,12 +14686,12 @@
       </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
       <c r="G29" s="12" t="s">
         <v>134</v>
       </c>
@@ -14834,10 +14835,10 @@
       <c r="BF29" s="48"/>
     </row>
     <row r="30" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="86"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
       <c r="G30" s="12" t="s">
         <v>135</v>
       </c>
@@ -16825,12 +16826,12 @@
       <c r="BF42" s="33"/>
     </row>
     <row r="43" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A43" s="85" t="s">
+      <c r="A43" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
       <c r="G43" s="12" t="s">
         <v>148</v>
       </c>
@@ -16974,10 +16975,10 @@
       <c r="BF43" s="33"/>
     </row>
     <row r="44" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A44" s="86"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
       <c r="G44" s="12" t="s">
         <v>149</v>
       </c>
@@ -18957,12 +18958,12 @@
       <c r="BF56" s="33"/>
     </row>
     <row r="57" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A57" s="85" t="s">
+      <c r="A57" s="86" t="s">
         <v>231</v>
       </c>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
       <c r="G57" s="12" t="s">
         <v>162</v>
       </c>
@@ -19106,10 +19107,10 @@
       <c r="BF57" s="33"/>
     </row>
     <row r="58" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A58" s="86"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
+      <c r="A58" s="87"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="87"/>
       <c r="G58" s="12" t="s">
         <v>163</v>
       </c>
@@ -21089,12 +21090,12 @@
       <c r="BF70" s="33"/>
     </row>
     <row r="71" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A71" s="85" t="s">
+      <c r="A71" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="86"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="86"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="87"/>
       <c r="G71" s="12" t="s">
         <v>176</v>
       </c>
@@ -21238,10 +21239,10 @@
       <c r="BF71" s="33"/>
     </row>
     <row r="72" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A72" s="86"/>
-      <c r="B72" s="86"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="86"/>
+      <c r="A72" s="87"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="87"/>
       <c r="G72" s="12" t="s">
         <v>177</v>
       </c>
@@ -23364,11 +23365,11 @@
       <c r="BF85" s="33"/>
     </row>
     <row r="86" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="B86" s="81" t="s">
+      <c r="B86" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="C86" s="81"/>
-      <c r="D86" s="82" t="s">
+      <c r="C86" s="82"/>
+      <c r="D86" s="83" t="s">
         <v>212</v>
       </c>
       <c r="G86" s="12" t="s">
@@ -23514,9 +23515,9 @@
       <c r="BF86" s="33"/>
     </row>
     <row r="87" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="B87" s="81"/>
-      <c r="C87" s="81"/>
-      <c r="D87" s="82"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="83"/>
       <c r="G87" s="12" t="s">
         <v>192</v>
       </c>
@@ -23660,9 +23661,9 @@
       <c r="BF87" s="33"/>
     </row>
     <row r="88" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="B88" s="81"/>
-      <c r="C88" s="81"/>
-      <c r="D88" s="82"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="83"/>
       <c r="G88" s="19" t="s">
         <v>232</v>
       </c>
@@ -23980,18 +23981,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -24137,18 +24138,18 @@
       <c r="D13" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
@@ -24291,18 +24292,18 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="86"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
@@ -24445,18 +24446,18 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="85" t="s">
+      <c r="A43" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="86"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
@@ -24645,24 +24646,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="91" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="G1" s="101" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="G1" s="99" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="101"/>
+      <c r="H1" s="99"/>
     </row>
     <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
@@ -24687,16 +24688,16 @@
       <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="102" t="s">
         <v>376</v>
       </c>
-      <c r="H3" s="104"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="103" t="s">
         <v>320</v>
       </c>
-      <c r="L3" s="90"/>
+      <c r="L3" s="103"/>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
@@ -24719,8 +24720,8 @@
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
@@ -24740,10 +24741,10 @@
       <c r="E5" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="102" t="s">
+      <c r="G5" s="100" t="s">
         <v>375</v>
       </c>
-      <c r="H5" s="103"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="20" t="s">
@@ -24771,7 +24772,7 @@
       <c r="E6" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="104" t="s">
         <v>280</v>
       </c>
       <c r="H6" s="29" t="s">
@@ -24804,7 +24805,7 @@
       <c r="E7" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="92"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="20" t="s">
         <v>292</v>
       </c>
@@ -24835,7 +24836,7 @@
       <c r="E8" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="92"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="20" t="s">
         <v>293</v>
       </c>
@@ -24895,7 +24896,7 @@
       <c r="E10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="93" t="s">
+      <c r="G10" s="98" t="s">
         <v>173</v>
       </c>
       <c r="H10" s="20" t="s">
@@ -24928,7 +24929,7 @@
       <c r="E11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="93"/>
+      <c r="G11" s="98"/>
       <c r="H11" s="20" t="s">
         <v>292</v>
       </c>
@@ -24959,7 +24960,7 @@
       <c r="E12" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="93"/>
+      <c r="G12" s="98"/>
       <c r="H12" s="20" t="s">
         <v>293</v>
       </c>
@@ -24995,14 +24996,14 @@
       <c r="Q13" s="25"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82" t="s">
+      <c r="D14" s="82"/>
+      <c r="E14" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="93" t="s">
+      <c r="G14" s="98" t="s">
         <v>110</v>
       </c>
       <c r="H14" s="20" t="s">
@@ -25023,10 +25024,10 @@
       <c r="Q14" s="25"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
-      <c r="G15" s="93"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83"/>
+      <c r="G15" s="98"/>
       <c r="H15" s="20" t="s">
         <v>294</v>
       </c>
@@ -25045,10 +25046,10 @@
       <c r="Q15" s="25"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82"/>
-      <c r="G16" s="93"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="83"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="20" t="s">
         <v>295</v>
       </c>
@@ -25067,9 +25068,9 @@
       <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="83"/>
       <c r="G17" s="28"/>
       <c r="H17" s="20"/>
       <c r="I17" s="25"/>
@@ -25087,10 +25088,10 @@
       <c r="Q17" s="25"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="82"/>
-      <c r="G18" s="93" t="s">
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="83"/>
+      <c r="G18" s="98" t="s">
         <v>245</v>
       </c>
       <c r="H18" s="20" t="s">
@@ -25111,10 +25112,10 @@
       <c r="Q18" s="25"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
-      <c r="G19" s="93"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
+      <c r="G19" s="98"/>
       <c r="H19" s="20" t="s">
         <v>297</v>
       </c>
@@ -25133,10 +25134,10 @@
       <c r="Q19" s="25"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="82"/>
-      <c r="G20" s="93"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="83"/>
+      <c r="G20" s="98"/>
       <c r="H20" s="20" t="s">
         <v>298</v>
       </c>
@@ -25172,7 +25173,7 @@
       <c r="Q21" s="25"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G22" s="93" t="s">
+      <c r="G22" s="98" t="s">
         <v>124</v>
       </c>
       <c r="H22" s="20" t="s">
@@ -25193,7 +25194,7 @@
       <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G23" s="93"/>
+      <c r="G23" s="98"/>
       <c r="H23" s="20" t="s">
         <v>299</v>
       </c>
@@ -25212,7 +25213,7 @@
       <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G24" s="93"/>
+      <c r="G24" s="98"/>
       <c r="H24" s="20" t="s">
         <v>300</v>
       </c>
@@ -25248,7 +25249,7 @@
       <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G26" s="93" t="s">
+      <c r="G26" s="98" t="s">
         <v>248</v>
       </c>
       <c r="H26" s="20" t="s">
@@ -25269,7 +25270,7 @@
       <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G27" s="93"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="20" t="s">
         <v>301</v>
       </c>
@@ -25288,7 +25289,7 @@
       <c r="Q27" s="25"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G28" s="93"/>
+      <c r="G28" s="98"/>
       <c r="H28" s="20" t="s">
         <v>302</v>
       </c>
@@ -25324,7 +25325,7 @@
       <c r="Q29" s="25"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G30" s="93" t="s">
+      <c r="G30" s="98" t="s">
         <v>174</v>
       </c>
       <c r="H30" s="20" t="s">
@@ -25345,7 +25346,7 @@
       <c r="Q30" s="25"/>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G31" s="93"/>
+      <c r="G31" s="98"/>
       <c r="H31" s="20" t="s">
         <v>292</v>
       </c>
@@ -25364,7 +25365,7 @@
       <c r="Q31" s="25"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G32" s="93"/>
+      <c r="G32" s="98"/>
       <c r="H32" s="20" t="s">
         <v>293</v>
       </c>
@@ -25400,7 +25401,7 @@
       <c r="Q33" s="25"/>
     </row>
     <row r="34" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G34" s="93" t="s">
+      <c r="G34" s="98" t="s">
         <v>244</v>
       </c>
       <c r="H34" s="20" t="s">
@@ -25421,7 +25422,7 @@
       <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G35" s="93"/>
+      <c r="G35" s="98"/>
       <c r="H35" s="20" t="s">
         <v>303</v>
       </c>
@@ -25440,7 +25441,7 @@
       <c r="Q35" s="25"/>
     </row>
     <row r="36" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G36" s="93"/>
+      <c r="G36" s="98"/>
       <c r="H36" s="20" t="s">
         <v>304</v>
       </c>
@@ -25476,7 +25477,7 @@
       <c r="Q37" s="25"/>
     </row>
     <row r="38" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G38" s="93" t="s">
+      <c r="G38" s="98" t="s">
         <v>154</v>
       </c>
       <c r="H38" s="20" t="s">
@@ -25497,7 +25498,7 @@
       <c r="Q38" s="25"/>
     </row>
     <row r="39" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G39" s="93"/>
+      <c r="G39" s="98"/>
       <c r="H39" s="20" t="s">
         <v>297</v>
       </c>
@@ -25516,7 +25517,7 @@
       <c r="Q39" s="25"/>
     </row>
     <row r="40" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G40" s="93"/>
+      <c r="G40" s="98"/>
       <c r="H40" s="20" t="s">
         <v>305</v>
       </c>
@@ -25552,7 +25553,7 @@
       <c r="Q41" s="25"/>
     </row>
     <row r="42" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G42" s="93" t="s">
+      <c r="G42" s="98" t="s">
         <v>281</v>
       </c>
       <c r="H42" s="20" t="s">
@@ -25573,7 +25574,7 @@
       <c r="Q42" s="25"/>
     </row>
     <row r="43" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G43" s="93"/>
+      <c r="G43" s="98"/>
       <c r="H43" s="20" t="s">
         <v>292</v>
       </c>
@@ -25592,7 +25593,7 @@
       <c r="Q43" s="25"/>
     </row>
     <row r="44" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G44" s="93"/>
+      <c r="G44" s="98"/>
       <c r="H44" s="20" t="s">
         <v>293</v>
       </c>
@@ -25628,7 +25629,7 @@
       <c r="Q45" s="25"/>
     </row>
     <row r="46" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G46" s="93" t="s">
+      <c r="G46" s="98" t="s">
         <v>282</v>
       </c>
       <c r="H46" s="20" t="s">
@@ -25649,7 +25650,7 @@
       <c r="Q46" s="25"/>
     </row>
     <row r="47" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G47" s="93"/>
+      <c r="G47" s="98"/>
       <c r="H47" s="20" t="s">
         <v>292</v>
       </c>
@@ -25668,7 +25669,7 @@
       <c r="Q47" s="25"/>
     </row>
     <row r="48" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G48" s="93"/>
+      <c r="G48" s="98"/>
       <c r="H48" s="20" t="s">
         <v>293</v>
       </c>
@@ -25704,7 +25705,7 @@
       <c r="Q49" s="25"/>
     </row>
     <row r="50" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G50" s="93" t="s">
+      <c r="G50" s="98" t="s">
         <v>277</v>
       </c>
       <c r="H50" s="20" t="s">
@@ -25725,7 +25726,7 @@
       <c r="Q50" s="25"/>
     </row>
     <row r="51" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G51" s="93"/>
+      <c r="G51" s="98"/>
       <c r="H51" s="20" t="s">
         <v>306</v>
       </c>
@@ -25744,7 +25745,7 @@
       <c r="Q51" s="25"/>
     </row>
     <row r="52" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G52" s="93"/>
+      <c r="G52" s="98"/>
       <c r="H52" s="20" t="s">
         <v>307</v>
       </c>
@@ -25780,7 +25781,7 @@
       <c r="Q53" s="25"/>
     </row>
     <row r="54" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G54" s="93" t="s">
+      <c r="G54" s="98" t="s">
         <v>163</v>
       </c>
       <c r="H54" s="20" t="s">
@@ -25801,7 +25802,7 @@
       <c r="Q54" s="25"/>
     </row>
     <row r="55" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G55" s="93"/>
+      <c r="G55" s="98"/>
       <c r="H55" s="20" t="s">
         <v>306</v>
       </c>
@@ -25820,7 +25821,7 @@
       <c r="Q55" s="25"/>
     </row>
     <row r="56" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G56" s="93"/>
+      <c r="G56" s="98"/>
       <c r="H56" s="20" t="s">
         <v>307</v>
       </c>
@@ -25856,7 +25857,7 @@
       <c r="Q57" s="25"/>
     </row>
     <row r="58" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G58" s="93" t="s">
+      <c r="G58" s="98" t="s">
         <v>175</v>
       </c>
       <c r="H58" s="20" t="s">
@@ -25877,7 +25878,7 @@
       <c r="Q58" s="25"/>
     </row>
     <row r="59" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G59" s="93"/>
+      <c r="G59" s="98"/>
       <c r="H59" s="20" t="s">
         <v>292</v>
       </c>
@@ -25896,7 +25897,7 @@
       <c r="Q59" s="25"/>
     </row>
     <row r="60" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G60" s="93"/>
+      <c r="G60" s="98"/>
       <c r="H60" s="20" t="s">
         <v>293</v>
       </c>
@@ -25932,7 +25933,7 @@
       <c r="Q61" s="25"/>
     </row>
     <row r="62" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G62" s="93" t="s">
+      <c r="G62" s="98" t="s">
         <v>283</v>
       </c>
       <c r="H62" s="20" t="s">
@@ -25953,7 +25954,7 @@
       <c r="Q62" s="25"/>
     </row>
     <row r="63" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G63" s="93"/>
+      <c r="G63" s="98"/>
       <c r="H63" s="20" t="s">
         <v>292</v>
       </c>
@@ -25972,7 +25973,7 @@
       <c r="Q63" s="25"/>
     </row>
     <row r="64" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G64" s="93"/>
+      <c r="G64" s="98"/>
       <c r="H64" s="20" t="s">
         <v>293</v>
       </c>
@@ -26008,7 +26009,7 @@
       <c r="Q65" s="25"/>
     </row>
     <row r="66" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G66" s="93" t="s">
+      <c r="G66" s="98" t="s">
         <v>176</v>
       </c>
       <c r="H66" s="20" t="s">
@@ -26029,7 +26030,7 @@
       <c r="Q66" s="25"/>
     </row>
     <row r="67" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G67" s="93"/>
+      <c r="G67" s="98"/>
       <c r="H67" s="20" t="s">
         <v>292</v>
       </c>
@@ -26048,7 +26049,7 @@
       <c r="Q67" s="25"/>
     </row>
     <row r="68" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G68" s="93"/>
+      <c r="G68" s="98"/>
       <c r="H68" s="20" t="s">
         <v>293</v>
       </c>
@@ -26084,7 +26085,7 @@
       <c r="Q69" s="25"/>
     </row>
     <row r="70" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G70" s="93" t="s">
+      <c r="G70" s="98" t="s">
         <v>234</v>
       </c>
       <c r="H70" s="20" t="s">
@@ -26105,7 +26106,7 @@
       <c r="Q70" s="25"/>
     </row>
     <row r="71" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G71" s="93"/>
+      <c r="G71" s="98"/>
       <c r="H71" s="20" t="s">
         <v>303</v>
       </c>
@@ -26124,7 +26125,7 @@
       <c r="Q71" s="25"/>
     </row>
     <row r="72" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G72" s="93"/>
+      <c r="G72" s="98"/>
       <c r="H72" s="20" t="s">
         <v>304</v>
       </c>
@@ -26160,7 +26161,7 @@
       <c r="Q73" s="25"/>
     </row>
     <row r="74" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G74" s="93" t="s">
+      <c r="G74" s="98" t="s">
         <v>255</v>
       </c>
       <c r="H74" s="20" t="s">
@@ -26181,7 +26182,7 @@
       <c r="Q74" s="25"/>
     </row>
     <row r="75" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G75" s="93"/>
+      <c r="G75" s="98"/>
       <c r="H75" s="20" t="s">
         <v>308</v>
       </c>
@@ -26200,7 +26201,7 @@
       <c r="Q75" s="25"/>
     </row>
     <row r="76" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G76" s="93"/>
+      <c r="G76" s="98"/>
       <c r="H76" s="20" t="s">
         <v>309</v>
       </c>
@@ -26236,7 +26237,7 @@
       <c r="Q77" s="25"/>
     </row>
     <row r="78" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G78" s="93" t="s">
+      <c r="G78" s="98" t="s">
         <v>177</v>
       </c>
       <c r="H78" s="20" t="s">
@@ -26257,7 +26258,7 @@
       <c r="Q78" s="25"/>
     </row>
     <row r="79" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G79" s="93"/>
+      <c r="G79" s="98"/>
       <c r="H79" s="20" t="s">
         <v>306</v>
       </c>
@@ -26276,7 +26277,7 @@
       <c r="Q79" s="25"/>
     </row>
     <row r="80" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G80" s="93"/>
+      <c r="G80" s="98"/>
       <c r="H80" s="20" t="s">
         <v>310</v>
       </c>
@@ -26312,7 +26313,7 @@
       <c r="Q81" s="25"/>
     </row>
     <row r="82" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G82" s="93" t="s">
+      <c r="G82" s="98" t="s">
         <v>178</v>
       </c>
       <c r="H82" s="20" t="s">
@@ -26333,7 +26334,7 @@
       <c r="Q82" s="25"/>
     </row>
     <row r="83" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G83" s="93"/>
+      <c r="G83" s="98"/>
       <c r="H83" s="20" t="s">
         <v>292</v>
       </c>
@@ -26352,7 +26353,7 @@
       <c r="Q83" s="25"/>
     </row>
     <row r="84" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G84" s="93"/>
+      <c r="G84" s="98"/>
       <c r="H84" s="20" t="s">
         <v>293</v>
       </c>
@@ -26388,7 +26389,7 @@
       <c r="Q85" s="25"/>
     </row>
     <row r="86" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G86" s="93" t="s">
+      <c r="G86" s="98" t="s">
         <v>179</v>
       </c>
       <c r="H86" s="20" t="s">
@@ -26409,7 +26410,7 @@
       <c r="Q86" s="25"/>
     </row>
     <row r="87" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G87" s="93"/>
+      <c r="G87" s="98"/>
       <c r="H87" s="20" t="s">
         <v>292</v>
       </c>
@@ -26428,7 +26429,7 @@
       <c r="Q87" s="25"/>
     </row>
     <row r="88" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G88" s="93"/>
+      <c r="G88" s="98"/>
       <c r="H88" s="20" t="s">
         <v>293</v>
       </c>
@@ -26464,7 +26465,7 @@
       <c r="Q89" s="25"/>
     </row>
     <row r="90" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G90" s="93" t="s">
+      <c r="G90" s="98" t="s">
         <v>180</v>
       </c>
       <c r="H90" s="20" t="s">
@@ -26485,7 +26486,7 @@
       <c r="Q90" s="25"/>
     </row>
     <row r="91" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G91" s="93"/>
+      <c r="G91" s="98"/>
       <c r="H91" s="20" t="s">
         <v>292</v>
       </c>
@@ -26504,7 +26505,7 @@
       <c r="Q91" s="25"/>
     </row>
     <row r="92" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G92" s="93"/>
+      <c r="G92" s="98"/>
       <c r="H92" s="20" t="s">
         <v>293</v>
       </c>
@@ -26540,7 +26541,7 @@
       <c r="Q93" s="25"/>
     </row>
     <row r="94" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G94" s="93" t="s">
+      <c r="G94" s="98" t="s">
         <v>279</v>
       </c>
       <c r="H94" s="20" t="s">
@@ -26561,7 +26562,7 @@
       <c r="Q94" s="25"/>
     </row>
     <row r="95" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G95" s="93"/>
+      <c r="G95" s="98"/>
       <c r="H95" s="20" t="s">
         <v>306</v>
       </c>
@@ -26580,7 +26581,7 @@
       <c r="Q95" s="25"/>
     </row>
     <row r="96" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G96" s="93"/>
+      <c r="G96" s="98"/>
       <c r="H96" s="20" t="s">
         <v>307</v>
       </c>
@@ -26616,7 +26617,7 @@
       <c r="Q97" s="25"/>
     </row>
     <row r="98" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G98" s="93" t="s">
+      <c r="G98" s="98" t="s">
         <v>181</v>
       </c>
       <c r="H98" s="20" t="s">
@@ -26637,7 +26638,7 @@
       <c r="Q98" s="25"/>
     </row>
     <row r="99" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G99" s="93"/>
+      <c r="G99" s="98"/>
       <c r="H99" s="20" t="s">
         <v>292</v>
       </c>
@@ -26656,7 +26657,7 @@
       <c r="Q99" s="25"/>
     </row>
     <row r="100" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G100" s="93"/>
+      <c r="G100" s="98"/>
       <c r="H100" s="20" t="s">
         <v>293</v>
       </c>
@@ -26692,7 +26693,7 @@
       <c r="Q101" s="25"/>
     </row>
     <row r="102" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G102" s="93" t="s">
+      <c r="G102" s="98" t="s">
         <v>258</v>
       </c>
       <c r="H102" s="20" t="s">
@@ -26713,7 +26714,7 @@
       <c r="Q102" s="25"/>
     </row>
     <row r="103" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G103" s="93"/>
+      <c r="G103" s="98"/>
       <c r="H103" s="20" t="s">
         <v>311</v>
       </c>
@@ -26732,7 +26733,7 @@
       <c r="Q103" s="25"/>
     </row>
     <row r="104" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G104" s="93"/>
+      <c r="G104" s="98"/>
       <c r="H104" s="20" t="s">
         <v>312</v>
       </c>
@@ -26768,7 +26769,7 @@
       <c r="Q105" s="25"/>
     </row>
     <row r="106" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G106" s="93" t="s">
+      <c r="G106" s="98" t="s">
         <v>182</v>
       </c>
       <c r="H106" s="20" t="s">
@@ -26789,7 +26790,7 @@
       <c r="Q106" s="25"/>
     </row>
     <row r="107" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G107" s="93"/>
+      <c r="G107" s="98"/>
       <c r="H107" s="20" t="s">
         <v>292</v>
       </c>
@@ -26808,7 +26809,7 @@
       <c r="Q107" s="25"/>
     </row>
     <row r="108" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G108" s="93"/>
+      <c r="G108" s="98"/>
       <c r="H108" s="20" t="s">
         <v>293</v>
       </c>
@@ -26844,7 +26845,7 @@
       <c r="Q109" s="25"/>
     </row>
     <row r="110" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G110" s="93" t="s">
+      <c r="G110" s="98" t="s">
         <v>151</v>
       </c>
       <c r="H110" s="20" t="s">
@@ -26865,7 +26866,7 @@
       <c r="Q110" s="25"/>
     </row>
     <row r="111" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G111" s="93"/>
+      <c r="G111" s="98"/>
       <c r="H111" s="20" t="s">
         <v>306</v>
       </c>
@@ -26884,7 +26885,7 @@
       <c r="Q111" s="25"/>
     </row>
     <row r="112" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G112" s="93"/>
+      <c r="G112" s="98"/>
       <c r="H112" s="20" t="s">
         <v>307</v>
       </c>
@@ -26920,7 +26921,7 @@
       <c r="Q113" s="25"/>
     </row>
     <row r="114" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G114" s="93" t="s">
+      <c r="G114" s="98" t="s">
         <v>275</v>
       </c>
       <c r="H114" s="20" t="s">
@@ -26941,7 +26942,7 @@
       <c r="Q114" s="25"/>
     </row>
     <row r="115" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G115" s="93"/>
+      <c r="G115" s="98"/>
       <c r="H115" s="20" t="s">
         <v>311</v>
       </c>
@@ -26960,7 +26961,7 @@
       <c r="Q115" s="25"/>
     </row>
     <row r="116" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G116" s="93"/>
+      <c r="G116" s="98"/>
       <c r="H116" s="20" t="s">
         <v>312</v>
       </c>
@@ -26996,7 +26997,7 @@
       <c r="Q117" s="25"/>
     </row>
     <row r="118" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G118" s="93" t="s">
+      <c r="G118" s="98" t="s">
         <v>183</v>
       </c>
       <c r="H118" s="20" t="s">
@@ -27017,7 +27018,7 @@
       <c r="Q118" s="25"/>
     </row>
     <row r="119" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G119" s="93"/>
+      <c r="G119" s="98"/>
       <c r="H119" s="20" t="s">
         <v>292</v>
       </c>
@@ -27036,7 +27037,7 @@
       <c r="Q119" s="25"/>
     </row>
     <row r="120" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G120" s="93"/>
+      <c r="G120" s="98"/>
       <c r="H120" s="20" t="s">
         <v>293</v>
       </c>
@@ -27072,7 +27073,7 @@
       <c r="Q121" s="25"/>
     </row>
     <row r="122" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G122" s="93" t="s">
+      <c r="G122" s="98" t="s">
         <v>111</v>
       </c>
       <c r="H122" s="20" t="s">
@@ -27093,7 +27094,7 @@
       <c r="Q122" s="25"/>
     </row>
     <row r="123" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G123" s="93"/>
+      <c r="G123" s="98"/>
       <c r="H123" s="20" t="s">
         <v>294</v>
       </c>
@@ -27112,7 +27113,7 @@
       <c r="Q123" s="25"/>
     </row>
     <row r="124" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G124" s="93"/>
+      <c r="G124" s="98"/>
       <c r="H124" s="20" t="s">
         <v>295</v>
       </c>
@@ -27148,7 +27149,7 @@
       <c r="Q125" s="25"/>
     </row>
     <row r="126" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G126" s="93" t="s">
+      <c r="G126" s="98" t="s">
         <v>184</v>
       </c>
       <c r="H126" s="20" t="s">
@@ -27169,7 +27170,7 @@
       <c r="Q126" s="25"/>
     </row>
     <row r="127" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G127" s="93"/>
+      <c r="G127" s="98"/>
       <c r="H127" s="20" t="s">
         <v>292</v>
       </c>
@@ -27188,7 +27189,7 @@
       <c r="Q127" s="25"/>
     </row>
     <row r="128" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G128" s="93"/>
+      <c r="G128" s="98"/>
       <c r="H128" s="20" t="s">
         <v>293</v>
       </c>
@@ -27224,7 +27225,7 @@
       <c r="Q129" s="25"/>
     </row>
     <row r="130" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G130" s="93" t="s">
+      <c r="G130" s="98" t="s">
         <v>284</v>
       </c>
       <c r="H130" s="20" t="s">
@@ -27245,7 +27246,7 @@
       <c r="Q130" s="25"/>
     </row>
     <row r="131" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G131" s="93"/>
+      <c r="G131" s="98"/>
       <c r="H131" s="20" t="s">
         <v>292</v>
       </c>
@@ -27264,7 +27265,7 @@
       <c r="Q131" s="25"/>
     </row>
     <row r="132" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G132" s="93"/>
+      <c r="G132" s="98"/>
       <c r="H132" s="20" t="s">
         <v>293</v>
       </c>
@@ -27300,7 +27301,7 @@
       <c r="Q133" s="25"/>
     </row>
     <row r="134" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G134" s="93" t="s">
+      <c r="G134" s="98" t="s">
         <v>185</v>
       </c>
       <c r="H134" s="20" t="s">
@@ -27321,7 +27322,7 @@
       <c r="Q134" s="25"/>
     </row>
     <row r="135" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G135" s="93"/>
+      <c r="G135" s="98"/>
       <c r="H135" s="20" t="s">
         <v>292</v>
       </c>
@@ -27340,7 +27341,7 @@
       <c r="Q135" s="25"/>
     </row>
     <row r="136" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G136" s="93"/>
+      <c r="G136" s="98"/>
       <c r="H136" s="20" t="s">
         <v>293</v>
       </c>
@@ -27375,10 +27376,10 @@
       <c r="Q137" s="25"/>
     </row>
     <row r="138" spans="7:17" ht="21" x14ac:dyDescent="0.2">
-      <c r="G138" s="99" t="s">
+      <c r="G138" s="96" t="s">
         <v>377</v>
       </c>
-      <c r="H138" s="100"/>
+      <c r="H138" s="97"/>
       <c r="I138" s="25"/>
       <c r="J138" s="25"/>
       <c r="K138" s="20" t="s">
@@ -27394,10 +27395,10 @@
       <c r="Q138" s="25"/>
     </row>
     <row r="139" spans="7:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="G139" s="97" t="s">
+      <c r="G139" s="94" t="s">
         <v>410</v>
       </c>
-      <c r="H139" s="98"/>
+      <c r="H139" s="95"/>
       <c r="I139" s="25"/>
       <c r="J139" s="25"/>
       <c r="K139" s="20" t="s">
@@ -27690,6 +27691,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C14:D20"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="G130:G132"/>
+    <mergeCell ref="G126:G128"/>
+    <mergeCell ref="G122:G124"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G50:G52"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="G139:H139"/>
     <mergeCell ref="G138:H138"/>
@@ -27706,32 +27733,6 @@
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="G130:G132"/>
-    <mergeCell ref="G126:G128"/>
-    <mergeCell ref="G122:G124"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="C14:D20"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="E14:E20"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27742,7 +27743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE669EB-9A75-B741-9919-5DF03557E885}">
   <dimension ref="A1:BO166"/>
   <sheetViews>
-    <sheetView topLeftCell="BG4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="BG1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="BJ14" sqref="BJ14"/>
     </sheetView>
   </sheetViews>
@@ -27772,70 +27773,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="124" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="127" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="107"/>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="107"/>
-      <c r="AR1" s="107"/>
-      <c r="AS1" s="107"/>
-      <c r="AT1" s="107"/>
-      <c r="AU1" s="107"/>
-      <c r="AV1" s="107"/>
-      <c r="AW1" s="107"/>
-      <c r="AX1" s="107"/>
-      <c r="AY1" s="107"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="127"/>
+      <c r="AI1" s="127"/>
+      <c r="AJ1" s="127"/>
+      <c r="AK1" s="127"/>
+      <c r="AL1" s="127"/>
+      <c r="AM1" s="127"/>
+      <c r="AN1" s="127"/>
+      <c r="AO1" s="127"/>
+      <c r="AP1" s="127"/>
+      <c r="AQ1" s="127"/>
+      <c r="AR1" s="127"/>
+      <c r="AS1" s="127"/>
+      <c r="AT1" s="127"/>
+      <c r="AU1" s="127"/>
+      <c r="AV1" s="127"/>
+      <c r="AW1" s="127"/>
+      <c r="AX1" s="127"/>
+      <c r="AY1" s="127"/>
       <c r="AZ1" s="45"/>
-      <c r="BA1" s="78" t="s">
+      <c r="BA1" s="79" t="s">
         <v>432</v>
       </c>
-      <c r="BB1" s="78"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="78"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="79"/>
       <c r="BE1" s="45"/>
-      <c r="BF1" s="79" t="s">
+      <c r="BF1" s="80" t="s">
         <v>437</v>
       </c>
       <c r="BG1" s="45"/>
@@ -27844,72 +27845,72 @@
       <c r="BJ1" s="6"/>
     </row>
     <row r="2" spans="1:67" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="107"/>
-      <c r="AR2" s="107"/>
-      <c r="AS2" s="107"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="127"/>
+      <c r="AH2" s="127"/>
+      <c r="AI2" s="127"/>
+      <c r="AJ2" s="127"/>
+      <c r="AK2" s="127"/>
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="127"/>
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="127"/>
+      <c r="AQ2" s="127"/>
+      <c r="AR2" s="127"/>
+      <c r="AS2" s="127"/>
+      <c r="AT2" s="127"/>
+      <c r="AU2" s="127"/>
+      <c r="AV2" s="127"/>
+      <c r="AW2" s="127"/>
+      <c r="AX2" s="127"/>
+      <c r="AY2" s="127"/>
       <c r="AZ2" s="45"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="78"/>
-      <c r="BC2" s="78"/>
-      <c r="BD2" s="78"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="79"/>
+      <c r="BD2" s="79"/>
       <c r="BE2" s="45"/>
-      <c r="BF2" s="79"/>
+      <c r="BF2" s="80"/>
       <c r="BG2" s="45"/>
-      <c r="BH2" s="125" t="s">
+      <c r="BH2" s="107" t="s">
         <v>599</v>
       </c>
-      <c r="BI2" s="126"/>
-      <c r="BJ2" s="126"/>
-      <c r="BK2" s="126"/>
-      <c r="BL2" s="127"/>
+      <c r="BI2" s="108"/>
+      <c r="BJ2" s="108"/>
+      <c r="BK2" s="108"/>
+      <c r="BL2" s="109"/>
     </row>
     <row r="3" spans="1:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -27926,74 +27927,74 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="121" t="s">
+      <c r="G3" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
       <c r="Q3" s="34"/>
-      <c r="R3" s="121" t="s">
+      <c r="R3" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
       <c r="AB3" s="34"/>
-      <c r="AC3" s="122" t="s">
+      <c r="AC3" s="128" t="s">
         <v>219</v>
       </c>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="123"/>
-      <c r="AM3" s="123"/>
-      <c r="AN3" s="124"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="129"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="129"/>
+      <c r="AJ3" s="129"/>
+      <c r="AK3" s="129"/>
+      <c r="AL3" s="129"/>
+      <c r="AM3" s="129"/>
+      <c r="AN3" s="130"/>
       <c r="AO3" s="34"/>
-      <c r="AP3" s="121" t="s">
+      <c r="AP3" s="126" t="s">
         <v>225</v>
       </c>
-      <c r="AQ3" s="121"/>
-      <c r="AR3" s="121"/>
-      <c r="AS3" s="121"/>
-      <c r="AT3" s="121"/>
-      <c r="AU3" s="121"/>
-      <c r="AV3" s="121"/>
-      <c r="AW3" s="121"/>
-      <c r="AX3" s="121"/>
-      <c r="AY3" s="121"/>
+      <c r="AQ3" s="126"/>
+      <c r="AR3" s="126"/>
+      <c r="AS3" s="126"/>
+      <c r="AT3" s="126"/>
+      <c r="AU3" s="126"/>
+      <c r="AV3" s="126"/>
+      <c r="AW3" s="126"/>
+      <c r="AX3" s="126"/>
+      <c r="AY3" s="126"/>
       <c r="AZ3" s="44"/>
-      <c r="BA3" s="80" t="s">
+      <c r="BA3" s="81" t="s">
         <v>433</v>
       </c>
-      <c r="BB3" s="80"/>
-      <c r="BC3" s="80"/>
-      <c r="BD3" s="80"/>
+      <c r="BB3" s="81"/>
+      <c r="BC3" s="81"/>
+      <c r="BD3" s="81"/>
       <c r="BE3" s="44"/>
       <c r="BF3" s="59"/>
       <c r="BG3" s="44"/>
-      <c r="BH3" s="128"/>
-      <c r="BI3" s="129"/>
-      <c r="BJ3" s="129"/>
-      <c r="BK3" s="129"/>
-      <c r="BL3" s="130"/>
+      <c r="BH3" s="110"/>
+      <c r="BI3" s="111"/>
+      <c r="BJ3" s="111"/>
+      <c r="BK3" s="111"/>
+      <c r="BL3" s="112"/>
     </row>
     <row r="4" spans="1:67" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
@@ -28323,13 +28324,13 @@
         <v>441</v>
       </c>
       <c r="BG5" s="33"/>
-      <c r="BH5" s="131"/>
-      <c r="BI5" s="133" t="s">
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="115" t="s">
         <v>566</v>
       </c>
-      <c r="BJ5" s="134"/>
-      <c r="BK5" s="134"/>
-      <c r="BL5" s="135"/>
+      <c r="BJ5" s="116"/>
+      <c r="BK5" s="116"/>
+      <c r="BL5" s="117"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
@@ -28491,11 +28492,11 @@
       <c r="BE6" s="33"/>
       <c r="BF6" s="54"/>
       <c r="BG6" s="33"/>
-      <c r="BH6" s="132"/>
-      <c r="BI6" s="136"/>
-      <c r="BJ6" s="137"/>
-      <c r="BK6" s="137"/>
-      <c r="BL6" s="138"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="118"/>
+      <c r="BJ6" s="119"/>
+      <c r="BK6" s="119"/>
+      <c r="BL6" s="120"/>
       <c r="BN6" s="32" t="s">
         <v>576</v>
       </c>
@@ -28663,7 +28664,7 @@
         <v>31</v>
       </c>
       <c r="BG7" s="33"/>
-      <c r="BH7" s="139" t="s">
+      <c r="BH7" s="121" t="s">
         <v>567</v>
       </c>
       <c r="BI7" s="9"/>
@@ -28845,7 +28846,7 @@
         <v>442</v>
       </c>
       <c r="BG8" s="33"/>
-      <c r="BH8" s="140"/>
+      <c r="BH8" s="122"/>
       <c r="BI8" s="68" t="s">
         <v>7</v>
       </c>
@@ -29025,7 +29026,7 @@
       <c r="BE9" s="33"/>
       <c r="BF9" s="54"/>
       <c r="BG9" s="33"/>
-      <c r="BH9" s="140"/>
+      <c r="BH9" s="122"/>
       <c r="BI9" s="67" t="s">
         <v>10</v>
       </c>
@@ -29207,7 +29208,7 @@
         <v>439</v>
       </c>
       <c r="BG10" s="33"/>
-      <c r="BH10" s="141"/>
+      <c r="BH10" s="123"/>
       <c r="BI10" s="67" t="s">
         <v>11</v>
       </c>
@@ -29553,7 +29554,7 @@
       <c r="BE12" s="33"/>
       <c r="BF12" s="54"/>
       <c r="BG12" s="33"/>
-      <c r="BH12" s="106" t="s">
+      <c r="BH12" s="142" t="s">
         <v>7</v>
       </c>
       <c r="BI12" s="51" t="s">
@@ -29723,7 +29724,7 @@
         <v>51</v>
       </c>
       <c r="BG13" s="33"/>
-      <c r="BH13" s="106"/>
+      <c r="BH13" s="142"/>
       <c r="BI13" s="65">
         <v>2</v>
       </c>
@@ -29891,7 +29892,7 @@
         <v>443</v>
       </c>
       <c r="BG14" s="33"/>
-      <c r="BH14" s="106" t="s">
+      <c r="BH14" s="142" t="s">
         <v>10</v>
       </c>
       <c r="BI14" s="69" t="s">
@@ -29908,12 +29909,12 @@
       </c>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="35" t="s">
@@ -30061,7 +30062,7 @@
       <c r="BE15" s="33"/>
       <c r="BF15" s="54"/>
       <c r="BG15" s="33"/>
-      <c r="BH15" s="106"/>
+      <c r="BH15" s="142"/>
       <c r="BI15" s="65">
         <v>1</v>
       </c>
@@ -30076,10 +30077,10 @@
       </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A16" s="118"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="35" t="s">
@@ -30229,7 +30230,7 @@
         <v>440</v>
       </c>
       <c r="BG16" s="33"/>
-      <c r="BH16" s="106" t="s">
+      <c r="BH16" s="142" t="s">
         <v>11</v>
       </c>
       <c r="BI16" s="51" t="s">
@@ -30407,7 +30408,7 @@
         <v>444</v>
       </c>
       <c r="BG17" s="33"/>
-      <c r="BH17" s="106"/>
+      <c r="BH17" s="142"/>
       <c r="BI17" s="65">
         <v>1</v>
       </c>
@@ -30750,12 +30751,12 @@
       <c r="BH19" s="66" t="s">
         <v>577</v>
       </c>
-      <c r="BI19" s="105" t="s">
+      <c r="BI19" s="106" t="s">
         <v>578</v>
       </c>
-      <c r="BJ19" s="105"/>
-      <c r="BK19" s="105"/>
-      <c r="BL19" s="105"/>
+      <c r="BJ19" s="106"/>
+      <c r="BK19" s="106"/>
+      <c r="BL19" s="106"/>
       <c r="BM19" s="20">
         <f>4/5</f>
         <v>0.8</v>
@@ -30926,12 +30927,12 @@
       <c r="BH20" s="66" t="s">
         <v>579</v>
       </c>
-      <c r="BI20" s="105" t="s">
+      <c r="BI20" s="106" t="s">
         <v>582</v>
       </c>
-      <c r="BJ20" s="105"/>
-      <c r="BK20" s="105"/>
-      <c r="BL20" s="105"/>
+      <c r="BJ20" s="106"/>
+      <c r="BK20" s="106"/>
+      <c r="BL20" s="106"/>
       <c r="BM20" s="20">
         <f>2/3</f>
         <v>0.66666666666666663</v>
@@ -31100,12 +31101,12 @@
       <c r="BH21" s="66" t="s">
         <v>580</v>
       </c>
-      <c r="BI21" s="105" t="s">
+      <c r="BI21" s="106" t="s">
         <v>583</v>
       </c>
-      <c r="BJ21" s="105"/>
-      <c r="BK21" s="105"/>
-      <c r="BL21" s="105"/>
+      <c r="BJ21" s="106"/>
+      <c r="BK21" s="106"/>
+      <c r="BL21" s="106"/>
       <c r="BM21" s="20">
         <v>1</v>
       </c>
@@ -31275,12 +31276,12 @@
       <c r="BH22" s="66" t="s">
         <v>581</v>
       </c>
-      <c r="BI22" s="105" t="s">
+      <c r="BI22" s="106" t="s">
         <v>583</v>
       </c>
-      <c r="BJ22" s="105"/>
-      <c r="BK22" s="105"/>
-      <c r="BL22" s="105"/>
+      <c r="BJ22" s="106"/>
+      <c r="BK22" s="106"/>
+      <c r="BL22" s="106"/>
       <c r="BM22" s="20">
         <v>1</v>
       </c>
@@ -31450,12 +31451,12 @@
       <c r="BH23" s="66" t="s">
         <v>584</v>
       </c>
-      <c r="BI23" s="105" t="s">
+      <c r="BI23" s="106" t="s">
         <v>587</v>
       </c>
-      <c r="BJ23" s="105"/>
-      <c r="BK23" s="105"/>
-      <c r="BL23" s="105"/>
+      <c r="BJ23" s="106"/>
+      <c r="BK23" s="106"/>
+      <c r="BL23" s="106"/>
       <c r="BM23" s="20">
         <v>1</v>
       </c>
@@ -31625,12 +31626,12 @@
       <c r="BH24" s="66" t="s">
         <v>585</v>
       </c>
-      <c r="BI24" s="105" t="s">
+      <c r="BI24" s="106" t="s">
         <v>587</v>
       </c>
-      <c r="BJ24" s="105"/>
-      <c r="BK24" s="105"/>
-      <c r="BL24" s="105"/>
+      <c r="BJ24" s="106"/>
+      <c r="BK24" s="106"/>
+      <c r="BL24" s="106"/>
       <c r="BM24" s="20">
         <v>1</v>
       </c>
@@ -31798,12 +31799,12 @@
       <c r="BH25" s="66" t="s">
         <v>586</v>
       </c>
-      <c r="BI25" s="105" t="s">
+      <c r="BI25" s="106" t="s">
         <v>588</v>
       </c>
-      <c r="BJ25" s="105"/>
-      <c r="BK25" s="105"/>
-      <c r="BL25" s="105"/>
+      <c r="BJ25" s="106"/>
+      <c r="BK25" s="106"/>
+      <c r="BL25" s="106"/>
       <c r="BM25" s="20">
         <f>1/2</f>
         <v>0.5</v>
@@ -31974,12 +31975,12 @@
       <c r="BH26" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="BI26" s="105" t="s">
+      <c r="BI26" s="106" t="s">
         <v>592</v>
       </c>
-      <c r="BJ26" s="105"/>
-      <c r="BK26" s="105"/>
-      <c r="BL26" s="105"/>
+      <c r="BJ26" s="106"/>
+      <c r="BK26" s="106"/>
+      <c r="BL26" s="106"/>
       <c r="BM26" s="20">
         <f>2/3</f>
         <v>0.66666666666666663</v>
@@ -32142,12 +32143,12 @@
       <c r="BH27" s="66" t="s">
         <v>590</v>
       </c>
-      <c r="BI27" s="105" t="s">
+      <c r="BI27" s="106" t="s">
         <v>593</v>
       </c>
-      <c r="BJ27" s="105"/>
-      <c r="BK27" s="105"/>
-      <c r="BL27" s="105"/>
+      <c r="BJ27" s="106"/>
+      <c r="BK27" s="106"/>
+      <c r="BL27" s="106"/>
       <c r="BM27" s="20">
         <v>1</v>
       </c>
@@ -32309,23 +32310,23 @@
       <c r="BH28" s="66" t="s">
         <v>591</v>
       </c>
-      <c r="BI28" s="105" t="s">
+      <c r="BI28" s="106" t="s">
         <v>594</v>
       </c>
-      <c r="BJ28" s="105"/>
-      <c r="BK28" s="105"/>
-      <c r="BL28" s="105"/>
+      <c r="BJ28" s="106"/>
+      <c r="BK28" s="106"/>
+      <c r="BL28" s="106"/>
       <c r="BM28" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="117"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="35" t="s">
@@ -32476,22 +32477,22 @@
       <c r="BH29" s="66" t="s">
         <v>595</v>
       </c>
-      <c r="BI29" s="105" t="s">
+      <c r="BI29" s="106" t="s">
         <v>598</v>
       </c>
-      <c r="BJ29" s="105"/>
-      <c r="BK29" s="105"/>
-      <c r="BL29" s="105"/>
+      <c r="BJ29" s="106"/>
+      <c r="BK29" s="106"/>
+      <c r="BL29" s="106"/>
       <c r="BM29" s="20">
         <f>2*(BM20*BM23)/(BM20+BM23)</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A30" s="118"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="35" t="s">
@@ -32644,12 +32645,12 @@
       <c r="BH30" s="66" t="s">
         <v>596</v>
       </c>
-      <c r="BI30" s="105" t="s">
+      <c r="BI30" s="106" t="s">
         <v>598</v>
       </c>
-      <c r="BJ30" s="105"/>
-      <c r="BK30" s="105"/>
-      <c r="BL30" s="105"/>
+      <c r="BJ30" s="106"/>
+      <c r="BK30" s="106"/>
+      <c r="BL30" s="106"/>
       <c r="BM30" s="20">
         <f>2*(BM21*BM24)/(BM21+BM24)</f>
         <v>1</v>
@@ -32820,12 +32821,12 @@
       <c r="BH31" s="66" t="s">
         <v>597</v>
       </c>
-      <c r="BI31" s="105" t="s">
+      <c r="BI31" s="106" t="s">
         <v>598</v>
       </c>
-      <c r="BJ31" s="105"/>
-      <c r="BK31" s="105"/>
-      <c r="BL31" s="105"/>
+      <c r="BJ31" s="106"/>
+      <c r="BK31" s="106"/>
+      <c r="BL31" s="106"/>
       <c r="BM31" s="20">
         <f>2*(BM22*BM25)/(BM22+BM25)</f>
         <v>0.66666666666666663</v>
@@ -34634,12 +34635,12 @@
       <c r="BJ42" s="6"/>
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A43" s="107" t="s">
+      <c r="A43" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="127"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="35" t="s">
@@ -34794,10 +34795,10 @@
       <c r="BJ43" s="6"/>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A44" s="107"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="35" t="s">
@@ -36762,12 +36763,12 @@
       <c r="BJ55" s="6"/>
     </row>
     <row r="56" spans="1:62" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="119" t="s">
+      <c r="A56" s="140" t="s">
         <v>411</v>
       </c>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="140"/>
       <c r="E56" s="25"/>
       <c r="F56" s="6"/>
       <c r="G56" s="35" t="s">
@@ -36922,10 +36923,10 @@
       <c r="BJ56" s="6"/>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A57" s="119"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
+      <c r="A57" s="140"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
       <c r="E57" s="25"/>
       <c r="F57" s="6"/>
       <c r="G57" s="35" t="s">
@@ -37080,12 +37081,12 @@
       <c r="BJ57" s="6"/>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A58" s="120" t="s">
+      <c r="A58" s="141" t="s">
         <v>379</v>
       </c>
-      <c r="B58" s="120"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="120"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="141"/>
       <c r="E58" s="25"/>
       <c r="F58" s="6"/>
       <c r="G58" s="35" t="s">
@@ -37546,12 +37547,12 @@
       <c r="BJ60" s="6"/>
     </row>
     <row r="61" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A61" s="107" t="s">
+      <c r="A61" s="127" t="s">
         <v>378</v>
       </c>
-      <c r="B61" s="107"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="127"/>
       <c r="E61" s="25"/>
       <c r="F61" s="6"/>
       <c r="G61" s="35" t="s">
@@ -37706,10 +37707,10 @@
       <c r="BJ61" s="6"/>
     </row>
     <row r="62" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A62" s="107"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="107"/>
+      <c r="A62" s="127"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="127"/>
       <c r="E62" s="25"/>
       <c r="F62" s="6"/>
       <c r="G62" s="35" t="s">
@@ -39832,12 +39833,12 @@
       <c r="BJ74" s="6"/>
     </row>
     <row r="75" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A75" s="107" t="s">
+      <c r="A75" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="107"/>
-      <c r="C75" s="107"/>
-      <c r="D75" s="107"/>
+      <c r="B75" s="127"/>
+      <c r="C75" s="127"/>
+      <c r="D75" s="127"/>
       <c r="E75" s="25"/>
       <c r="F75" s="6"/>
       <c r="G75" s="35" t="s">
@@ -39990,10 +39991,10 @@
       <c r="BJ75" s="6"/>
     </row>
     <row r="76" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A76" s="107"/>
-      <c r="B76" s="107"/>
-      <c r="C76" s="107"/>
-      <c r="D76" s="107"/>
+      <c r="A76" s="127"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="127"/>
+      <c r="D76" s="127"/>
       <c r="E76" s="25"/>
       <c r="F76" s="6"/>
       <c r="G76" s="35" t="s">
@@ -42267,11 +42268,11 @@
     </row>
     <row r="90" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
-      <c r="B90" s="108" t="s">
+      <c r="B90" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="109"/>
-      <c r="D90" s="114" t="s">
+      <c r="C90" s="132"/>
+      <c r="D90" s="137" t="s">
         <v>397</v>
       </c>
       <c r="G90" s="42" t="s">
@@ -42421,9 +42422,9 @@
     </row>
     <row r="91" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
-      <c r="B91" s="110"/>
-      <c r="C91" s="111"/>
-      <c r="D91" s="115"/>
+      <c r="B91" s="133"/>
+      <c r="C91" s="134"/>
+      <c r="D91" s="138"/>
       <c r="G91" s="42" t="s">
         <v>282</v>
       </c>
@@ -42569,9 +42570,9 @@
     </row>
     <row r="92" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
-      <c r="B92" s="110"/>
-      <c r="C92" s="111"/>
-      <c r="D92" s="115"/>
+      <c r="B92" s="133"/>
+      <c r="C92" s="134"/>
+      <c r="D92" s="138"/>
       <c r="G92" s="42" t="s">
         <v>175</v>
       </c>
@@ -42718,9 +42719,9 @@
       </c>
     </row>
     <row r="93" spans="1:62" ht="17" x14ac:dyDescent="0.2">
-      <c r="B93" s="110"/>
-      <c r="C93" s="111"/>
-      <c r="D93" s="115"/>
+      <c r="B93" s="133"/>
+      <c r="C93" s="134"/>
+      <c r="D93" s="138"/>
       <c r="G93" s="42" t="s">
         <v>283</v>
       </c>
@@ -42867,9 +42868,9 @@
       </c>
     </row>
     <row r="94" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B94" s="110"/>
-      <c r="C94" s="111"/>
-      <c r="D94" s="115"/>
+      <c r="B94" s="133"/>
+      <c r="C94" s="134"/>
+      <c r="D94" s="138"/>
       <c r="G94" s="42" t="s">
         <v>176</v>
       </c>
@@ -43016,9 +43017,9 @@
       </c>
     </row>
     <row r="95" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B95" s="110"/>
-      <c r="C95" s="111"/>
-      <c r="D95" s="115"/>
+      <c r="B95" s="133"/>
+      <c r="C95" s="134"/>
+      <c r="D95" s="138"/>
       <c r="G95" s="42" t="s">
         <v>177</v>
       </c>
@@ -43163,9 +43164,9 @@
       <c r="BF95" s="54"/>
     </row>
     <row r="96" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B96" s="112"/>
-      <c r="C96" s="113"/>
-      <c r="D96" s="116"/>
+      <c r="B96" s="135"/>
+      <c r="C96" s="136"/>
+      <c r="D96" s="139"/>
       <c r="G96" s="42" t="s">
         <v>178</v>
       </c>
@@ -46616,30 +46617,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="BF1:BF2"/>
-    <mergeCell ref="BA1:BD2"/>
-    <mergeCell ref="BA3:BD3"/>
-    <mergeCell ref="BI29:BL29"/>
-    <mergeCell ref="BI30:BL30"/>
-    <mergeCell ref="BH2:BL3"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BL6"/>
-    <mergeCell ref="BH7:BH10"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G3:P3"/>
-    <mergeCell ref="G1:AY2"/>
-    <mergeCell ref="AP3:AY3"/>
-    <mergeCell ref="A15:D16"/>
-    <mergeCell ref="R3:AA3"/>
-    <mergeCell ref="AC3:AN3"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="B90:C96"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="A56:D57"/>
-    <mergeCell ref="A58:D58"/>
     <mergeCell ref="BI31:BL31"/>
     <mergeCell ref="BH12:BH13"/>
     <mergeCell ref="BH14:BH15"/>
@@ -46654,6 +46631,30 @@
     <mergeCell ref="BI23:BL23"/>
     <mergeCell ref="BI24:BL24"/>
     <mergeCell ref="BI25:BL25"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="B90:C96"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="G1:AY2"/>
+    <mergeCell ref="AP3:AY3"/>
+    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="R3:AA3"/>
+    <mergeCell ref="AC3:AN3"/>
+    <mergeCell ref="BF1:BF2"/>
+    <mergeCell ref="BA1:BD2"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="BI29:BL29"/>
+    <mergeCell ref="BI30:BL30"/>
+    <mergeCell ref="BH2:BL3"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BL6"/>
+    <mergeCell ref="BH7:BH10"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code/skripsi.xlsx
+++ b/Code/skripsi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radityarin/Documents/Kuliah/Skripsi/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AA94CD-D701-4746-8876-5C804AA52055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A803063-AD2C-A54F-962E-5626D0C2CDE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" activeTab="2" xr2:uid="{3413B29C-560F-AE4D-9915-B4DC0247194E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{3413B29C-560F-AE4D-9915-B4DC0247194E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Utama Pilihan" sheetId="2" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7780" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7785" uniqueCount="1293">
   <si>
     <t>No</t>
   </si>
@@ -4326,6 +4326,21 @@
   </si>
   <si>
     <t>Apa saya saja yang merasa kalau selama kuliah daring nyaman banget sampai saya tidak ingin masuk kuliah karena takut panik</t>
+  </si>
+  <si>
+    <t>Pakar 1</t>
+  </si>
+  <si>
+    <t>Pakar 2</t>
+  </si>
+  <si>
+    <t>Pakar 3</t>
+  </si>
+  <si>
+    <t>Pakar 4</t>
+  </si>
+  <si>
+    <t>Pakar 5</t>
   </si>
 </sst>
 </file>
@@ -5045,6 +5060,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5066,9 +5093,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5081,17 +5105,65 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5142,63 +5214,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5544,10 +5559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D895E53-141D-0E4E-8B10-C16E118F9F44}">
-  <dimension ref="A1:D390"/>
+  <dimension ref="A1:I390"/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="119" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5557,7 +5572,7 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5568,10 +5583,25 @@
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5581,11 +5611,11 @@
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5595,11 +5625,11 @@
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5609,11 +5639,11 @@
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5623,11 +5653,11 @@
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -5637,11 +5667,11 @@
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5651,11 +5681,11 @@
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5665,11 +5695,11 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5679,11 +5709,11 @@
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -5693,11 +5723,11 @@
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5707,11 +5737,11 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5721,11 +5751,11 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5735,11 +5765,11 @@
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5750,7 +5780,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5761,7 +5791,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -8973,7 +9003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BB73E9-FE86-F745-AFC1-C4A855B70330}">
   <dimension ref="C6:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+    <sheetView topLeftCell="A105" workbookViewId="0">
       <selection activeCell="E124" sqref="B6:E124"/>
     </sheetView>
   </sheetViews>
@@ -24646,24 +24676,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="95" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="G1" s="99" t="s">
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="G1" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="99"/>
+      <c r="H1" s="102"/>
     </row>
     <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
@@ -24688,16 +24718,16 @@
       <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="105" t="s">
         <v>376</v>
       </c>
-      <c r="H3" s="102"/>
+      <c r="H3" s="105"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
-      <c r="K3" s="103" t="s">
+      <c r="K3" s="91" t="s">
         <v>320</v>
       </c>
-      <c r="L3" s="103"/>
+      <c r="L3" s="91"/>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
@@ -24720,8 +24750,8 @@
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
@@ -24741,10 +24771,10 @@
       <c r="E5" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="100" t="s">
+      <c r="G5" s="103" t="s">
         <v>375</v>
       </c>
-      <c r="H5" s="101"/>
+      <c r="H5" s="104"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="20" t="s">
@@ -24772,7 +24802,7 @@
       <c r="E6" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="92" t="s">
         <v>280</v>
       </c>
       <c r="H6" s="29" t="s">
@@ -24805,7 +24835,7 @@
       <c r="E7" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="105"/>
+      <c r="G7" s="93"/>
       <c r="H7" s="20" t="s">
         <v>292</v>
       </c>
@@ -24836,7 +24866,7 @@
       <c r="E8" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="105"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="20" t="s">
         <v>293</v>
       </c>
@@ -24896,7 +24926,7 @@
       <c r="E10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="98" t="s">
+      <c r="G10" s="94" t="s">
         <v>173</v>
       </c>
       <c r="H10" s="20" t="s">
@@ -24929,7 +24959,7 @@
       <c r="E11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="98"/>
+      <c r="G11" s="94"/>
       <c r="H11" s="20" t="s">
         <v>292</v>
       </c>
@@ -24960,7 +24990,7 @@
       <c r="E12" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="98"/>
+      <c r="G12" s="94"/>
       <c r="H12" s="20" t="s">
         <v>293</v>
       </c>
@@ -25003,7 +25033,7 @@
       <c r="E14" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="98" t="s">
+      <c r="G14" s="94" t="s">
         <v>110</v>
       </c>
       <c r="H14" s="20" t="s">
@@ -25027,7 +25057,7 @@
       <c r="C15" s="82"/>
       <c r="D15" s="82"/>
       <c r="E15" s="83"/>
-      <c r="G15" s="98"/>
+      <c r="G15" s="94"/>
       <c r="H15" s="20" t="s">
         <v>294</v>
       </c>
@@ -25049,7 +25079,7 @@
       <c r="C16" s="82"/>
       <c r="D16" s="82"/>
       <c r="E16" s="83"/>
-      <c r="G16" s="98"/>
+      <c r="G16" s="94"/>
       <c r="H16" s="20" t="s">
         <v>295</v>
       </c>
@@ -25091,7 +25121,7 @@
       <c r="C18" s="82"/>
       <c r="D18" s="82"/>
       <c r="E18" s="83"/>
-      <c r="G18" s="98" t="s">
+      <c r="G18" s="94" t="s">
         <v>245</v>
       </c>
       <c r="H18" s="20" t="s">
@@ -25115,7 +25145,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="82"/>
       <c r="E19" s="83"/>
-      <c r="G19" s="98"/>
+      <c r="G19" s="94"/>
       <c r="H19" s="20" t="s">
         <v>297</v>
       </c>
@@ -25137,7 +25167,7 @@
       <c r="C20" s="82"/>
       <c r="D20" s="82"/>
       <c r="E20" s="83"/>
-      <c r="G20" s="98"/>
+      <c r="G20" s="94"/>
       <c r="H20" s="20" t="s">
         <v>298</v>
       </c>
@@ -25173,7 +25203,7 @@
       <c r="Q21" s="25"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G22" s="98" t="s">
+      <c r="G22" s="94" t="s">
         <v>124</v>
       </c>
       <c r="H22" s="20" t="s">
@@ -25194,7 +25224,7 @@
       <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G23" s="98"/>
+      <c r="G23" s="94"/>
       <c r="H23" s="20" t="s">
         <v>299</v>
       </c>
@@ -25213,7 +25243,7 @@
       <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G24" s="98"/>
+      <c r="G24" s="94"/>
       <c r="H24" s="20" t="s">
         <v>300</v>
       </c>
@@ -25249,7 +25279,7 @@
       <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G26" s="98" t="s">
+      <c r="G26" s="94" t="s">
         <v>248</v>
       </c>
       <c r="H26" s="20" t="s">
@@ -25270,7 +25300,7 @@
       <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G27" s="98"/>
+      <c r="G27" s="94"/>
       <c r="H27" s="20" t="s">
         <v>301</v>
       </c>
@@ -25289,7 +25319,7 @@
       <c r="Q27" s="25"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G28" s="98"/>
+      <c r="G28" s="94"/>
       <c r="H28" s="20" t="s">
         <v>302</v>
       </c>
@@ -25325,7 +25355,7 @@
       <c r="Q29" s="25"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G30" s="98" t="s">
+      <c r="G30" s="94" t="s">
         <v>174</v>
       </c>
       <c r="H30" s="20" t="s">
@@ -25346,7 +25376,7 @@
       <c r="Q30" s="25"/>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G31" s="98"/>
+      <c r="G31" s="94"/>
       <c r="H31" s="20" t="s">
         <v>292</v>
       </c>
@@ -25365,7 +25395,7 @@
       <c r="Q31" s="25"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G32" s="98"/>
+      <c r="G32" s="94"/>
       <c r="H32" s="20" t="s">
         <v>293</v>
       </c>
@@ -25401,7 +25431,7 @@
       <c r="Q33" s="25"/>
     </row>
     <row r="34" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G34" s="98" t="s">
+      <c r="G34" s="94" t="s">
         <v>244</v>
       </c>
       <c r="H34" s="20" t="s">
@@ -25422,7 +25452,7 @@
       <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G35" s="98"/>
+      <c r="G35" s="94"/>
       <c r="H35" s="20" t="s">
         <v>303</v>
       </c>
@@ -25441,7 +25471,7 @@
       <c r="Q35" s="25"/>
     </row>
     <row r="36" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G36" s="98"/>
+      <c r="G36" s="94"/>
       <c r="H36" s="20" t="s">
         <v>304</v>
       </c>
@@ -25477,7 +25507,7 @@
       <c r="Q37" s="25"/>
     </row>
     <row r="38" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G38" s="98" t="s">
+      <c r="G38" s="94" t="s">
         <v>154</v>
       </c>
       <c r="H38" s="20" t="s">
@@ -25498,7 +25528,7 @@
       <c r="Q38" s="25"/>
     </row>
     <row r="39" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G39" s="98"/>
+      <c r="G39" s="94"/>
       <c r="H39" s="20" t="s">
         <v>297</v>
       </c>
@@ -25517,7 +25547,7 @@
       <c r="Q39" s="25"/>
     </row>
     <row r="40" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G40" s="98"/>
+      <c r="G40" s="94"/>
       <c r="H40" s="20" t="s">
         <v>305</v>
       </c>
@@ -25553,7 +25583,7 @@
       <c r="Q41" s="25"/>
     </row>
     <row r="42" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G42" s="98" t="s">
+      <c r="G42" s="94" t="s">
         <v>281</v>
       </c>
       <c r="H42" s="20" t="s">
@@ -25574,7 +25604,7 @@
       <c r="Q42" s="25"/>
     </row>
     <row r="43" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G43" s="98"/>
+      <c r="G43" s="94"/>
       <c r="H43" s="20" t="s">
         <v>292</v>
       </c>
@@ -25593,7 +25623,7 @@
       <c r="Q43" s="25"/>
     </row>
     <row r="44" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G44" s="98"/>
+      <c r="G44" s="94"/>
       <c r="H44" s="20" t="s">
         <v>293</v>
       </c>
@@ -25629,7 +25659,7 @@
       <c r="Q45" s="25"/>
     </row>
     <row r="46" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G46" s="98" t="s">
+      <c r="G46" s="94" t="s">
         <v>282</v>
       </c>
       <c r="H46" s="20" t="s">
@@ -25650,7 +25680,7 @@
       <c r="Q46" s="25"/>
     </row>
     <row r="47" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G47" s="98"/>
+      <c r="G47" s="94"/>
       <c r="H47" s="20" t="s">
         <v>292</v>
       </c>
@@ -25669,7 +25699,7 @@
       <c r="Q47" s="25"/>
     </row>
     <row r="48" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G48" s="98"/>
+      <c r="G48" s="94"/>
       <c r="H48" s="20" t="s">
         <v>293</v>
       </c>
@@ -25705,7 +25735,7 @@
       <c r="Q49" s="25"/>
     </row>
     <row r="50" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G50" s="98" t="s">
+      <c r="G50" s="94" t="s">
         <v>277</v>
       </c>
       <c r="H50" s="20" t="s">
@@ -25726,7 +25756,7 @@
       <c r="Q50" s="25"/>
     </row>
     <row r="51" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G51" s="98"/>
+      <c r="G51" s="94"/>
       <c r="H51" s="20" t="s">
         <v>306</v>
       </c>
@@ -25745,7 +25775,7 @@
       <c r="Q51" s="25"/>
     </row>
     <row r="52" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G52" s="98"/>
+      <c r="G52" s="94"/>
       <c r="H52" s="20" t="s">
         <v>307</v>
       </c>
@@ -25781,7 +25811,7 @@
       <c r="Q53" s="25"/>
     </row>
     <row r="54" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G54" s="98" t="s">
+      <c r="G54" s="94" t="s">
         <v>163</v>
       </c>
       <c r="H54" s="20" t="s">
@@ -25802,7 +25832,7 @@
       <c r="Q54" s="25"/>
     </row>
     <row r="55" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G55" s="98"/>
+      <c r="G55" s="94"/>
       <c r="H55" s="20" t="s">
         <v>306</v>
       </c>
@@ -25821,7 +25851,7 @@
       <c r="Q55" s="25"/>
     </row>
     <row r="56" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G56" s="98"/>
+      <c r="G56" s="94"/>
       <c r="H56" s="20" t="s">
         <v>307</v>
       </c>
@@ -25857,7 +25887,7 @@
       <c r="Q57" s="25"/>
     </row>
     <row r="58" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G58" s="98" t="s">
+      <c r="G58" s="94" t="s">
         <v>175</v>
       </c>
       <c r="H58" s="20" t="s">
@@ -25878,7 +25908,7 @@
       <c r="Q58" s="25"/>
     </row>
     <row r="59" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G59" s="98"/>
+      <c r="G59" s="94"/>
       <c r="H59" s="20" t="s">
         <v>292</v>
       </c>
@@ -25897,7 +25927,7 @@
       <c r="Q59" s="25"/>
     </row>
     <row r="60" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G60" s="98"/>
+      <c r="G60" s="94"/>
       <c r="H60" s="20" t="s">
         <v>293</v>
       </c>
@@ -25933,7 +25963,7 @@
       <c r="Q61" s="25"/>
     </row>
     <row r="62" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G62" s="98" t="s">
+      <c r="G62" s="94" t="s">
         <v>283</v>
       </c>
       <c r="H62" s="20" t="s">
@@ -25954,7 +25984,7 @@
       <c r="Q62" s="25"/>
     </row>
     <row r="63" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G63" s="98"/>
+      <c r="G63" s="94"/>
       <c r="H63" s="20" t="s">
         <v>292</v>
       </c>
@@ -25973,7 +26003,7 @@
       <c r="Q63" s="25"/>
     </row>
     <row r="64" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G64" s="98"/>
+      <c r="G64" s="94"/>
       <c r="H64" s="20" t="s">
         <v>293</v>
       </c>
@@ -26009,7 +26039,7 @@
       <c r="Q65" s="25"/>
     </row>
     <row r="66" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G66" s="98" t="s">
+      <c r="G66" s="94" t="s">
         <v>176</v>
       </c>
       <c r="H66" s="20" t="s">
@@ -26030,7 +26060,7 @@
       <c r="Q66" s="25"/>
     </row>
     <row r="67" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G67" s="98"/>
+      <c r="G67" s="94"/>
       <c r="H67" s="20" t="s">
         <v>292</v>
       </c>
@@ -26049,7 +26079,7 @@
       <c r="Q67" s="25"/>
     </row>
     <row r="68" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G68" s="98"/>
+      <c r="G68" s="94"/>
       <c r="H68" s="20" t="s">
         <v>293</v>
       </c>
@@ -26085,7 +26115,7 @@
       <c r="Q69" s="25"/>
     </row>
     <row r="70" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G70" s="98" t="s">
+      <c r="G70" s="94" t="s">
         <v>234</v>
       </c>
       <c r="H70" s="20" t="s">
@@ -26106,7 +26136,7 @@
       <c r="Q70" s="25"/>
     </row>
     <row r="71" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G71" s="98"/>
+      <c r="G71" s="94"/>
       <c r="H71" s="20" t="s">
         <v>303</v>
       </c>
@@ -26125,7 +26155,7 @@
       <c r="Q71" s="25"/>
     </row>
     <row r="72" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G72" s="98"/>
+      <c r="G72" s="94"/>
       <c r="H72" s="20" t="s">
         <v>304</v>
       </c>
@@ -26161,7 +26191,7 @@
       <c r="Q73" s="25"/>
     </row>
     <row r="74" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G74" s="98" t="s">
+      <c r="G74" s="94" t="s">
         <v>255</v>
       </c>
       <c r="H74" s="20" t="s">
@@ -26182,7 +26212,7 @@
       <c r="Q74" s="25"/>
     </row>
     <row r="75" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G75" s="98"/>
+      <c r="G75" s="94"/>
       <c r="H75" s="20" t="s">
         <v>308</v>
       </c>
@@ -26201,7 +26231,7 @@
       <c r="Q75" s="25"/>
     </row>
     <row r="76" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G76" s="98"/>
+      <c r="G76" s="94"/>
       <c r="H76" s="20" t="s">
         <v>309</v>
       </c>
@@ -26237,7 +26267,7 @@
       <c r="Q77" s="25"/>
     </row>
     <row r="78" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G78" s="98" t="s">
+      <c r="G78" s="94" t="s">
         <v>177</v>
       </c>
       <c r="H78" s="20" t="s">
@@ -26258,7 +26288,7 @@
       <c r="Q78" s="25"/>
     </row>
     <row r="79" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G79" s="98"/>
+      <c r="G79" s="94"/>
       <c r="H79" s="20" t="s">
         <v>306</v>
       </c>
@@ -26277,7 +26307,7 @@
       <c r="Q79" s="25"/>
     </row>
     <row r="80" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G80" s="98"/>
+      <c r="G80" s="94"/>
       <c r="H80" s="20" t="s">
         <v>310</v>
       </c>
@@ -26313,7 +26343,7 @@
       <c r="Q81" s="25"/>
     </row>
     <row r="82" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G82" s="98" t="s">
+      <c r="G82" s="94" t="s">
         <v>178</v>
       </c>
       <c r="H82" s="20" t="s">
@@ -26334,7 +26364,7 @@
       <c r="Q82" s="25"/>
     </row>
     <row r="83" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G83" s="98"/>
+      <c r="G83" s="94"/>
       <c r="H83" s="20" t="s">
         <v>292</v>
       </c>
@@ -26353,7 +26383,7 @@
       <c r="Q83" s="25"/>
     </row>
     <row r="84" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G84" s="98"/>
+      <c r="G84" s="94"/>
       <c r="H84" s="20" t="s">
         <v>293</v>
       </c>
@@ -26389,7 +26419,7 @@
       <c r="Q85" s="25"/>
     </row>
     <row r="86" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G86" s="98" t="s">
+      <c r="G86" s="94" t="s">
         <v>179</v>
       </c>
       <c r="H86" s="20" t="s">
@@ -26410,7 +26440,7 @@
       <c r="Q86" s="25"/>
     </row>
     <row r="87" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G87" s="98"/>
+      <c r="G87" s="94"/>
       <c r="H87" s="20" t="s">
         <v>292</v>
       </c>
@@ -26429,7 +26459,7 @@
       <c r="Q87" s="25"/>
     </row>
     <row r="88" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G88" s="98"/>
+      <c r="G88" s="94"/>
       <c r="H88" s="20" t="s">
         <v>293</v>
       </c>
@@ -26465,7 +26495,7 @@
       <c r="Q89" s="25"/>
     </row>
     <row r="90" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G90" s="98" t="s">
+      <c r="G90" s="94" t="s">
         <v>180</v>
       </c>
       <c r="H90" s="20" t="s">
@@ -26486,7 +26516,7 @@
       <c r="Q90" s="25"/>
     </row>
     <row r="91" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G91" s="98"/>
+      <c r="G91" s="94"/>
       <c r="H91" s="20" t="s">
         <v>292</v>
       </c>
@@ -26505,7 +26535,7 @@
       <c r="Q91" s="25"/>
     </row>
     <row r="92" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G92" s="98"/>
+      <c r="G92" s="94"/>
       <c r="H92" s="20" t="s">
         <v>293</v>
       </c>
@@ -26541,7 +26571,7 @@
       <c r="Q93" s="25"/>
     </row>
     <row r="94" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G94" s="98" t="s">
+      <c r="G94" s="94" t="s">
         <v>279</v>
       </c>
       <c r="H94" s="20" t="s">
@@ -26562,7 +26592,7 @@
       <c r="Q94" s="25"/>
     </row>
     <row r="95" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G95" s="98"/>
+      <c r="G95" s="94"/>
       <c r="H95" s="20" t="s">
         <v>306</v>
       </c>
@@ -26581,7 +26611,7 @@
       <c r="Q95" s="25"/>
     </row>
     <row r="96" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G96" s="98"/>
+      <c r="G96" s="94"/>
       <c r="H96" s="20" t="s">
         <v>307</v>
       </c>
@@ -26617,7 +26647,7 @@
       <c r="Q97" s="25"/>
     </row>
     <row r="98" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G98" s="98" t="s">
+      <c r="G98" s="94" t="s">
         <v>181</v>
       </c>
       <c r="H98" s="20" t="s">
@@ -26638,7 +26668,7 @@
       <c r="Q98" s="25"/>
     </row>
     <row r="99" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G99" s="98"/>
+      <c r="G99" s="94"/>
       <c r="H99" s="20" t="s">
         <v>292</v>
       </c>
@@ -26657,7 +26687,7 @@
       <c r="Q99" s="25"/>
     </row>
     <row r="100" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G100" s="98"/>
+      <c r="G100" s="94"/>
       <c r="H100" s="20" t="s">
         <v>293</v>
       </c>
@@ -26693,7 +26723,7 @@
       <c r="Q101" s="25"/>
     </row>
     <row r="102" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G102" s="98" t="s">
+      <c r="G102" s="94" t="s">
         <v>258</v>
       </c>
       <c r="H102" s="20" t="s">
@@ -26714,7 +26744,7 @@
       <c r="Q102" s="25"/>
     </row>
     <row r="103" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G103" s="98"/>
+      <c r="G103" s="94"/>
       <c r="H103" s="20" t="s">
         <v>311</v>
       </c>
@@ -26733,7 +26763,7 @@
       <c r="Q103" s="25"/>
     </row>
     <row r="104" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G104" s="98"/>
+      <c r="G104" s="94"/>
       <c r="H104" s="20" t="s">
         <v>312</v>
       </c>
@@ -26769,7 +26799,7 @@
       <c r="Q105" s="25"/>
     </row>
     <row r="106" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G106" s="98" t="s">
+      <c r="G106" s="94" t="s">
         <v>182</v>
       </c>
       <c r="H106" s="20" t="s">
@@ -26790,7 +26820,7 @@
       <c r="Q106" s="25"/>
     </row>
     <row r="107" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G107" s="98"/>
+      <c r="G107" s="94"/>
       <c r="H107" s="20" t="s">
         <v>292</v>
       </c>
@@ -26809,7 +26839,7 @@
       <c r="Q107" s="25"/>
     </row>
     <row r="108" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G108" s="98"/>
+      <c r="G108" s="94"/>
       <c r="H108" s="20" t="s">
         <v>293</v>
       </c>
@@ -26845,7 +26875,7 @@
       <c r="Q109" s="25"/>
     </row>
     <row r="110" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G110" s="98" t="s">
+      <c r="G110" s="94" t="s">
         <v>151</v>
       </c>
       <c r="H110" s="20" t="s">
@@ -26866,7 +26896,7 @@
       <c r="Q110" s="25"/>
     </row>
     <row r="111" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G111" s="98"/>
+      <c r="G111" s="94"/>
       <c r="H111" s="20" t="s">
         <v>306</v>
       </c>
@@ -26885,7 +26915,7 @@
       <c r="Q111" s="25"/>
     </row>
     <row r="112" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G112" s="98"/>
+      <c r="G112" s="94"/>
       <c r="H112" s="20" t="s">
         <v>307</v>
       </c>
@@ -26921,7 +26951,7 @@
       <c r="Q113" s="25"/>
     </row>
     <row r="114" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G114" s="98" t="s">
+      <c r="G114" s="94" t="s">
         <v>275</v>
       </c>
       <c r="H114" s="20" t="s">
@@ -26942,7 +26972,7 @@
       <c r="Q114" s="25"/>
     </row>
     <row r="115" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G115" s="98"/>
+      <c r="G115" s="94"/>
       <c r="H115" s="20" t="s">
         <v>311</v>
       </c>
@@ -26961,7 +26991,7 @@
       <c r="Q115" s="25"/>
     </row>
     <row r="116" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G116" s="98"/>
+      <c r="G116" s="94"/>
       <c r="H116" s="20" t="s">
         <v>312</v>
       </c>
@@ -26997,7 +27027,7 @@
       <c r="Q117" s="25"/>
     </row>
     <row r="118" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G118" s="98" t="s">
+      <c r="G118" s="94" t="s">
         <v>183</v>
       </c>
       <c r="H118" s="20" t="s">
@@ -27018,7 +27048,7 @@
       <c r="Q118" s="25"/>
     </row>
     <row r="119" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G119" s="98"/>
+      <c r="G119" s="94"/>
       <c r="H119" s="20" t="s">
         <v>292</v>
       </c>
@@ -27037,7 +27067,7 @@
       <c r="Q119" s="25"/>
     </row>
     <row r="120" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G120" s="98"/>
+      <c r="G120" s="94"/>
       <c r="H120" s="20" t="s">
         <v>293</v>
       </c>
@@ -27073,7 +27103,7 @@
       <c r="Q121" s="25"/>
     </row>
     <row r="122" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G122" s="98" t="s">
+      <c r="G122" s="94" t="s">
         <v>111</v>
       </c>
       <c r="H122" s="20" t="s">
@@ -27094,7 +27124,7 @@
       <c r="Q122" s="25"/>
     </row>
     <row r="123" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G123" s="98"/>
+      <c r="G123" s="94"/>
       <c r="H123" s="20" t="s">
         <v>294</v>
       </c>
@@ -27113,7 +27143,7 @@
       <c r="Q123" s="25"/>
     </row>
     <row r="124" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G124" s="98"/>
+      <c r="G124" s="94"/>
       <c r="H124" s="20" t="s">
         <v>295</v>
       </c>
@@ -27149,7 +27179,7 @@
       <c r="Q125" s="25"/>
     </row>
     <row r="126" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G126" s="98" t="s">
+      <c r="G126" s="94" t="s">
         <v>184</v>
       </c>
       <c r="H126" s="20" t="s">
@@ -27170,7 +27200,7 @@
       <c r="Q126" s="25"/>
     </row>
     <row r="127" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G127" s="98"/>
+      <c r="G127" s="94"/>
       <c r="H127" s="20" t="s">
         <v>292</v>
       </c>
@@ -27189,7 +27219,7 @@
       <c r="Q127" s="25"/>
     </row>
     <row r="128" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G128" s="98"/>
+      <c r="G128" s="94"/>
       <c r="H128" s="20" t="s">
         <v>293</v>
       </c>
@@ -27225,7 +27255,7 @@
       <c r="Q129" s="25"/>
     </row>
     <row r="130" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G130" s="98" t="s">
+      <c r="G130" s="94" t="s">
         <v>284</v>
       </c>
       <c r="H130" s="20" t="s">
@@ -27246,7 +27276,7 @@
       <c r="Q130" s="25"/>
     </row>
     <row r="131" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G131" s="98"/>
+      <c r="G131" s="94"/>
       <c r="H131" s="20" t="s">
         <v>292</v>
       </c>
@@ -27265,7 +27295,7 @@
       <c r="Q131" s="25"/>
     </row>
     <row r="132" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G132" s="98"/>
+      <c r="G132" s="94"/>
       <c r="H132" s="20" t="s">
         <v>293</v>
       </c>
@@ -27301,7 +27331,7 @@
       <c r="Q133" s="25"/>
     </row>
     <row r="134" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G134" s="98" t="s">
+      <c r="G134" s="94" t="s">
         <v>185</v>
       </c>
       <c r="H134" s="20" t="s">
@@ -27322,7 +27352,7 @@
       <c r="Q134" s="25"/>
     </row>
     <row r="135" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G135" s="98"/>
+      <c r="G135" s="94"/>
       <c r="H135" s="20" t="s">
         <v>292</v>
       </c>
@@ -27341,7 +27371,7 @@
       <c r="Q135" s="25"/>
     </row>
     <row r="136" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G136" s="98"/>
+      <c r="G136" s="94"/>
       <c r="H136" s="20" t="s">
         <v>293</v>
       </c>
@@ -27376,10 +27406,10 @@
       <c r="Q137" s="25"/>
     </row>
     <row r="138" spans="7:17" ht="21" x14ac:dyDescent="0.2">
-      <c r="G138" s="96" t="s">
+      <c r="G138" s="100" t="s">
         <v>377</v>
       </c>
-      <c r="H138" s="97"/>
+      <c r="H138" s="101"/>
       <c r="I138" s="25"/>
       <c r="J138" s="25"/>
       <c r="K138" s="20" t="s">
@@ -27395,10 +27425,10 @@
       <c r="Q138" s="25"/>
     </row>
     <row r="139" spans="7:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="G139" s="94" t="s">
+      <c r="G139" s="98" t="s">
         <v>410</v>
       </c>
-      <c r="H139" s="95"/>
+      <c r="H139" s="99"/>
       <c r="I139" s="25"/>
       <c r="J139" s="25"/>
       <c r="K139" s="20" t="s">
@@ -27691,32 +27721,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C14:D20"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="G130:G132"/>
-    <mergeCell ref="G126:G128"/>
-    <mergeCell ref="G122:G124"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G50:G52"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="G139:H139"/>
     <mergeCell ref="G138:H138"/>
@@ -27733,6 +27737,32 @@
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="G130:G132"/>
+    <mergeCell ref="G126:G128"/>
+    <mergeCell ref="G122:G124"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="C14:D20"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="E14:E20"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27773,61 +27803,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="118" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="127" t="s">
+      <c r="G1" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
-      <c r="AH1" s="127"/>
-      <c r="AI1" s="127"/>
-      <c r="AJ1" s="127"/>
-      <c r="AK1" s="127"/>
-      <c r="AL1" s="127"/>
-      <c r="AM1" s="127"/>
-      <c r="AN1" s="127"/>
-      <c r="AO1" s="127"/>
-      <c r="AP1" s="127"/>
-      <c r="AQ1" s="127"/>
-      <c r="AR1" s="127"/>
-      <c r="AS1" s="127"/>
-      <c r="AT1" s="127"/>
-      <c r="AU1" s="127"/>
-      <c r="AV1" s="127"/>
-      <c r="AW1" s="127"/>
-      <c r="AX1" s="127"/>
-      <c r="AY1" s="127"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="108"/>
+      <c r="AX1" s="108"/>
+      <c r="AY1" s="108"/>
       <c r="AZ1" s="45"/>
       <c r="BA1" s="79" t="s">
         <v>432</v>
@@ -27845,57 +27875,57 @@
       <c r="BJ1" s="6"/>
     </row>
     <row r="2" spans="1:67" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="127"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="127"/>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="127"/>
-      <c r="AM2" s="127"/>
-      <c r="AN2" s="127"/>
-      <c r="AO2" s="127"/>
-      <c r="AP2" s="127"/>
-      <c r="AQ2" s="127"/>
-      <c r="AR2" s="127"/>
-      <c r="AS2" s="127"/>
-      <c r="AT2" s="127"/>
-      <c r="AU2" s="127"/>
-      <c r="AV2" s="127"/>
-      <c r="AW2" s="127"/>
-      <c r="AX2" s="127"/>
-      <c r="AY2" s="127"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="108"/>
+      <c r="AL2" s="108"/>
+      <c r="AM2" s="108"/>
+      <c r="AN2" s="108"/>
+      <c r="AO2" s="108"/>
+      <c r="AP2" s="108"/>
+      <c r="AQ2" s="108"/>
+      <c r="AR2" s="108"/>
+      <c r="AS2" s="108"/>
+      <c r="AT2" s="108"/>
+      <c r="AU2" s="108"/>
+      <c r="AV2" s="108"/>
+      <c r="AW2" s="108"/>
+      <c r="AX2" s="108"/>
+      <c r="AY2" s="108"/>
       <c r="AZ2" s="45"/>
       <c r="BA2" s="79"/>
       <c r="BB2" s="79"/>
@@ -27904,13 +27934,13 @@
       <c r="BE2" s="45"/>
       <c r="BF2" s="80"/>
       <c r="BG2" s="45"/>
-      <c r="BH2" s="107" t="s">
+      <c r="BH2" s="126" t="s">
         <v>599</v>
       </c>
-      <c r="BI2" s="108"/>
-      <c r="BJ2" s="108"/>
-      <c r="BK2" s="108"/>
-      <c r="BL2" s="109"/>
+      <c r="BI2" s="127"/>
+      <c r="BJ2" s="127"/>
+      <c r="BK2" s="127"/>
+      <c r="BL2" s="128"/>
     </row>
     <row r="3" spans="1:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -27927,59 +27957,59 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="126" t="s">
+      <c r="G3" s="122" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
       <c r="Q3" s="34"/>
-      <c r="R3" s="126" t="s">
+      <c r="R3" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="126"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="126"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
       <c r="AB3" s="34"/>
-      <c r="AC3" s="128" t="s">
+      <c r="AC3" s="123" t="s">
         <v>219</v>
       </c>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="129"/>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="129"/>
-      <c r="AJ3" s="129"/>
-      <c r="AK3" s="129"/>
-      <c r="AL3" s="129"/>
-      <c r="AM3" s="129"/>
-      <c r="AN3" s="130"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
+      <c r="AL3" s="124"/>
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="125"/>
       <c r="AO3" s="34"/>
-      <c r="AP3" s="126" t="s">
+      <c r="AP3" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="AQ3" s="126"/>
-      <c r="AR3" s="126"/>
-      <c r="AS3" s="126"/>
-      <c r="AT3" s="126"/>
-      <c r="AU3" s="126"/>
-      <c r="AV3" s="126"/>
-      <c r="AW3" s="126"/>
-      <c r="AX3" s="126"/>
-      <c r="AY3" s="126"/>
+      <c r="AQ3" s="122"/>
+      <c r="AR3" s="122"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="122"/>
+      <c r="AY3" s="122"/>
       <c r="AZ3" s="44"/>
       <c r="BA3" s="81" t="s">
         <v>433</v>
@@ -27990,11 +28020,11 @@
       <c r="BE3" s="44"/>
       <c r="BF3" s="59"/>
       <c r="BG3" s="44"/>
-      <c r="BH3" s="110"/>
-      <c r="BI3" s="111"/>
-      <c r="BJ3" s="111"/>
-      <c r="BK3" s="111"/>
-      <c r="BL3" s="112"/>
+      <c r="BH3" s="129"/>
+      <c r="BI3" s="130"/>
+      <c r="BJ3" s="130"/>
+      <c r="BK3" s="130"/>
+      <c r="BL3" s="131"/>
     </row>
     <row r="4" spans="1:67" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
@@ -28324,13 +28354,13 @@
         <v>441</v>
       </c>
       <c r="BG5" s="33"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="115" t="s">
+      <c r="BH5" s="132"/>
+      <c r="BI5" s="134" t="s">
         <v>566</v>
       </c>
-      <c r="BJ5" s="116"/>
-      <c r="BK5" s="116"/>
-      <c r="BL5" s="117"/>
+      <c r="BJ5" s="135"/>
+      <c r="BK5" s="135"/>
+      <c r="BL5" s="136"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
@@ -28492,11 +28522,11 @@
       <c r="BE6" s="33"/>
       <c r="BF6" s="54"/>
       <c r="BG6" s="33"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="118"/>
-      <c r="BJ6" s="119"/>
-      <c r="BK6" s="119"/>
-      <c r="BL6" s="120"/>
+      <c r="BH6" s="133"/>
+      <c r="BI6" s="137"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="138"/>
+      <c r="BL6" s="139"/>
       <c r="BN6" s="32" t="s">
         <v>576</v>
       </c>
@@ -28664,7 +28694,7 @@
         <v>31</v>
       </c>
       <c r="BG7" s="33"/>
-      <c r="BH7" s="121" t="s">
+      <c r="BH7" s="140" t="s">
         <v>567</v>
       </c>
       <c r="BI7" s="9"/>
@@ -28846,7 +28876,7 @@
         <v>442</v>
       </c>
       <c r="BG8" s="33"/>
-      <c r="BH8" s="122"/>
+      <c r="BH8" s="141"/>
       <c r="BI8" s="68" t="s">
         <v>7</v>
       </c>
@@ -29026,7 +29056,7 @@
       <c r="BE9" s="33"/>
       <c r="BF9" s="54"/>
       <c r="BG9" s="33"/>
-      <c r="BH9" s="122"/>
+      <c r="BH9" s="141"/>
       <c r="BI9" s="67" t="s">
         <v>10</v>
       </c>
@@ -29208,7 +29238,7 @@
         <v>439</v>
       </c>
       <c r="BG10" s="33"/>
-      <c r="BH10" s="123"/>
+      <c r="BH10" s="142"/>
       <c r="BI10" s="67" t="s">
         <v>11</v>
       </c>
@@ -29554,7 +29584,7 @@
       <c r="BE12" s="33"/>
       <c r="BF12" s="54"/>
       <c r="BG12" s="33"/>
-      <c r="BH12" s="142" t="s">
+      <c r="BH12" s="107" t="s">
         <v>7</v>
       </c>
       <c r="BI12" s="51" t="s">
@@ -29724,7 +29754,7 @@
         <v>51</v>
       </c>
       <c r="BG13" s="33"/>
-      <c r="BH13" s="142"/>
+      <c r="BH13" s="107"/>
       <c r="BI13" s="65">
         <v>2</v>
       </c>
@@ -29892,7 +29922,7 @@
         <v>443</v>
       </c>
       <c r="BG14" s="33"/>
-      <c r="BH14" s="142" t="s">
+      <c r="BH14" s="107" t="s">
         <v>10</v>
       </c>
       <c r="BI14" s="69" t="s">
@@ -29909,12 +29939,12 @@
       </c>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A15" s="124" t="s">
+      <c r="A15" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="35" t="s">
@@ -30062,7 +30092,7 @@
       <c r="BE15" s="33"/>
       <c r="BF15" s="54"/>
       <c r="BG15" s="33"/>
-      <c r="BH15" s="142"/>
+      <c r="BH15" s="107"/>
       <c r="BI15" s="65">
         <v>1</v>
       </c>
@@ -30077,10 +30107,10 @@
       </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A16" s="125"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="35" t="s">
@@ -30230,7 +30260,7 @@
         <v>440</v>
       </c>
       <c r="BG16" s="33"/>
-      <c r="BH16" s="142" t="s">
+      <c r="BH16" s="107" t="s">
         <v>11</v>
       </c>
       <c r="BI16" s="51" t="s">
@@ -30408,7 +30438,7 @@
         <v>444</v>
       </c>
       <c r="BG17" s="33"/>
-      <c r="BH17" s="142"/>
+      <c r="BH17" s="107"/>
       <c r="BI17" s="65">
         <v>1</v>
       </c>
@@ -32321,12 +32351,12 @@
       </c>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A29" s="124" t="s">
+      <c r="A29" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="35" t="s">
@@ -32489,10 +32519,10 @@
       </c>
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A30" s="125"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="35" t="s">
@@ -34635,12 +34665,12 @@
       <c r="BJ42" s="6"/>
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A43" s="127" t="s">
+      <c r="A43" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="127"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="127"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="35" t="s">
@@ -34795,10 +34825,10 @@
       <c r="BJ43" s="6"/>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A44" s="127"/>
-      <c r="B44" s="127"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="127"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="35" t="s">
@@ -36763,12 +36793,12 @@
       <c r="BJ55" s="6"/>
     </row>
     <row r="56" spans="1:62" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="140" t="s">
+      <c r="A56" s="120" t="s">
         <v>411</v>
       </c>
-      <c r="B56" s="140"/>
-      <c r="C56" s="140"/>
-      <c r="D56" s="140"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="120"/>
       <c r="E56" s="25"/>
       <c r="F56" s="6"/>
       <c r="G56" s="35" t="s">
@@ -36923,10 +36953,10 @@
       <c r="BJ56" s="6"/>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A57" s="140"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
+      <c r="A57" s="120"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="120"/>
       <c r="E57" s="25"/>
       <c r="F57" s="6"/>
       <c r="G57" s="35" t="s">
@@ -37081,12 +37111,12 @@
       <c r="BJ57" s="6"/>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A58" s="141" t="s">
+      <c r="A58" s="121" t="s">
         <v>379</v>
       </c>
-      <c r="B58" s="141"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="141"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
       <c r="E58" s="25"/>
       <c r="F58" s="6"/>
       <c r="G58" s="35" t="s">
@@ -37547,12 +37577,12 @@
       <c r="BJ60" s="6"/>
     </row>
     <row r="61" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A61" s="127" t="s">
+      <c r="A61" s="108" t="s">
         <v>378</v>
       </c>
-      <c r="B61" s="127"/>
-      <c r="C61" s="127"/>
-      <c r="D61" s="127"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
       <c r="E61" s="25"/>
       <c r="F61" s="6"/>
       <c r="G61" s="35" t="s">
@@ -37707,10 +37737,10 @@
       <c r="BJ61" s="6"/>
     </row>
     <row r="62" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A62" s="127"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="127"/>
+      <c r="A62" s="108"/>
+      <c r="B62" s="108"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="108"/>
       <c r="E62" s="25"/>
       <c r="F62" s="6"/>
       <c r="G62" s="35" t="s">
@@ -39833,12 +39863,12 @@
       <c r="BJ74" s="6"/>
     </row>
     <row r="75" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A75" s="127" t="s">
+      <c r="A75" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="127"/>
-      <c r="C75" s="127"/>
-      <c r="D75" s="127"/>
+      <c r="B75" s="108"/>
+      <c r="C75" s="108"/>
+      <c r="D75" s="108"/>
       <c r="E75" s="25"/>
       <c r="F75" s="6"/>
       <c r="G75" s="35" t="s">
@@ -39991,10 +40021,10 @@
       <c r="BJ75" s="6"/>
     </row>
     <row r="76" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A76" s="127"/>
-      <c r="B76" s="127"/>
-      <c r="C76" s="127"/>
-      <c r="D76" s="127"/>
+      <c r="A76" s="108"/>
+      <c r="B76" s="108"/>
+      <c r="C76" s="108"/>
+      <c r="D76" s="108"/>
       <c r="E76" s="25"/>
       <c r="F76" s="6"/>
       <c r="G76" s="35" t="s">
@@ -42268,11 +42298,11 @@
     </row>
     <row r="90" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
-      <c r="B90" s="131" t="s">
+      <c r="B90" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="132"/>
-      <c r="D90" s="137" t="s">
+      <c r="C90" s="110"/>
+      <c r="D90" s="115" t="s">
         <v>397</v>
       </c>
       <c r="G90" s="42" t="s">
@@ -42422,9 +42452,9 @@
     </row>
     <row r="91" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
-      <c r="B91" s="133"/>
-      <c r="C91" s="134"/>
-      <c r="D91" s="138"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="112"/>
+      <c r="D91" s="116"/>
       <c r="G91" s="42" t="s">
         <v>282</v>
       </c>
@@ -42570,9 +42600,9 @@
     </row>
     <row r="92" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
-      <c r="B92" s="133"/>
-      <c r="C92" s="134"/>
-      <c r="D92" s="138"/>
+      <c r="B92" s="111"/>
+      <c r="C92" s="112"/>
+      <c r="D92" s="116"/>
       <c r="G92" s="42" t="s">
         <v>175</v>
       </c>
@@ -42719,9 +42749,9 @@
       </c>
     </row>
     <row r="93" spans="1:62" ht="17" x14ac:dyDescent="0.2">
-      <c r="B93" s="133"/>
-      <c r="C93" s="134"/>
-      <c r="D93" s="138"/>
+      <c r="B93" s="111"/>
+      <c r="C93" s="112"/>
+      <c r="D93" s="116"/>
       <c r="G93" s="42" t="s">
         <v>283</v>
       </c>
@@ -42868,9 +42898,9 @@
       </c>
     </row>
     <row r="94" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B94" s="133"/>
-      <c r="C94" s="134"/>
-      <c r="D94" s="138"/>
+      <c r="B94" s="111"/>
+      <c r="C94" s="112"/>
+      <c r="D94" s="116"/>
       <c r="G94" s="42" t="s">
         <v>176</v>
       </c>
@@ -43017,9 +43047,9 @@
       </c>
     </row>
     <row r="95" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B95" s="133"/>
-      <c r="C95" s="134"/>
-      <c r="D95" s="138"/>
+      <c r="B95" s="111"/>
+      <c r="C95" s="112"/>
+      <c r="D95" s="116"/>
       <c r="G95" s="42" t="s">
         <v>177</v>
       </c>
@@ -43164,9 +43194,9 @@
       <c r="BF95" s="54"/>
     </row>
     <row r="96" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B96" s="135"/>
-      <c r="C96" s="136"/>
-      <c r="D96" s="139"/>
+      <c r="B96" s="113"/>
+      <c r="C96" s="114"/>
+      <c r="D96" s="117"/>
       <c r="G96" s="42" t="s">
         <v>178</v>
       </c>
@@ -46617,6 +46647,30 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="BF1:BF2"/>
+    <mergeCell ref="BA1:BD2"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="BI29:BL29"/>
+    <mergeCell ref="BI30:BL30"/>
+    <mergeCell ref="BH2:BL3"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BL6"/>
+    <mergeCell ref="BH7:BH10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="G1:AY2"/>
+    <mergeCell ref="AP3:AY3"/>
+    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="R3:AA3"/>
+    <mergeCell ref="AC3:AN3"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="B90:C96"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="A58:D58"/>
     <mergeCell ref="BI31:BL31"/>
     <mergeCell ref="BH12:BH13"/>
     <mergeCell ref="BH14:BH15"/>
@@ -46631,30 +46685,6 @@
     <mergeCell ref="BI23:BL23"/>
     <mergeCell ref="BI24:BL24"/>
     <mergeCell ref="BI25:BL25"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="B90:C96"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="A56:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G3:P3"/>
-    <mergeCell ref="G1:AY2"/>
-    <mergeCell ref="AP3:AY3"/>
-    <mergeCell ref="A15:D16"/>
-    <mergeCell ref="R3:AA3"/>
-    <mergeCell ref="AC3:AN3"/>
-    <mergeCell ref="BF1:BF2"/>
-    <mergeCell ref="BA1:BD2"/>
-    <mergeCell ref="BA3:BD3"/>
-    <mergeCell ref="BI29:BL29"/>
-    <mergeCell ref="BI30:BL30"/>
-    <mergeCell ref="BH2:BL3"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BL6"/>
-    <mergeCell ref="BH7:BH10"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code/skripsi.xlsx
+++ b/Code/skripsi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radityarin/Documents/Kuliah/Skripsi/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A803063-AD2C-A54F-962E-5626D0C2CDE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA9C5CE-B143-AD4A-870A-52B4B5FC138A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{3413B29C-560F-AE4D-9915-B4DC0247194E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="6" xr2:uid="{3413B29C-560F-AE4D-9915-B4DC0247194E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Utama Pilihan" sheetId="2" r:id="rId1"/>
@@ -5060,18 +5060,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5093,6 +5081,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5105,65 +5096,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5214,6 +5157,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5561,7 +5561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D895E53-141D-0E4E-8B10-C16E118F9F44}">
   <dimension ref="A1:I390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="119" workbookViewId="0">
+    <sheetView topLeftCell="B8" zoomScale="119" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -24676,24 +24676,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="91" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="G1" s="102" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="G1" s="99" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="102"/>
+      <c r="H1" s="99"/>
     </row>
     <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
@@ -24718,16 +24718,16 @@
       <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="102" t="s">
         <v>376</v>
       </c>
-      <c r="H3" s="105"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
-      <c r="K3" s="91" t="s">
+      <c r="K3" s="103" t="s">
         <v>320</v>
       </c>
-      <c r="L3" s="91"/>
+      <c r="L3" s="103"/>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
@@ -24750,8 +24750,8 @@
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
@@ -24771,10 +24771,10 @@
       <c r="E5" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="100" t="s">
         <v>375</v>
       </c>
-      <c r="H5" s="104"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="20" t="s">
@@ -24802,7 +24802,7 @@
       <c r="E6" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="104" t="s">
         <v>280</v>
       </c>
       <c r="H6" s="29" t="s">
@@ -24835,7 +24835,7 @@
       <c r="E7" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="93"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="20" t="s">
         <v>292</v>
       </c>
@@ -24866,7 +24866,7 @@
       <c r="E8" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="93"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="20" t="s">
         <v>293</v>
       </c>
@@ -24926,7 +24926,7 @@
       <c r="E10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="94" t="s">
+      <c r="G10" s="98" t="s">
         <v>173</v>
       </c>
       <c r="H10" s="20" t="s">
@@ -24959,7 +24959,7 @@
       <c r="E11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="94"/>
+      <c r="G11" s="98"/>
       <c r="H11" s="20" t="s">
         <v>292</v>
       </c>
@@ -24990,7 +24990,7 @@
       <c r="E12" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="94"/>
+      <c r="G12" s="98"/>
       <c r="H12" s="20" t="s">
         <v>293</v>
       </c>
@@ -25033,7 +25033,7 @@
       <c r="E14" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="94" t="s">
+      <c r="G14" s="98" t="s">
         <v>110</v>
       </c>
       <c r="H14" s="20" t="s">
@@ -25057,7 +25057,7 @@
       <c r="C15" s="82"/>
       <c r="D15" s="82"/>
       <c r="E15" s="83"/>
-      <c r="G15" s="94"/>
+      <c r="G15" s="98"/>
       <c r="H15" s="20" t="s">
         <v>294</v>
       </c>
@@ -25079,7 +25079,7 @@
       <c r="C16" s="82"/>
       <c r="D16" s="82"/>
       <c r="E16" s="83"/>
-      <c r="G16" s="94"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="20" t="s">
         <v>295</v>
       </c>
@@ -25121,7 +25121,7 @@
       <c r="C18" s="82"/>
       <c r="D18" s="82"/>
       <c r="E18" s="83"/>
-      <c r="G18" s="94" t="s">
+      <c r="G18" s="98" t="s">
         <v>245</v>
       </c>
       <c r="H18" s="20" t="s">
@@ -25145,7 +25145,7 @@
       <c r="C19" s="82"/>
       <c r="D19" s="82"/>
       <c r="E19" s="83"/>
-      <c r="G19" s="94"/>
+      <c r="G19" s="98"/>
       <c r="H19" s="20" t="s">
         <v>297</v>
       </c>
@@ -25167,7 +25167,7 @@
       <c r="C20" s="82"/>
       <c r="D20" s="82"/>
       <c r="E20" s="83"/>
-      <c r="G20" s="94"/>
+      <c r="G20" s="98"/>
       <c r="H20" s="20" t="s">
         <v>298</v>
       </c>
@@ -25203,7 +25203,7 @@
       <c r="Q21" s="25"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G22" s="94" t="s">
+      <c r="G22" s="98" t="s">
         <v>124</v>
       </c>
       <c r="H22" s="20" t="s">
@@ -25224,7 +25224,7 @@
       <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G23" s="94"/>
+      <c r="G23" s="98"/>
       <c r="H23" s="20" t="s">
         <v>299</v>
       </c>
@@ -25243,7 +25243,7 @@
       <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G24" s="94"/>
+      <c r="G24" s="98"/>
       <c r="H24" s="20" t="s">
         <v>300</v>
       </c>
@@ -25279,7 +25279,7 @@
       <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G26" s="94" t="s">
+      <c r="G26" s="98" t="s">
         <v>248</v>
       </c>
       <c r="H26" s="20" t="s">
@@ -25300,7 +25300,7 @@
       <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G27" s="94"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="20" t="s">
         <v>301</v>
       </c>
@@ -25319,7 +25319,7 @@
       <c r="Q27" s="25"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G28" s="94"/>
+      <c r="G28" s="98"/>
       <c r="H28" s="20" t="s">
         <v>302</v>
       </c>
@@ -25355,7 +25355,7 @@
       <c r="Q29" s="25"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G30" s="94" t="s">
+      <c r="G30" s="98" t="s">
         <v>174</v>
       </c>
       <c r="H30" s="20" t="s">
@@ -25376,7 +25376,7 @@
       <c r="Q30" s="25"/>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G31" s="94"/>
+      <c r="G31" s="98"/>
       <c r="H31" s="20" t="s">
         <v>292</v>
       </c>
@@ -25395,7 +25395,7 @@
       <c r="Q31" s="25"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G32" s="94"/>
+      <c r="G32" s="98"/>
       <c r="H32" s="20" t="s">
         <v>293</v>
       </c>
@@ -25431,7 +25431,7 @@
       <c r="Q33" s="25"/>
     </row>
     <row r="34" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G34" s="94" t="s">
+      <c r="G34" s="98" t="s">
         <v>244</v>
       </c>
       <c r="H34" s="20" t="s">
@@ -25452,7 +25452,7 @@
       <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G35" s="94"/>
+      <c r="G35" s="98"/>
       <c r="H35" s="20" t="s">
         <v>303</v>
       </c>
@@ -25471,7 +25471,7 @@
       <c r="Q35" s="25"/>
     </row>
     <row r="36" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G36" s="94"/>
+      <c r="G36" s="98"/>
       <c r="H36" s="20" t="s">
         <v>304</v>
       </c>
@@ -25507,7 +25507,7 @@
       <c r="Q37" s="25"/>
     </row>
     <row r="38" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G38" s="94" t="s">
+      <c r="G38" s="98" t="s">
         <v>154</v>
       </c>
       <c r="H38" s="20" t="s">
@@ -25528,7 +25528,7 @@
       <c r="Q38" s="25"/>
     </row>
     <row r="39" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G39" s="94"/>
+      <c r="G39" s="98"/>
       <c r="H39" s="20" t="s">
         <v>297</v>
       </c>
@@ -25547,7 +25547,7 @@
       <c r="Q39" s="25"/>
     </row>
     <row r="40" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G40" s="94"/>
+      <c r="G40" s="98"/>
       <c r="H40" s="20" t="s">
         <v>305</v>
       </c>
@@ -25583,7 +25583,7 @@
       <c r="Q41" s="25"/>
     </row>
     <row r="42" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G42" s="94" t="s">
+      <c r="G42" s="98" t="s">
         <v>281</v>
       </c>
       <c r="H42" s="20" t="s">
@@ -25604,7 +25604,7 @@
       <c r="Q42" s="25"/>
     </row>
     <row r="43" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G43" s="94"/>
+      <c r="G43" s="98"/>
       <c r="H43" s="20" t="s">
         <v>292</v>
       </c>
@@ -25623,7 +25623,7 @@
       <c r="Q43" s="25"/>
     </row>
     <row r="44" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G44" s="94"/>
+      <c r="G44" s="98"/>
       <c r="H44" s="20" t="s">
         <v>293</v>
       </c>
@@ -25659,7 +25659,7 @@
       <c r="Q45" s="25"/>
     </row>
     <row r="46" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G46" s="94" t="s">
+      <c r="G46" s="98" t="s">
         <v>282</v>
       </c>
       <c r="H46" s="20" t="s">
@@ -25680,7 +25680,7 @@
       <c r="Q46" s="25"/>
     </row>
     <row r="47" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G47" s="94"/>
+      <c r="G47" s="98"/>
       <c r="H47" s="20" t="s">
         <v>292</v>
       </c>
@@ -25699,7 +25699,7 @@
       <c r="Q47" s="25"/>
     </row>
     <row r="48" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G48" s="94"/>
+      <c r="G48" s="98"/>
       <c r="H48" s="20" t="s">
         <v>293</v>
       </c>
@@ -25735,7 +25735,7 @@
       <c r="Q49" s="25"/>
     </row>
     <row r="50" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G50" s="94" t="s">
+      <c r="G50" s="98" t="s">
         <v>277</v>
       </c>
       <c r="H50" s="20" t="s">
@@ -25756,7 +25756,7 @@
       <c r="Q50" s="25"/>
     </row>
     <row r="51" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G51" s="94"/>
+      <c r="G51" s="98"/>
       <c r="H51" s="20" t="s">
         <v>306</v>
       </c>
@@ -25775,7 +25775,7 @@
       <c r="Q51" s="25"/>
     </row>
     <row r="52" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G52" s="94"/>
+      <c r="G52" s="98"/>
       <c r="H52" s="20" t="s">
         <v>307</v>
       </c>
@@ -25811,7 +25811,7 @@
       <c r="Q53" s="25"/>
     </row>
     <row r="54" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G54" s="94" t="s">
+      <c r="G54" s="98" t="s">
         <v>163</v>
       </c>
       <c r="H54" s="20" t="s">
@@ -25832,7 +25832,7 @@
       <c r="Q54" s="25"/>
     </row>
     <row r="55" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G55" s="94"/>
+      <c r="G55" s="98"/>
       <c r="H55" s="20" t="s">
         <v>306</v>
       </c>
@@ -25851,7 +25851,7 @@
       <c r="Q55" s="25"/>
     </row>
     <row r="56" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G56" s="94"/>
+      <c r="G56" s="98"/>
       <c r="H56" s="20" t="s">
         <v>307</v>
       </c>
@@ -25887,7 +25887,7 @@
       <c r="Q57" s="25"/>
     </row>
     <row r="58" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G58" s="94" t="s">
+      <c r="G58" s="98" t="s">
         <v>175</v>
       </c>
       <c r="H58" s="20" t="s">
@@ -25908,7 +25908,7 @@
       <c r="Q58" s="25"/>
     </row>
     <row r="59" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G59" s="94"/>
+      <c r="G59" s="98"/>
       <c r="H59" s="20" t="s">
         <v>292</v>
       </c>
@@ -25927,7 +25927,7 @@
       <c r="Q59" s="25"/>
     </row>
     <row r="60" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G60" s="94"/>
+      <c r="G60" s="98"/>
       <c r="H60" s="20" t="s">
         <v>293</v>
       </c>
@@ -25963,7 +25963,7 @@
       <c r="Q61" s="25"/>
     </row>
     <row r="62" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G62" s="94" t="s">
+      <c r="G62" s="98" t="s">
         <v>283</v>
       </c>
       <c r="H62" s="20" t="s">
@@ -25984,7 +25984,7 @@
       <c r="Q62" s="25"/>
     </row>
     <row r="63" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G63" s="94"/>
+      <c r="G63" s="98"/>
       <c r="H63" s="20" t="s">
         <v>292</v>
       </c>
@@ -26003,7 +26003,7 @@
       <c r="Q63" s="25"/>
     </row>
     <row r="64" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G64" s="94"/>
+      <c r="G64" s="98"/>
       <c r="H64" s="20" t="s">
         <v>293</v>
       </c>
@@ -26039,7 +26039,7 @@
       <c r="Q65" s="25"/>
     </row>
     <row r="66" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G66" s="94" t="s">
+      <c r="G66" s="98" t="s">
         <v>176</v>
       </c>
       <c r="H66" s="20" t="s">
@@ -26060,7 +26060,7 @@
       <c r="Q66" s="25"/>
     </row>
     <row r="67" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G67" s="94"/>
+      <c r="G67" s="98"/>
       <c r="H67" s="20" t="s">
         <v>292</v>
       </c>
@@ -26079,7 +26079,7 @@
       <c r="Q67" s="25"/>
     </row>
     <row r="68" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G68" s="94"/>
+      <c r="G68" s="98"/>
       <c r="H68" s="20" t="s">
         <v>293</v>
       </c>
@@ -26115,7 +26115,7 @@
       <c r="Q69" s="25"/>
     </row>
     <row r="70" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G70" s="94" t="s">
+      <c r="G70" s="98" t="s">
         <v>234</v>
       </c>
       <c r="H70" s="20" t="s">
@@ -26136,7 +26136,7 @@
       <c r="Q70" s="25"/>
     </row>
     <row r="71" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G71" s="94"/>
+      <c r="G71" s="98"/>
       <c r="H71" s="20" t="s">
         <v>303</v>
       </c>
@@ -26155,7 +26155,7 @@
       <c r="Q71" s="25"/>
     </row>
     <row r="72" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G72" s="94"/>
+      <c r="G72" s="98"/>
       <c r="H72" s="20" t="s">
         <v>304</v>
       </c>
@@ -26191,7 +26191,7 @@
       <c r="Q73" s="25"/>
     </row>
     <row r="74" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G74" s="94" t="s">
+      <c r="G74" s="98" t="s">
         <v>255</v>
       </c>
       <c r="H74" s="20" t="s">
@@ -26212,7 +26212,7 @@
       <c r="Q74" s="25"/>
     </row>
     <row r="75" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G75" s="94"/>
+      <c r="G75" s="98"/>
       <c r="H75" s="20" t="s">
         <v>308</v>
       </c>
@@ -26231,7 +26231,7 @@
       <c r="Q75" s="25"/>
     </row>
     <row r="76" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G76" s="94"/>
+      <c r="G76" s="98"/>
       <c r="H76" s="20" t="s">
         <v>309</v>
       </c>
@@ -26267,7 +26267,7 @@
       <c r="Q77" s="25"/>
     </row>
     <row r="78" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G78" s="94" t="s">
+      <c r="G78" s="98" t="s">
         <v>177</v>
       </c>
       <c r="H78" s="20" t="s">
@@ -26288,7 +26288,7 @@
       <c r="Q78" s="25"/>
     </row>
     <row r="79" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G79" s="94"/>
+      <c r="G79" s="98"/>
       <c r="H79" s="20" t="s">
         <v>306</v>
       </c>
@@ -26307,7 +26307,7 @@
       <c r="Q79" s="25"/>
     </row>
     <row r="80" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G80" s="94"/>
+      <c r="G80" s="98"/>
       <c r="H80" s="20" t="s">
         <v>310</v>
       </c>
@@ -26343,7 +26343,7 @@
       <c r="Q81" s="25"/>
     </row>
     <row r="82" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G82" s="94" t="s">
+      <c r="G82" s="98" t="s">
         <v>178</v>
       </c>
       <c r="H82" s="20" t="s">
@@ -26364,7 +26364,7 @@
       <c r="Q82" s="25"/>
     </row>
     <row r="83" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G83" s="94"/>
+      <c r="G83" s="98"/>
       <c r="H83" s="20" t="s">
         <v>292</v>
       </c>
@@ -26383,7 +26383,7 @@
       <c r="Q83" s="25"/>
     </row>
     <row r="84" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G84" s="94"/>
+      <c r="G84" s="98"/>
       <c r="H84" s="20" t="s">
         <v>293</v>
       </c>
@@ -26419,7 +26419,7 @@
       <c r="Q85" s="25"/>
     </row>
     <row r="86" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G86" s="94" t="s">
+      <c r="G86" s="98" t="s">
         <v>179</v>
       </c>
       <c r="H86" s="20" t="s">
@@ -26440,7 +26440,7 @@
       <c r="Q86" s="25"/>
     </row>
     <row r="87" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G87" s="94"/>
+      <c r="G87" s="98"/>
       <c r="H87" s="20" t="s">
         <v>292</v>
       </c>
@@ -26459,7 +26459,7 @@
       <c r="Q87" s="25"/>
     </row>
     <row r="88" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G88" s="94"/>
+      <c r="G88" s="98"/>
       <c r="H88" s="20" t="s">
         <v>293</v>
       </c>
@@ -26495,7 +26495,7 @@
       <c r="Q89" s="25"/>
     </row>
     <row r="90" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G90" s="94" t="s">
+      <c r="G90" s="98" t="s">
         <v>180</v>
       </c>
       <c r="H90" s="20" t="s">
@@ -26516,7 +26516,7 @@
       <c r="Q90" s="25"/>
     </row>
     <row r="91" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G91" s="94"/>
+      <c r="G91" s="98"/>
       <c r="H91" s="20" t="s">
         <v>292</v>
       </c>
@@ -26535,7 +26535,7 @@
       <c r="Q91" s="25"/>
     </row>
     <row r="92" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G92" s="94"/>
+      <c r="G92" s="98"/>
       <c r="H92" s="20" t="s">
         <v>293</v>
       </c>
@@ -26571,7 +26571,7 @@
       <c r="Q93" s="25"/>
     </row>
     <row r="94" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G94" s="94" t="s">
+      <c r="G94" s="98" t="s">
         <v>279</v>
       </c>
       <c r="H94" s="20" t="s">
@@ -26592,7 +26592,7 @@
       <c r="Q94" s="25"/>
     </row>
     <row r="95" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G95" s="94"/>
+      <c r="G95" s="98"/>
       <c r="H95" s="20" t="s">
         <v>306</v>
       </c>
@@ -26611,7 +26611,7 @@
       <c r="Q95" s="25"/>
     </row>
     <row r="96" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G96" s="94"/>
+      <c r="G96" s="98"/>
       <c r="H96" s="20" t="s">
         <v>307</v>
       </c>
@@ -26647,7 +26647,7 @@
       <c r="Q97" s="25"/>
     </row>
     <row r="98" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G98" s="94" t="s">
+      <c r="G98" s="98" t="s">
         <v>181</v>
       </c>
       <c r="H98" s="20" t="s">
@@ -26668,7 +26668,7 @@
       <c r="Q98" s="25"/>
     </row>
     <row r="99" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G99" s="94"/>
+      <c r="G99" s="98"/>
       <c r="H99" s="20" t="s">
         <v>292</v>
       </c>
@@ -26687,7 +26687,7 @@
       <c r="Q99" s="25"/>
     </row>
     <row r="100" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G100" s="94"/>
+      <c r="G100" s="98"/>
       <c r="H100" s="20" t="s">
         <v>293</v>
       </c>
@@ -26723,7 +26723,7 @@
       <c r="Q101" s="25"/>
     </row>
     <row r="102" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G102" s="94" t="s">
+      <c r="G102" s="98" t="s">
         <v>258</v>
       </c>
       <c r="H102" s="20" t="s">
@@ -26744,7 +26744,7 @@
       <c r="Q102" s="25"/>
     </row>
     <row r="103" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G103" s="94"/>
+      <c r="G103" s="98"/>
       <c r="H103" s="20" t="s">
         <v>311</v>
       </c>
@@ -26763,7 +26763,7 @@
       <c r="Q103" s="25"/>
     </row>
     <row r="104" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G104" s="94"/>
+      <c r="G104" s="98"/>
       <c r="H104" s="20" t="s">
         <v>312</v>
       </c>
@@ -26799,7 +26799,7 @@
       <c r="Q105" s="25"/>
     </row>
     <row r="106" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G106" s="94" t="s">
+      <c r="G106" s="98" t="s">
         <v>182</v>
       </c>
       <c r="H106" s="20" t="s">
@@ -26820,7 +26820,7 @@
       <c r="Q106" s="25"/>
     </row>
     <row r="107" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G107" s="94"/>
+      <c r="G107" s="98"/>
       <c r="H107" s="20" t="s">
         <v>292</v>
       </c>
@@ -26839,7 +26839,7 @@
       <c r="Q107" s="25"/>
     </row>
     <row r="108" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G108" s="94"/>
+      <c r="G108" s="98"/>
       <c r="H108" s="20" t="s">
         <v>293</v>
       </c>
@@ -26875,7 +26875,7 @@
       <c r="Q109" s="25"/>
     </row>
     <row r="110" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G110" s="94" t="s">
+      <c r="G110" s="98" t="s">
         <v>151</v>
       </c>
       <c r="H110" s="20" t="s">
@@ -26896,7 +26896,7 @@
       <c r="Q110" s="25"/>
     </row>
     <row r="111" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G111" s="94"/>
+      <c r="G111" s="98"/>
       <c r="H111" s="20" t="s">
         <v>306</v>
       </c>
@@ -26915,7 +26915,7 @@
       <c r="Q111" s="25"/>
     </row>
     <row r="112" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G112" s="94"/>
+      <c r="G112" s="98"/>
       <c r="H112" s="20" t="s">
         <v>307</v>
       </c>
@@ -26951,7 +26951,7 @@
       <c r="Q113" s="25"/>
     </row>
     <row r="114" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G114" s="94" t="s">
+      <c r="G114" s="98" t="s">
         <v>275</v>
       </c>
       <c r="H114" s="20" t="s">
@@ -26972,7 +26972,7 @@
       <c r="Q114" s="25"/>
     </row>
     <row r="115" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G115" s="94"/>
+      <c r="G115" s="98"/>
       <c r="H115" s="20" t="s">
         <v>311</v>
       </c>
@@ -26991,7 +26991,7 @@
       <c r="Q115" s="25"/>
     </row>
     <row r="116" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G116" s="94"/>
+      <c r="G116" s="98"/>
       <c r="H116" s="20" t="s">
         <v>312</v>
       </c>
@@ -27027,7 +27027,7 @@
       <c r="Q117" s="25"/>
     </row>
     <row r="118" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G118" s="94" t="s">
+      <c r="G118" s="98" t="s">
         <v>183</v>
       </c>
       <c r="H118" s="20" t="s">
@@ -27048,7 +27048,7 @@
       <c r="Q118" s="25"/>
     </row>
     <row r="119" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G119" s="94"/>
+      <c r="G119" s="98"/>
       <c r="H119" s="20" t="s">
         <v>292</v>
       </c>
@@ -27067,7 +27067,7 @@
       <c r="Q119" s="25"/>
     </row>
     <row r="120" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G120" s="94"/>
+      <c r="G120" s="98"/>
       <c r="H120" s="20" t="s">
         <v>293</v>
       </c>
@@ -27103,7 +27103,7 @@
       <c r="Q121" s="25"/>
     </row>
     <row r="122" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G122" s="94" t="s">
+      <c r="G122" s="98" t="s">
         <v>111</v>
       </c>
       <c r="H122" s="20" t="s">
@@ -27124,7 +27124,7 @@
       <c r="Q122" s="25"/>
     </row>
     <row r="123" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G123" s="94"/>
+      <c r="G123" s="98"/>
       <c r="H123" s="20" t="s">
         <v>294</v>
       </c>
@@ -27143,7 +27143,7 @@
       <c r="Q123" s="25"/>
     </row>
     <row r="124" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G124" s="94"/>
+      <c r="G124" s="98"/>
       <c r="H124" s="20" t="s">
         <v>295</v>
       </c>
@@ -27179,7 +27179,7 @@
       <c r="Q125" s="25"/>
     </row>
     <row r="126" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G126" s="94" t="s">
+      <c r="G126" s="98" t="s">
         <v>184</v>
       </c>
       <c r="H126" s="20" t="s">
@@ -27200,7 +27200,7 @@
       <c r="Q126" s="25"/>
     </row>
     <row r="127" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G127" s="94"/>
+      <c r="G127" s="98"/>
       <c r="H127" s="20" t="s">
         <v>292</v>
       </c>
@@ -27219,7 +27219,7 @@
       <c r="Q127" s="25"/>
     </row>
     <row r="128" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G128" s="94"/>
+      <c r="G128" s="98"/>
       <c r="H128" s="20" t="s">
         <v>293</v>
       </c>
@@ -27255,7 +27255,7 @@
       <c r="Q129" s="25"/>
     </row>
     <row r="130" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G130" s="94" t="s">
+      <c r="G130" s="98" t="s">
         <v>284</v>
       </c>
       <c r="H130" s="20" t="s">
@@ -27276,7 +27276,7 @@
       <c r="Q130" s="25"/>
     </row>
     <row r="131" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G131" s="94"/>
+      <c r="G131" s="98"/>
       <c r="H131" s="20" t="s">
         <v>292</v>
       </c>
@@ -27295,7 +27295,7 @@
       <c r="Q131" s="25"/>
     </row>
     <row r="132" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G132" s="94"/>
+      <c r="G132" s="98"/>
       <c r="H132" s="20" t="s">
         <v>293</v>
       </c>
@@ -27331,7 +27331,7 @@
       <c r="Q133" s="25"/>
     </row>
     <row r="134" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G134" s="94" t="s">
+      <c r="G134" s="98" t="s">
         <v>185</v>
       </c>
       <c r="H134" s="20" t="s">
@@ -27352,7 +27352,7 @@
       <c r="Q134" s="25"/>
     </row>
     <row r="135" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G135" s="94"/>
+      <c r="G135" s="98"/>
       <c r="H135" s="20" t="s">
         <v>292</v>
       </c>
@@ -27371,7 +27371,7 @@
       <c r="Q135" s="25"/>
     </row>
     <row r="136" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G136" s="94"/>
+      <c r="G136" s="98"/>
       <c r="H136" s="20" t="s">
         <v>293</v>
       </c>
@@ -27406,10 +27406,10 @@
       <c r="Q137" s="25"/>
     </row>
     <row r="138" spans="7:17" ht="21" x14ac:dyDescent="0.2">
-      <c r="G138" s="100" t="s">
+      <c r="G138" s="96" t="s">
         <v>377</v>
       </c>
-      <c r="H138" s="101"/>
+      <c r="H138" s="97"/>
       <c r="I138" s="25"/>
       <c r="J138" s="25"/>
       <c r="K138" s="20" t="s">
@@ -27425,10 +27425,10 @@
       <c r="Q138" s="25"/>
     </row>
     <row r="139" spans="7:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="G139" s="98" t="s">
+      <c r="G139" s="94" t="s">
         <v>410</v>
       </c>
-      <c r="H139" s="99"/>
+      <c r="H139" s="95"/>
       <c r="I139" s="25"/>
       <c r="J139" s="25"/>
       <c r="K139" s="20" t="s">
@@ -27721,6 +27721,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C14:D20"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="G130:G132"/>
+    <mergeCell ref="G126:G128"/>
+    <mergeCell ref="G122:G124"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G50:G52"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="G139:H139"/>
     <mergeCell ref="G138:H138"/>
@@ -27737,32 +27763,6 @@
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="G130:G132"/>
-    <mergeCell ref="G126:G128"/>
-    <mergeCell ref="G122:G124"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="C14:D20"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="E14:E20"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27773,7 +27773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE669EB-9A75-B741-9919-5DF03557E885}">
   <dimension ref="A1:BO166"/>
   <sheetViews>
-    <sheetView topLeftCell="BG1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BD1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="BJ14" sqref="BJ14"/>
     </sheetView>
   </sheetViews>
@@ -27803,61 +27803,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="124" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="127" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="108"/>
-      <c r="AX1" s="108"/>
-      <c r="AY1" s="108"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="127"/>
+      <c r="AI1" s="127"/>
+      <c r="AJ1" s="127"/>
+      <c r="AK1" s="127"/>
+      <c r="AL1" s="127"/>
+      <c r="AM1" s="127"/>
+      <c r="AN1" s="127"/>
+      <c r="AO1" s="127"/>
+      <c r="AP1" s="127"/>
+      <c r="AQ1" s="127"/>
+      <c r="AR1" s="127"/>
+      <c r="AS1" s="127"/>
+      <c r="AT1" s="127"/>
+      <c r="AU1" s="127"/>
+      <c r="AV1" s="127"/>
+      <c r="AW1" s="127"/>
+      <c r="AX1" s="127"/>
+      <c r="AY1" s="127"/>
       <c r="AZ1" s="45"/>
       <c r="BA1" s="79" t="s">
         <v>432</v>
@@ -27875,57 +27875,57 @@
       <c r="BJ1" s="6"/>
     </row>
     <row r="2" spans="1:67" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="108"/>
-      <c r="AL2" s="108"/>
-      <c r="AM2" s="108"/>
-      <c r="AN2" s="108"/>
-      <c r="AO2" s="108"/>
-      <c r="AP2" s="108"/>
-      <c r="AQ2" s="108"/>
-      <c r="AR2" s="108"/>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="108"/>
-      <c r="AU2" s="108"/>
-      <c r="AV2" s="108"/>
-      <c r="AW2" s="108"/>
-      <c r="AX2" s="108"/>
-      <c r="AY2" s="108"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="127"/>
+      <c r="AH2" s="127"/>
+      <c r="AI2" s="127"/>
+      <c r="AJ2" s="127"/>
+      <c r="AK2" s="127"/>
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="127"/>
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="127"/>
+      <c r="AQ2" s="127"/>
+      <c r="AR2" s="127"/>
+      <c r="AS2" s="127"/>
+      <c r="AT2" s="127"/>
+      <c r="AU2" s="127"/>
+      <c r="AV2" s="127"/>
+      <c r="AW2" s="127"/>
+      <c r="AX2" s="127"/>
+      <c r="AY2" s="127"/>
       <c r="AZ2" s="45"/>
       <c r="BA2" s="79"/>
       <c r="BB2" s="79"/>
@@ -27934,13 +27934,13 @@
       <c r="BE2" s="45"/>
       <c r="BF2" s="80"/>
       <c r="BG2" s="45"/>
-      <c r="BH2" s="126" t="s">
+      <c r="BH2" s="107" t="s">
         <v>599</v>
       </c>
-      <c r="BI2" s="127"/>
-      <c r="BJ2" s="127"/>
-      <c r="BK2" s="127"/>
-      <c r="BL2" s="128"/>
+      <c r="BI2" s="108"/>
+      <c r="BJ2" s="108"/>
+      <c r="BK2" s="108"/>
+      <c r="BL2" s="109"/>
     </row>
     <row r="3" spans="1:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -27957,59 +27957,59 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="122" t="s">
+      <c r="G3" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
       <c r="Q3" s="34"/>
-      <c r="R3" s="122" t="s">
+      <c r="R3" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
       <c r="AB3" s="34"/>
-      <c r="AC3" s="123" t="s">
+      <c r="AC3" s="128" t="s">
         <v>219</v>
       </c>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="124"/>
-      <c r="AH3" s="124"/>
-      <c r="AI3" s="124"/>
-      <c r="AJ3" s="124"/>
-      <c r="AK3" s="124"/>
-      <c r="AL3" s="124"/>
-      <c r="AM3" s="124"/>
-      <c r="AN3" s="125"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="129"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="129"/>
+      <c r="AJ3" s="129"/>
+      <c r="AK3" s="129"/>
+      <c r="AL3" s="129"/>
+      <c r="AM3" s="129"/>
+      <c r="AN3" s="130"/>
       <c r="AO3" s="34"/>
-      <c r="AP3" s="122" t="s">
+      <c r="AP3" s="126" t="s">
         <v>225</v>
       </c>
-      <c r="AQ3" s="122"/>
-      <c r="AR3" s="122"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="122"/>
-      <c r="AU3" s="122"/>
-      <c r="AV3" s="122"/>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="122"/>
-      <c r="AY3" s="122"/>
+      <c r="AQ3" s="126"/>
+      <c r="AR3" s="126"/>
+      <c r="AS3" s="126"/>
+      <c r="AT3" s="126"/>
+      <c r="AU3" s="126"/>
+      <c r="AV3" s="126"/>
+      <c r="AW3" s="126"/>
+      <c r="AX3" s="126"/>
+      <c r="AY3" s="126"/>
       <c r="AZ3" s="44"/>
       <c r="BA3" s="81" t="s">
         <v>433</v>
@@ -28020,11 +28020,11 @@
       <c r="BE3" s="44"/>
       <c r="BF3" s="59"/>
       <c r="BG3" s="44"/>
-      <c r="BH3" s="129"/>
-      <c r="BI3" s="130"/>
-      <c r="BJ3" s="130"/>
-      <c r="BK3" s="130"/>
-      <c r="BL3" s="131"/>
+      <c r="BH3" s="110"/>
+      <c r="BI3" s="111"/>
+      <c r="BJ3" s="111"/>
+      <c r="BK3" s="111"/>
+      <c r="BL3" s="112"/>
     </row>
     <row r="4" spans="1:67" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
@@ -28354,13 +28354,13 @@
         <v>441</v>
       </c>
       <c r="BG5" s="33"/>
-      <c r="BH5" s="132"/>
-      <c r="BI5" s="134" t="s">
+      <c r="BH5" s="113"/>
+      <c r="BI5" s="115" t="s">
         <v>566</v>
       </c>
-      <c r="BJ5" s="135"/>
-      <c r="BK5" s="135"/>
-      <c r="BL5" s="136"/>
+      <c r="BJ5" s="116"/>
+      <c r="BK5" s="116"/>
+      <c r="BL5" s="117"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
@@ -28522,11 +28522,11 @@
       <c r="BE6" s="33"/>
       <c r="BF6" s="54"/>
       <c r="BG6" s="33"/>
-      <c r="BH6" s="133"/>
-      <c r="BI6" s="137"/>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="139"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="118"/>
+      <c r="BJ6" s="119"/>
+      <c r="BK6" s="119"/>
+      <c r="BL6" s="120"/>
       <c r="BN6" s="32" t="s">
         <v>576</v>
       </c>
@@ -28694,7 +28694,7 @@
         <v>31</v>
       </c>
       <c r="BG7" s="33"/>
-      <c r="BH7" s="140" t="s">
+      <c r="BH7" s="121" t="s">
         <v>567</v>
       </c>
       <c r="BI7" s="9"/>
@@ -28876,7 +28876,7 @@
         <v>442</v>
       </c>
       <c r="BG8" s="33"/>
-      <c r="BH8" s="141"/>
+      <c r="BH8" s="122"/>
       <c r="BI8" s="68" t="s">
         <v>7</v>
       </c>
@@ -29056,7 +29056,7 @@
       <c r="BE9" s="33"/>
       <c r="BF9" s="54"/>
       <c r="BG9" s="33"/>
-      <c r="BH9" s="141"/>
+      <c r="BH9" s="122"/>
       <c r="BI9" s="67" t="s">
         <v>10</v>
       </c>
@@ -29238,7 +29238,7 @@
         <v>439</v>
       </c>
       <c r="BG10" s="33"/>
-      <c r="BH10" s="142"/>
+      <c r="BH10" s="123"/>
       <c r="BI10" s="67" t="s">
         <v>11</v>
       </c>
@@ -29584,7 +29584,7 @@
       <c r="BE12" s="33"/>
       <c r="BF12" s="54"/>
       <c r="BG12" s="33"/>
-      <c r="BH12" s="107" t="s">
+      <c r="BH12" s="142" t="s">
         <v>7</v>
       </c>
       <c r="BI12" s="51" t="s">
@@ -29754,7 +29754,7 @@
         <v>51</v>
       </c>
       <c r="BG13" s="33"/>
-      <c r="BH13" s="107"/>
+      <c r="BH13" s="142"/>
       <c r="BI13" s="65">
         <v>2</v>
       </c>
@@ -29922,7 +29922,7 @@
         <v>443</v>
       </c>
       <c r="BG14" s="33"/>
-      <c r="BH14" s="107" t="s">
+      <c r="BH14" s="142" t="s">
         <v>10</v>
       </c>
       <c r="BI14" s="69" t="s">
@@ -29939,12 +29939,12 @@
       </c>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="35" t="s">
@@ -30092,7 +30092,7 @@
       <c r="BE15" s="33"/>
       <c r="BF15" s="54"/>
       <c r="BG15" s="33"/>
-      <c r="BH15" s="107"/>
+      <c r="BH15" s="142"/>
       <c r="BI15" s="65">
         <v>1</v>
       </c>
@@ -30107,10 +30107,10 @@
       </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A16" s="119"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="35" t="s">
@@ -30260,7 +30260,7 @@
         <v>440</v>
       </c>
       <c r="BG16" s="33"/>
-      <c r="BH16" s="107" t="s">
+      <c r="BH16" s="142" t="s">
         <v>11</v>
       </c>
       <c r="BI16" s="51" t="s">
@@ -30438,7 +30438,7 @@
         <v>444</v>
       </c>
       <c r="BG17" s="33"/>
-      <c r="BH17" s="107"/>
+      <c r="BH17" s="142"/>
       <c r="BI17" s="65">
         <v>1</v>
       </c>
@@ -32351,12 +32351,12 @@
       </c>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A29" s="118" t="s">
+      <c r="A29" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="118"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="35" t="s">
@@ -32519,10 +32519,10 @@
       </c>
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A30" s="119"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="35" t="s">
@@ -34665,12 +34665,12 @@
       <c r="BJ42" s="6"/>
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A43" s="108" t="s">
+      <c r="A43" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="127"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="35" t="s">
@@ -34825,10 +34825,10 @@
       <c r="BJ43" s="6"/>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A44" s="108"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="35" t="s">
@@ -36793,12 +36793,12 @@
       <c r="BJ55" s="6"/>
     </row>
     <row r="56" spans="1:62" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="120" t="s">
+      <c r="A56" s="140" t="s">
         <v>411</v>
       </c>
-      <c r="B56" s="120"/>
-      <c r="C56" s="120"/>
-      <c r="D56" s="120"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="140"/>
       <c r="E56" s="25"/>
       <c r="F56" s="6"/>
       <c r="G56" s="35" t="s">
@@ -36953,10 +36953,10 @@
       <c r="BJ56" s="6"/>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A57" s="120"/>
-      <c r="B57" s="120"/>
-      <c r="C57" s="120"/>
-      <c r="D57" s="120"/>
+      <c r="A57" s="140"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
       <c r="E57" s="25"/>
       <c r="F57" s="6"/>
       <c r="G57" s="35" t="s">
@@ -37111,12 +37111,12 @@
       <c r="BJ57" s="6"/>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A58" s="121" t="s">
+      <c r="A58" s="141" t="s">
         <v>379</v>
       </c>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="141"/>
       <c r="E58" s="25"/>
       <c r="F58" s="6"/>
       <c r="G58" s="35" t="s">
@@ -37577,12 +37577,12 @@
       <c r="BJ60" s="6"/>
     </row>
     <row r="61" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A61" s="108" t="s">
+      <c r="A61" s="127" t="s">
         <v>378</v>
       </c>
-      <c r="B61" s="108"/>
-      <c r="C61" s="108"/>
-      <c r="D61" s="108"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="127"/>
       <c r="E61" s="25"/>
       <c r="F61" s="6"/>
       <c r="G61" s="35" t="s">
@@ -37737,10 +37737,10 @@
       <c r="BJ61" s="6"/>
     </row>
     <row r="62" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A62" s="108"/>
-      <c r="B62" s="108"/>
-      <c r="C62" s="108"/>
-      <c r="D62" s="108"/>
+      <c r="A62" s="127"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="127"/>
       <c r="E62" s="25"/>
       <c r="F62" s="6"/>
       <c r="G62" s="35" t="s">
@@ -39863,12 +39863,12 @@
       <c r="BJ74" s="6"/>
     </row>
     <row r="75" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A75" s="108" t="s">
+      <c r="A75" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="108"/>
-      <c r="C75" s="108"/>
-      <c r="D75" s="108"/>
+      <c r="B75" s="127"/>
+      <c r="C75" s="127"/>
+      <c r="D75" s="127"/>
       <c r="E75" s="25"/>
       <c r="F75" s="6"/>
       <c r="G75" s="35" t="s">
@@ -40021,10 +40021,10 @@
       <c r="BJ75" s="6"/>
     </row>
     <row r="76" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A76" s="108"/>
-      <c r="B76" s="108"/>
-      <c r="C76" s="108"/>
-      <c r="D76" s="108"/>
+      <c r="A76" s="127"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="127"/>
+      <c r="D76" s="127"/>
       <c r="E76" s="25"/>
       <c r="F76" s="6"/>
       <c r="G76" s="35" t="s">
@@ -42298,11 +42298,11 @@
     </row>
     <row r="90" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
-      <c r="B90" s="109" t="s">
+      <c r="B90" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="110"/>
-      <c r="D90" s="115" t="s">
+      <c r="C90" s="132"/>
+      <c r="D90" s="137" t="s">
         <v>397</v>
       </c>
       <c r="G90" s="42" t="s">
@@ -42452,9 +42452,9 @@
     </row>
     <row r="91" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
-      <c r="B91" s="111"/>
-      <c r="C91" s="112"/>
-      <c r="D91" s="116"/>
+      <c r="B91" s="133"/>
+      <c r="C91" s="134"/>
+      <c r="D91" s="138"/>
       <c r="G91" s="42" t="s">
         <v>282</v>
       </c>
@@ -42600,9 +42600,9 @@
     </row>
     <row r="92" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
-      <c r="B92" s="111"/>
-      <c r="C92" s="112"/>
-      <c r="D92" s="116"/>
+      <c r="B92" s="133"/>
+      <c r="C92" s="134"/>
+      <c r="D92" s="138"/>
       <c r="G92" s="42" t="s">
         <v>175</v>
       </c>
@@ -42749,9 +42749,9 @@
       </c>
     </row>
     <row r="93" spans="1:62" ht="17" x14ac:dyDescent="0.2">
-      <c r="B93" s="111"/>
-      <c r="C93" s="112"/>
-      <c r="D93" s="116"/>
+      <c r="B93" s="133"/>
+      <c r="C93" s="134"/>
+      <c r="D93" s="138"/>
       <c r="G93" s="42" t="s">
         <v>283</v>
       </c>
@@ -42898,9 +42898,9 @@
       </c>
     </row>
     <row r="94" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B94" s="111"/>
-      <c r="C94" s="112"/>
-      <c r="D94" s="116"/>
+      <c r="B94" s="133"/>
+      <c r="C94" s="134"/>
+      <c r="D94" s="138"/>
       <c r="G94" s="42" t="s">
         <v>176</v>
       </c>
@@ -43047,9 +43047,9 @@
       </c>
     </row>
     <row r="95" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B95" s="111"/>
-      <c r="C95" s="112"/>
-      <c r="D95" s="116"/>
+      <c r="B95" s="133"/>
+      <c r="C95" s="134"/>
+      <c r="D95" s="138"/>
       <c r="G95" s="42" t="s">
         <v>177</v>
       </c>
@@ -43194,9 +43194,9 @@
       <c r="BF95" s="54"/>
     </row>
     <row r="96" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B96" s="113"/>
-      <c r="C96" s="114"/>
-      <c r="D96" s="117"/>
+      <c r="B96" s="135"/>
+      <c r="C96" s="136"/>
+      <c r="D96" s="139"/>
       <c r="G96" s="42" t="s">
         <v>178</v>
       </c>
@@ -46647,30 +46647,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="BF1:BF2"/>
-    <mergeCell ref="BA1:BD2"/>
-    <mergeCell ref="BA3:BD3"/>
-    <mergeCell ref="BI29:BL29"/>
-    <mergeCell ref="BI30:BL30"/>
-    <mergeCell ref="BH2:BL3"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BL6"/>
-    <mergeCell ref="BH7:BH10"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G3:P3"/>
-    <mergeCell ref="G1:AY2"/>
-    <mergeCell ref="AP3:AY3"/>
-    <mergeCell ref="A15:D16"/>
-    <mergeCell ref="R3:AA3"/>
-    <mergeCell ref="AC3:AN3"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="B90:C96"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="A56:D57"/>
-    <mergeCell ref="A58:D58"/>
     <mergeCell ref="BI31:BL31"/>
     <mergeCell ref="BH12:BH13"/>
     <mergeCell ref="BH14:BH15"/>
@@ -46685,6 +46661,30 @@
     <mergeCell ref="BI23:BL23"/>
     <mergeCell ref="BI24:BL24"/>
     <mergeCell ref="BI25:BL25"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="B90:C96"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="G1:AY2"/>
+    <mergeCell ref="AP3:AY3"/>
+    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="R3:AA3"/>
+    <mergeCell ref="AC3:AN3"/>
+    <mergeCell ref="BF1:BF2"/>
+    <mergeCell ref="BA1:BD2"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="BI29:BL29"/>
+    <mergeCell ref="BI30:BL30"/>
+    <mergeCell ref="BH2:BL3"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BL6"/>
+    <mergeCell ref="BH7:BH10"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
